--- a/proton_qT/expdata/12882.xlsx
+++ b/proton_qT/expdata/12882.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10810"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10212"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/patrickbarry/work/JAM/fitpack/database/proton_qT/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/barryp/work/JAM/fitpack2/database/proton_qT/expdata/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E1D0AFF6-BDDC-844B-91AB-4C33C70D0A52}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C41DB3E0-E933-B741-BB68-0289B6C2B35B}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="1960" yWindow="7360" windowWidth="26840" windowHeight="8660" xr2:uid="{20CAA433-5407-F041-ACD1-8E0E90D3CEE4}"/>
   </bookViews>
@@ -20,14 +20,6 @@
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
     </ext>
-    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
-      <xcalcf:calcFeatures>
-        <xcalcf:feature name="microsoft.com:RD"/>
-        <xcalcf:feature name="microsoft.com:Single"/>
-        <xcalcf:feature name="microsoft.com:FV"/>
-        <xcalcf:feature name="microsoft.com:CNMTM"/>
-      </xcalcf:calcFeatures>
-    </ext>
   </extLst>
 </workbook>
 </file>
@@ -36,12 +28,6 @@
 <sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="604" uniqueCount="19">
   <si>
     <t>E</t>
-  </si>
-  <si>
-    <t>m_min</t>
-  </si>
-  <si>
-    <t>m_max</t>
   </si>
   <si>
     <t>pT_min</t>
@@ -90,6 +76,12 @@
   </si>
   <si>
     <t>Y</t>
+  </si>
+  <si>
+    <t>M_min</t>
+  </si>
+  <si>
+    <t>M_max</t>
   </si>
 </sst>
 </file>
@@ -470,8 +462,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C91CFFCC-2AB3-A14D-A40A-F0A9E568B97D}">
   <dimension ref="A1:N119"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A111" workbookViewId="0">
-      <selection activeCell="N117" sqref="N117"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="C2" sqref="C2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -494,43 +486,43 @@
         <v>0</v>
       </c>
       <c r="B1" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="C1" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="D1" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="2" t="s">
+      <c r="E1" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="1" t="s">
+      <c r="F1" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="G1" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="H1" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="I1" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="E1" s="1" t="s">
+      <c r="J1" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="F1" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="G1" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="H1" s="1" t="s">
+      <c r="K1" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="L1" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="M1" s="1" t="s">
         <v>14</v>
       </c>
-      <c r="I1" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="J1" s="3" t="s">
-        <v>6</v>
-      </c>
-      <c r="K1" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="L1" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="M1" s="1" t="s">
+      <c r="N1" s="1" t="s">
         <v>16</v>
-      </c>
-      <c r="N1" s="1" t="s">
-        <v>18</v>
       </c>
     </row>
     <row r="2" spans="1:14" ht="17" x14ac:dyDescent="0.25">
@@ -550,13 +542,13 @@
         <v>0.2</v>
       </c>
       <c r="F2" s="1" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="G2" s="1" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="H2" s="4" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="I2" s="3">
         <v>9.16</v>
@@ -569,10 +561,10 @@
         <v>2.29</v>
       </c>
       <c r="L2" s="1" t="s">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="M2" s="1" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="N2" s="1">
         <v>0.21</v>
@@ -595,13 +587,13 @@
         <v>0.4</v>
       </c>
       <c r="F3" s="1" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="G3" s="1" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="H3" s="4" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="I3" s="3">
         <v>7.6500000000000012</v>
@@ -614,10 +606,10 @@
         <v>1.9125000000000003</v>
       </c>
       <c r="L3" s="1" t="s">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="M3" s="1" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="N3" s="1">
         <v>0.21</v>
@@ -640,13 +632,13 @@
         <v>0.6</v>
       </c>
       <c r="F4" s="1" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="G4" s="1" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="H4" s="4" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="I4" s="3">
         <v>6.6099999999999994</v>
@@ -659,10 +651,10 @@
         <v>1.6524999999999999</v>
       </c>
       <c r="L4" s="1" t="s">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="M4" s="1" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="N4" s="1">
         <v>0.21</v>
@@ -685,13 +677,13 @@
         <v>0.8</v>
       </c>
       <c r="F5" s="1" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="G5" s="1" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="H5" s="4" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="I5" s="3">
         <v>5.58</v>
@@ -704,10 +696,10 @@
         <v>1.395</v>
       </c>
       <c r="L5" s="1" t="s">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="M5" s="1" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="N5" s="1">
         <v>0.21</v>
@@ -730,13 +722,13 @@
         <v>1</v>
       </c>
       <c r="F6" s="1" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="G6" s="1" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="H6" s="4" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="I6" s="3">
         <v>3.91</v>
@@ -749,10 +741,10 @@
         <v>0.97750000000000004</v>
       </c>
       <c r="L6" s="1" t="s">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="M6" s="1" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="N6" s="1">
         <v>0.21</v>
@@ -775,13 +767,13 @@
         <v>1.2</v>
       </c>
       <c r="F7" s="1" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="G7" s="1" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="H7" s="4" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="I7" s="3">
         <v>2.73</v>
@@ -794,10 +786,10 @@
         <v>0.6825</v>
       </c>
       <c r="L7" s="1" t="s">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="M7" s="1" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="N7" s="1">
         <v>0.21</v>
@@ -820,13 +812,13 @@
         <v>1.4</v>
       </c>
       <c r="F8" s="1" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="G8" s="1" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="H8" s="4" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="I8" s="3">
         <v>1.85</v>
@@ -839,10 +831,10 @@
         <v>0.46250000000000002</v>
       </c>
       <c r="L8" s="1" t="s">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="M8" s="1" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="N8" s="1">
         <v>0.21</v>
@@ -865,13 +857,13 @@
         <v>1.6</v>
       </c>
       <c r="F9" s="1" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="G9" s="1" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="H9" s="4" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="I9" s="3">
         <v>1.58</v>
@@ -884,10 +876,10 @@
         <v>0.39500000000000002</v>
       </c>
       <c r="L9" s="1" t="s">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="M9" s="1" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="N9" s="1">
         <v>0.21</v>
@@ -910,13 +902,13 @@
         <v>1.8</v>
       </c>
       <c r="F10" s="1" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="G10" s="1" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="H10" s="4" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="I10" s="3">
         <v>0.83800000000000008</v>
@@ -929,10 +921,10 @@
         <v>0.20950000000000002</v>
       </c>
       <c r="L10" s="1" t="s">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="M10" s="1" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="N10" s="1">
         <v>0.21</v>
@@ -955,13 +947,13 @@
         <v>2</v>
       </c>
       <c r="F11" s="1" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="G11" s="1" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="H11" s="4" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="I11" s="3">
         <v>0.503</v>
@@ -974,10 +966,10 @@
         <v>0.12575</v>
       </c>
       <c r="L11" s="1" t="s">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="M11" s="1" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="N11" s="1">
         <v>0.21</v>
@@ -1000,13 +992,13 @@
         <v>2.2000000000000002</v>
       </c>
       <c r="F12" s="1" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="G12" s="1" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="H12" s="4" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="I12" s="3">
         <v>0.39699999999999996</v>
@@ -1019,10 +1011,10 @@
         <v>9.9249999999999991E-2</v>
       </c>
       <c r="L12" s="1" t="s">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="M12" s="1" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="N12" s="1">
         <v>0.21</v>
@@ -1045,13 +1037,13 @@
         <v>2.4</v>
       </c>
       <c r="F13" s="1" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="G13" s="1" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="H13" s="4" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="I13" s="3">
         <v>0.189</v>
@@ -1064,10 +1056,10 @@
         <v>4.725E-2</v>
       </c>
       <c r="L13" s="1" t="s">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="M13" s="1" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="N13" s="1">
         <v>0.21</v>
@@ -1090,13 +1082,13 @@
         <v>2.6</v>
       </c>
       <c r="F14" s="1" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="G14" s="1" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="H14" s="4" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="I14" s="3">
         <v>5.8000000000000003E-2</v>
@@ -1109,10 +1101,10 @@
         <v>1.4500000000000001E-2</v>
       </c>
       <c r="L14" s="1" t="s">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="M14" s="1" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="N14" s="1">
         <v>0.21</v>
@@ -1135,13 +1127,13 @@
         <v>2.8</v>
       </c>
       <c r="F15" s="1" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="G15" s="1" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="H15" s="4" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="I15" s="3">
         <v>0.21200000000000002</v>
@@ -1154,10 +1146,10 @@
         <v>5.3000000000000005E-2</v>
       </c>
       <c r="L15" s="1" t="s">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="M15" s="1" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="N15" s="1">
         <v>0.21</v>
@@ -1180,13 +1172,13 @@
         <v>3</v>
       </c>
       <c r="F16" s="1" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="G16" s="1" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="H16" s="4" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="I16" s="3">
         <v>-0.13900000000000001</v>
@@ -1199,10 +1191,10 @@
         <v>-3.4750000000000003E-2</v>
       </c>
       <c r="L16" s="1" t="s">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="M16" s="1" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="N16" s="1">
         <v>0.21</v>
@@ -1225,13 +1217,13 @@
         <v>0.2</v>
       </c>
       <c r="F17" s="1" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="G17" s="1" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="H17" s="4" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="I17" s="3">
         <v>2.57</v>
@@ -1244,10 +1236,10 @@
         <v>0.64249999999999996</v>
       </c>
       <c r="L17" s="1" t="s">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="M17" s="1" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="N17" s="1">
         <v>0.21</v>
@@ -1270,13 +1262,13 @@
         <v>0.4</v>
       </c>
       <c r="F18" s="1" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="G18" s="1" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="H18" s="4" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="I18" s="3">
         <v>2.3000000000000003</v>
@@ -1289,10 +1281,10 @@
         <v>0.57500000000000007</v>
       </c>
       <c r="L18" s="1" t="s">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="M18" s="1" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="N18" s="1">
         <v>0.21</v>
@@ -1315,13 +1307,13 @@
         <v>0.6</v>
       </c>
       <c r="F19" s="1" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="G19" s="1" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="H19" s="4" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="I19" s="3">
         <v>2.0700000000000003</v>
@@ -1334,10 +1326,10 @@
         <v>0.51750000000000007</v>
       </c>
       <c r="L19" s="1" t="s">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="M19" s="1" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="N19" s="1">
         <v>0.21</v>
@@ -1360,13 +1352,13 @@
         <v>0.8</v>
       </c>
       <c r="F20" s="1" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="G20" s="1" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="H20" s="4" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="I20" s="3">
         <v>1.82</v>
@@ -1379,10 +1371,10 @@
         <v>0.45500000000000002</v>
       </c>
       <c r="L20" s="1" t="s">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="M20" s="1" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="N20" s="1">
         <v>0.21</v>
@@ -1405,13 +1397,13 @@
         <v>1</v>
       </c>
       <c r="F21" s="1" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="G21" s="1" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="H21" s="4" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="I21" s="3">
         <v>1.1300000000000001</v>
@@ -1424,10 +1416,10 @@
         <v>0.28250000000000003</v>
       </c>
       <c r="L21" s="1" t="s">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="M21" s="1" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="N21" s="1">
         <v>0.21</v>
@@ -1450,13 +1442,13 @@
         <v>1.2</v>
       </c>
       <c r="F22" s="1" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="G22" s="1" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="H22" s="4" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="I22" s="3">
         <v>0.872</v>
@@ -1469,10 +1461,10 @@
         <v>0.218</v>
       </c>
       <c r="L22" s="1" t="s">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="M22" s="1" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="N22" s="1">
         <v>0.21</v>
@@ -1495,13 +1487,13 @@
         <v>1.4</v>
       </c>
       <c r="F23" s="1" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="G23" s="1" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="H23" s="4" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="I23" s="3">
         <v>0.63500000000000012</v>
@@ -1514,10 +1506,10 @@
         <v>0.15875000000000003</v>
       </c>
       <c r="L23" s="1" t="s">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="M23" s="1" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="N23" s="1">
         <v>0.21</v>
@@ -1540,13 +1532,13 @@
         <v>1.6</v>
       </c>
       <c r="F24" s="1" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="G24" s="1" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="H24" s="4" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="I24" s="3">
         <v>0.38400000000000006</v>
@@ -1559,10 +1551,10 @@
         <v>9.6000000000000016E-2</v>
       </c>
       <c r="L24" s="1" t="s">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="M24" s="1" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="N24" s="1">
         <v>0.21</v>
@@ -1585,13 +1577,13 @@
         <v>1.8</v>
       </c>
       <c r="F25" s="1" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="G25" s="1" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="H25" s="4" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="I25" s="3">
         <v>0.26</v>
@@ -1604,10 +1596,10 @@
         <v>6.5000000000000002E-2</v>
       </c>
       <c r="L25" s="1" t="s">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="M25" s="1" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="N25" s="1">
         <v>0.21</v>
@@ -1630,13 +1622,13 @@
         <v>2</v>
       </c>
       <c r="F26" s="1" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="G26" s="1" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="H26" s="4" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="I26" s="3">
         <v>0.124</v>
@@ -1649,10 +1641,10 @@
         <v>3.1E-2</v>
       </c>
       <c r="L26" s="1" t="s">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="M26" s="1" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="N26" s="1">
         <v>0.21</v>
@@ -1675,13 +1667,13 @@
         <v>2.2000000000000002</v>
       </c>
       <c r="F27" s="1" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="G27" s="1" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="H27" s="4" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="I27" s="3">
         <v>0.10300000000000001</v>
@@ -1694,10 +1686,10 @@
         <v>2.5750000000000002E-2</v>
       </c>
       <c r="L27" s="1" t="s">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="M27" s="1" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="N27" s="1">
         <v>0.21</v>
@@ -1720,13 +1712,13 @@
         <v>2.4</v>
       </c>
       <c r="F28" s="1" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="G28" s="1" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="H28" s="4" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="I28" s="3">
         <v>7.9000000000000001E-2</v>
@@ -1739,10 +1731,10 @@
         <v>1.975E-2</v>
       </c>
       <c r="L28" s="1" t="s">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="M28" s="1" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="N28" s="1">
         <v>0.21</v>
@@ -1765,13 +1757,13 @@
         <v>2.6</v>
       </c>
       <c r="F29" s="1" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="G29" s="1" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="H29" s="4" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="I29" s="3">
         <v>3.2000000000000001E-2</v>
@@ -1784,10 +1776,10 @@
         <v>8.0000000000000002E-3</v>
       </c>
       <c r="L29" s="1" t="s">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="M29" s="1" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="N29" s="1">
         <v>0.21</v>
@@ -1810,13 +1802,13 @@
         <v>2.8</v>
       </c>
       <c r="F30" s="1" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="G30" s="1" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="H30" s="4" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="I30" s="3">
         <v>1.4E-2</v>
@@ -1829,10 +1821,10 @@
         <v>3.5000000000000001E-3</v>
       </c>
       <c r="L30" s="1" t="s">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="M30" s="1" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="N30" s="1">
         <v>0.21</v>
@@ -1855,13 +1847,13 @@
         <v>3</v>
       </c>
       <c r="F31" s="1" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="G31" s="1" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="H31" s="4" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="I31" s="3">
         <v>6.6E-3</v>
@@ -1874,10 +1866,10 @@
         <v>1.65E-3</v>
       </c>
       <c r="L31" s="1" t="s">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="M31" s="1" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="N31" s="1">
         <v>0.21</v>
@@ -1900,13 +1892,13 @@
         <v>3.2</v>
       </c>
       <c r="F32" s="1" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="G32" s="1" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="H32" s="4" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="I32" s="3">
         <v>5.5000000000000005E-3</v>
@@ -1919,10 +1911,10 @@
         <v>1.3750000000000001E-3</v>
       </c>
       <c r="L32" s="1" t="s">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="M32" s="1" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="N32" s="1">
         <v>0.21</v>
@@ -1945,13 +1937,13 @@
         <v>4</v>
       </c>
       <c r="F33" s="1" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="G33" s="1" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="H33" s="4" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="I33" s="3">
         <v>1.3299999999999999E-2</v>
@@ -1964,10 +1956,10 @@
         <v>3.3249999999999998E-3</v>
       </c>
       <c r="L33" s="1" t="s">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="M33" s="1" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="N33" s="1">
         <v>0.21</v>
@@ -1990,13 +1982,13 @@
         <v>0.2</v>
       </c>
       <c r="F34" s="1" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="G34" s="1" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="H34" s="4" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="I34" s="3">
         <v>0.84899999999999998</v>
@@ -2009,10 +2001,10 @@
         <v>0.21224999999999999</v>
       </c>
       <c r="L34" s="1" t="s">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="M34" s="1" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="N34" s="1">
         <v>0.21</v>
@@ -2035,13 +2027,13 @@
         <v>0.4</v>
       </c>
       <c r="F35" s="1" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="G35" s="1" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="H35" s="4" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="I35" s="3">
         <v>0.78300000000000003</v>
@@ -2054,10 +2046,10 @@
         <v>0.19575000000000001</v>
       </c>
       <c r="L35" s="1" t="s">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="M35" s="1" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="N35" s="1">
         <v>0.21</v>
@@ -2080,13 +2072,13 @@
         <v>0.6</v>
       </c>
       <c r="F36" s="1" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="G36" s="1" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="H36" s="4" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="I36" s="3">
         <v>0.65500000000000003</v>
@@ -2099,10 +2091,10 @@
         <v>0.16375000000000001</v>
       </c>
       <c r="L36" s="1" t="s">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="M36" s="1" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="N36" s="1">
         <v>0.21</v>
@@ -2125,13 +2117,13 @@
         <v>0.8</v>
       </c>
       <c r="F37" s="1" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="G37" s="1" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="H37" s="4" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="I37" s="3">
         <v>0.54</v>
@@ -2144,10 +2136,10 @@
         <v>0.13500000000000001</v>
       </c>
       <c r="L37" s="1" t="s">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="M37" s="1" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="N37" s="1">
         <v>0.21</v>
@@ -2170,13 +2162,13 @@
         <v>1</v>
       </c>
       <c r="F38" s="1" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="G38" s="1" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="H38" s="4" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="I38" s="3">
         <v>0.41399999999999998</v>
@@ -2189,10 +2181,10 @@
         <v>0.10349999999999999</v>
       </c>
       <c r="L38" s="1" t="s">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="M38" s="1" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="N38" s="1">
         <v>0.21</v>
@@ -2215,13 +2207,13 @@
         <v>1.2</v>
       </c>
       <c r="F39" s="1" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="G39" s="1" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="H39" s="4" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="I39" s="3">
         <v>0.28600000000000003</v>
@@ -2234,10 +2226,10 @@
         <v>7.1500000000000008E-2</v>
       </c>
       <c r="L39" s="1" t="s">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="M39" s="1" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="N39" s="1">
         <v>0.21</v>
@@ -2260,13 +2252,13 @@
         <v>1.4</v>
       </c>
       <c r="F40" s="1" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="G40" s="1" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="H40" s="4" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="I40" s="3">
         <v>0.187</v>
@@ -2279,10 +2271,10 @@
         <v>4.675E-2</v>
       </c>
       <c r="L40" s="1" t="s">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="M40" s="1" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="N40" s="1">
         <v>0.21</v>
@@ -2305,13 +2297,13 @@
         <v>1.6</v>
       </c>
       <c r="F41" s="1" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="G41" s="1" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="H41" s="4" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="I41" s="3">
         <v>0.18200000000000002</v>
@@ -2324,10 +2316,10 @@
         <v>4.5500000000000006E-2</v>
       </c>
       <c r="L41" s="1" t="s">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="M41" s="1" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="N41" s="1">
         <v>0.21</v>
@@ -2350,13 +2342,13 @@
         <v>1.8</v>
       </c>
       <c r="F42" s="1" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="G42" s="1" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="H42" s="4" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="I42" s="3">
         <v>0.11</v>
@@ -2369,10 +2361,10 @@
         <v>2.75E-2</v>
       </c>
       <c r="L42" s="1" t="s">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="M42" s="1" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="N42" s="1">
         <v>0.21</v>
@@ -2395,13 +2387,13 @@
         <v>2</v>
       </c>
       <c r="F43" s="1" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="G43" s="1" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="H43" s="4" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="I43" s="3">
         <v>7.2000000000000008E-2</v>
@@ -2414,10 +2406,10 @@
         <v>1.8000000000000002E-2</v>
       </c>
       <c r="L43" s="1" t="s">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="M43" s="1" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="N43" s="1">
         <v>0.21</v>
@@ -2440,13 +2432,13 @@
         <v>2.2000000000000002</v>
       </c>
       <c r="F44" s="1" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="G44" s="1" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="H44" s="4" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="I44" s="3">
         <v>4.0800000000000003E-2</v>
@@ -2459,10 +2451,10 @@
         <v>1.0200000000000001E-2</v>
       </c>
       <c r="L44" s="1" t="s">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="M44" s="1" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="N44" s="1">
         <v>0.21</v>
@@ -2485,13 +2477,13 @@
         <v>2.4</v>
       </c>
       <c r="F45" s="1" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="G45" s="1" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="H45" s="4" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="I45" s="3">
         <v>2.1899999999999999E-2</v>
@@ -2504,10 +2496,10 @@
         <v>5.4749999999999998E-3</v>
       </c>
       <c r="L45" s="1" t="s">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="M45" s="1" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="N45" s="1">
         <v>0.21</v>
@@ -2530,13 +2522,13 @@
         <v>2.6</v>
       </c>
       <c r="F46" s="1" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="G46" s="1" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="H46" s="4" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="I46" s="3">
         <v>1.9E-2</v>
@@ -2549,10 +2541,10 @@
         <v>4.7499999999999999E-3</v>
       </c>
       <c r="L46" s="1" t="s">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="M46" s="1" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="N46" s="1">
         <v>0.21</v>
@@ -2575,13 +2567,13 @@
         <v>2.8</v>
       </c>
       <c r="F47" s="1" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="G47" s="1" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="H47" s="4" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="I47" s="3">
         <v>7.9000000000000008E-3</v>
@@ -2594,10 +2586,10 @@
         <v>1.9750000000000002E-3</v>
       </c>
       <c r="L47" s="1" t="s">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="M47" s="1" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="N47" s="1">
         <v>0.21</v>
@@ -2620,13 +2612,13 @@
         <v>3</v>
       </c>
       <c r="F48" s="1" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="G48" s="1" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="H48" s="4" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="I48" s="3">
         <v>1.1000000000000001E-2</v>
@@ -2639,10 +2631,10 @@
         <v>2.7500000000000003E-3</v>
       </c>
       <c r="L48" s="1" t="s">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="M48" s="1" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="N48" s="1">
         <v>0.21</v>
@@ -2665,13 +2657,13 @@
         <v>3.2</v>
       </c>
       <c r="F49" s="1" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="G49" s="1" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="H49" s="4" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="I49" s="3">
         <v>1.9000000000000002E-3</v>
@@ -2684,10 +2676,10 @@
         <v>4.7500000000000005E-4</v>
       </c>
       <c r="L49" s="1" t="s">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="M49" s="1" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="N49" s="1">
         <v>0.21</v>
@@ -2710,13 +2702,13 @@
         <v>3.4</v>
       </c>
       <c r="F50" s="1" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="G50" s="1" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="H50" s="4" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="I50" s="3">
         <v>2.3000000000000004E-3</v>
@@ -2729,10 +2721,10 @@
         <v>5.750000000000001E-4</v>
       </c>
       <c r="L50" s="1" t="s">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="M50" s="1" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="N50" s="1">
         <v>0.21</v>
@@ -2755,13 +2747,13 @@
         <v>3.8</v>
       </c>
       <c r="F51" s="1" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="G51" s="1" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="H51" s="4" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="I51" s="3">
         <v>2.8000000000000004E-3</v>
@@ -2774,10 +2766,10 @@
         <v>7.000000000000001E-4</v>
       </c>
       <c r="L51" s="1" t="s">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="M51" s="1" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="N51" s="1">
         <v>0.21</v>
@@ -2800,13 +2792,13 @@
         <v>0.2</v>
       </c>
       <c r="F52" s="1" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="G52" s="1" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="H52" s="4" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="I52" s="3">
         <v>0.28600000000000003</v>
@@ -2819,10 +2811,10 @@
         <v>7.1500000000000008E-2</v>
       </c>
       <c r="L52" s="1" t="s">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="M52" s="1" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="N52" s="1">
         <v>0.21</v>
@@ -2845,13 +2837,13 @@
         <v>0.4</v>
       </c>
       <c r="F53" s="1" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="G53" s="1" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="H53" s="4" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="I53" s="3">
         <v>0.253</v>
@@ -2864,10 +2856,10 @@
         <v>6.3250000000000001E-2</v>
       </c>
       <c r="L53" s="1" t="s">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="M53" s="1" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="N53" s="1">
         <v>0.21</v>
@@ -2890,13 +2882,13 @@
         <v>0.6</v>
       </c>
       <c r="F54" s="1" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="G54" s="1" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="H54" s="4" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="I54" s="3">
         <v>0.23700000000000002</v>
@@ -2909,10 +2901,10 @@
         <v>5.9250000000000004E-2</v>
       </c>
       <c r="L54" s="1" t="s">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="M54" s="1" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="N54" s="1">
         <v>0.21</v>
@@ -2935,13 +2927,13 @@
         <v>0.8</v>
       </c>
       <c r="F55" s="1" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="G55" s="1" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="H55" s="4" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="I55" s="3">
         <v>0.19700000000000001</v>
@@ -2954,10 +2946,10 @@
         <v>4.9250000000000002E-2</v>
       </c>
       <c r="L55" s="1" t="s">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="M55" s="1" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="N55" s="1">
         <v>0.21</v>
@@ -2980,13 +2972,13 @@
         <v>1</v>
       </c>
       <c r="F56" s="1" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="G56" s="1" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="H56" s="4" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="I56" s="3">
         <v>0.14500000000000002</v>
@@ -2999,10 +2991,10 @@
         <v>3.6250000000000004E-2</v>
       </c>
       <c r="L56" s="1" t="s">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="M56" s="1" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="N56" s="1">
         <v>0.21</v>
@@ -3025,13 +3017,13 @@
         <v>1.2</v>
       </c>
       <c r="F57" s="1" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="G57" s="1" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="H57" s="4" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="I57" s="3">
         <v>0.11</v>
@@ -3044,10 +3036,10 @@
         <v>2.75E-2</v>
       </c>
       <c r="L57" s="1" t="s">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="M57" s="1" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="N57" s="1">
         <v>0.21</v>
@@ -3070,13 +3062,13 @@
         <v>1.4</v>
       </c>
       <c r="F58" s="1" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="G58" s="1" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="H58" s="4" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="I58" s="3">
         <v>7.8100000000000003E-2</v>
@@ -3089,10 +3081,10 @@
         <v>1.9525000000000001E-2</v>
       </c>
       <c r="L58" s="1" t="s">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="M58" s="1" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="N58" s="1">
         <v>0.21</v>
@@ -3115,13 +3107,13 @@
         <v>1.6</v>
       </c>
       <c r="F59" s="1" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="G59" s="1" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="H59" s="4" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="I59" s="3">
         <v>3.7999999999999999E-2</v>
@@ -3134,10 +3126,10 @@
         <v>9.4999999999999998E-3</v>
       </c>
       <c r="L59" s="1" t="s">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="M59" s="1" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="N59" s="1">
         <v>0.21</v>
@@ -3160,13 +3152,13 @@
         <v>1.8</v>
       </c>
       <c r="F60" s="1" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="G60" s="1" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="H60" s="4" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="I60" s="3">
         <v>4.6399999999999997E-2</v>
@@ -3179,10 +3171,10 @@
         <v>1.1599999999999999E-2</v>
       </c>
       <c r="L60" s="1" t="s">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="M60" s="1" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="N60" s="1">
         <v>0.21</v>
@@ -3205,13 +3197,13 @@
         <v>2</v>
       </c>
       <c r="F61" s="1" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="G61" s="1" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="H61" s="4" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="I61" s="3">
         <v>1.9200000000000002E-2</v>
@@ -3224,10 +3216,10 @@
         <v>4.8000000000000004E-3</v>
       </c>
       <c r="L61" s="1" t="s">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="M61" s="1" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="N61" s="1">
         <v>0.21</v>
@@ -3250,13 +3242,13 @@
         <v>2.2000000000000002</v>
       </c>
       <c r="F62" s="1" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="G62" s="1" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="H62" s="4" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="I62" s="3">
         <v>2.5000000000000001E-2</v>
@@ -3269,10 +3261,10 @@
         <v>6.2500000000000003E-3</v>
       </c>
       <c r="L62" s="1" t="s">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="M62" s="1" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="N62" s="1">
         <v>0.21</v>
@@ -3295,13 +3287,13 @@
         <v>2.4</v>
       </c>
       <c r="F63" s="1" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="G63" s="1" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="H63" s="4" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="I63" s="3">
         <v>1.18E-2</v>
@@ -3314,10 +3306,10 @@
         <v>2.9499999999999999E-3</v>
       </c>
       <c r="L63" s="1" t="s">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="M63" s="1" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="N63" s="1">
         <v>0.21</v>
@@ -3340,13 +3332,13 @@
         <v>2.6</v>
       </c>
       <c r="F64" s="1" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="G64" s="1" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="H64" s="4" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="I64" s="3">
         <v>5.1999999999999998E-3</v>
@@ -3359,10 +3351,10 @@
         <v>1.2999999999999999E-3</v>
       </c>
       <c r="L64" s="1" t="s">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="M64" s="1" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="N64" s="1">
         <v>0.21</v>
@@ -3385,13 +3377,13 @@
         <v>3</v>
       </c>
       <c r="F65" s="1" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="G65" s="1" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="H65" s="4" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="I65" s="3">
         <v>1.1000000000000001E-3</v>
@@ -3404,10 +3396,10 @@
         <v>2.7500000000000002E-4</v>
       </c>
       <c r="L65" s="1" t="s">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="M65" s="1" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="N65" s="1">
         <v>0.21</v>
@@ -3430,13 +3422,13 @@
         <v>3.2</v>
       </c>
       <c r="F66" s="1" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="G66" s="1" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="H66" s="4" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="I66" s="3">
         <v>1.2000000000000001E-3</v>
@@ -3449,10 +3441,10 @@
         <v>3.0000000000000003E-4</v>
       </c>
       <c r="L66" s="1" t="s">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="M66" s="1" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="N66" s="1">
         <v>0.21</v>
@@ -3475,13 +3467,13 @@
         <v>4.2</v>
       </c>
       <c r="F67" s="1" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="G67" s="1" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="H67" s="4" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="I67" s="3">
         <v>1.7000000000000001E-3</v>
@@ -3494,10 +3486,10 @@
         <v>4.2500000000000003E-4</v>
       </c>
       <c r="L67" s="1" t="s">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="M67" s="1" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="N67" s="1">
         <v>0.21</v>
@@ -3520,13 +3512,13 @@
         <v>4.5999999999999996</v>
       </c>
       <c r="F68" s="1" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="G68" s="1" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="H68" s="4" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="I68" s="3">
         <v>1.7000000000000001E-3</v>
@@ -3539,10 +3531,10 @@
         <v>4.2500000000000003E-4</v>
       </c>
       <c r="L68" s="1" t="s">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="M68" s="1" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="N68" s="1">
         <v>0.21</v>
@@ -3565,13 +3557,13 @@
         <v>0.2</v>
       </c>
       <c r="F69" s="1" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="G69" s="1" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="H69" s="4" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="I69" s="3">
         <v>9.6000000000000016E-2</v>
@@ -3584,10 +3576,10 @@
         <v>2.4000000000000004E-2</v>
       </c>
       <c r="L69" s="1" t="s">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="M69" s="1" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="N69" s="1">
         <v>0.21</v>
@@ -3610,13 +3602,13 @@
         <v>0.4</v>
       </c>
       <c r="F70" s="1" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="G70" s="1" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="H70" s="4" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="I70" s="3">
         <v>7.0000000000000007E-2</v>
@@ -3629,10 +3621,10 @@
         <v>1.7500000000000002E-2</v>
       </c>
       <c r="L70" s="1" t="s">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="M70" s="1" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="N70" s="1">
         <v>0.21</v>
@@ -3655,13 +3647,13 @@
         <v>0.6</v>
       </c>
       <c r="F71" s="1" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="G71" s="1" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="H71" s="4" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="I71" s="3">
         <v>7.0000000000000007E-2</v>
@@ -3674,10 +3666,10 @@
         <v>1.7500000000000002E-2</v>
       </c>
       <c r="L71" s="1" t="s">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="M71" s="1" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="N71" s="1">
         <v>0.21</v>
@@ -3700,13 +3692,13 @@
         <v>0.8</v>
       </c>
       <c r="F72" s="1" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="G72" s="1" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="H72" s="4" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="I72" s="3">
         <v>7.3000000000000009E-2</v>
@@ -3719,10 +3711,10 @@
         <v>1.8250000000000002E-2</v>
       </c>
       <c r="L72" s="1" t="s">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="M72" s="1" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="N72" s="1">
         <v>0.21</v>
@@ -3745,13 +3737,13 @@
         <v>1</v>
       </c>
       <c r="F73" s="1" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="G73" s="1" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="H73" s="4" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="I73" s="3">
         <v>5.3000000000000005E-2</v>
@@ -3764,10 +3756,10 @@
         <v>1.3250000000000001E-2</v>
       </c>
       <c r="L73" s="1" t="s">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="M73" s="1" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="N73" s="1">
         <v>0.21</v>
@@ -3790,13 +3782,13 @@
         <v>1.2</v>
       </c>
       <c r="F74" s="1" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="G74" s="1" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="H74" s="4" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="I74" s="3">
         <v>5.2000000000000005E-2</v>
@@ -3809,10 +3801,10 @@
         <v>1.3000000000000001E-2</v>
       </c>
       <c r="L74" s="1" t="s">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="M74" s="1" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="N74" s="1">
         <v>0.21</v>
@@ -3835,13 +3827,13 @@
         <v>1.4</v>
       </c>
       <c r="F75" s="1" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="G75" s="1" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="H75" s="4" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="I75" s="3">
         <v>3.2000000000000001E-2</v>
@@ -3854,10 +3846,10 @@
         <v>8.0000000000000002E-3</v>
       </c>
       <c r="L75" s="1" t="s">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="M75" s="1" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="N75" s="1">
         <v>0.21</v>
@@ -3880,13 +3872,13 @@
         <v>1.6</v>
       </c>
       <c r="F76" s="1" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="G76" s="1" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="H76" s="4" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="I76" s="3">
         <v>1.8000000000000002E-2</v>
@@ -3899,10 +3891,10 @@
         <v>4.5000000000000005E-3</v>
       </c>
       <c r="L76" s="1" t="s">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="M76" s="1" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="N76" s="1">
         <v>0.21</v>
@@ -3925,13 +3917,13 @@
         <v>1.8</v>
       </c>
       <c r="F77" s="1" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="G77" s="1" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="H77" s="4" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="I77" s="3">
         <v>1.0200000000000001E-2</v>
@@ -3944,10 +3936,10 @@
         <v>2.5500000000000002E-3</v>
       </c>
       <c r="L77" s="1" t="s">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="M77" s="1" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="N77" s="1">
         <v>0.21</v>
@@ -3970,13 +3962,13 @@
         <v>2</v>
       </c>
       <c r="F78" s="1" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="G78" s="1" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="H78" s="4" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="I78" s="3">
         <v>2.3000000000000004E-3</v>
@@ -3989,10 +3981,10 @@
         <v>5.750000000000001E-4</v>
       </c>
       <c r="L78" s="1" t="s">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="M78" s="1" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="N78" s="1">
         <v>0.21</v>
@@ -4015,13 +4007,13 @@
         <v>2.2000000000000002</v>
       </c>
       <c r="F79" s="1" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="G79" s="1" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="H79" s="4" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="I79" s="3">
         <v>7.0000000000000001E-3</v>
@@ -4034,10 +4026,10 @@
         <v>1.75E-3</v>
       </c>
       <c r="L79" s="1" t="s">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="M79" s="1" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="N79" s="1">
         <v>0.21</v>
@@ -4060,13 +4052,13 @@
         <v>2.4</v>
       </c>
       <c r="F80" s="1" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="G80" s="1" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="H80" s="4" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="I80" s="3">
         <v>1.5999999999999999E-3</v>
@@ -4079,10 +4071,10 @@
         <v>3.9999999999999996E-4</v>
       </c>
       <c r="L80" s="1" t="s">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="M80" s="1" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="N80" s="1">
         <v>0.21</v>
@@ -4105,13 +4097,13 @@
         <v>2.6</v>
       </c>
       <c r="F81" s="1" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="G81" s="1" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="H81" s="4" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="I81" s="3">
         <v>8.8000000000000003E-4</v>
@@ -4124,10 +4116,10 @@
         <v>2.2000000000000001E-4</v>
       </c>
       <c r="L81" s="1" t="s">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="M81" s="1" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="N81" s="1">
         <v>0.21</v>
@@ -4150,13 +4142,13 @@
         <v>3.2</v>
       </c>
       <c r="F82" s="1" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="G82" s="1" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="H82" s="4" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="I82" s="3">
         <v>1E-3</v>
@@ -4169,10 +4161,10 @@
         <v>2.5000000000000001E-4</v>
       </c>
       <c r="L82" s="1" t="s">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="M82" s="1" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="N82" s="1">
         <v>0.21</v>
@@ -4195,13 +4187,13 @@
         <v>0.2</v>
       </c>
       <c r="F83" s="1" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="G83" s="1" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="H83" s="4" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="I83" s="3">
         <v>9.1000000000000011E-2</v>
@@ -4214,10 +4206,10 @@
         <v>2.2750000000000003E-2</v>
       </c>
       <c r="L83" s="1" t="s">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="M83" s="1" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="N83" s="1">
         <v>0.21</v>
@@ -4240,13 +4232,13 @@
         <v>0.4</v>
       </c>
       <c r="F84" s="1" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="G84" s="1" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="H84" s="4" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="I84" s="3">
         <v>6.6000000000000003E-2</v>
@@ -4259,10 +4251,10 @@
         <v>1.6500000000000001E-2</v>
       </c>
       <c r="L84" s="1" t="s">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="M84" s="1" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="N84" s="1">
         <v>0.21</v>
@@ -4285,13 +4277,13 @@
         <v>0.6</v>
       </c>
       <c r="F85" s="1" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="G85" s="1" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="H85" s="4" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="I85" s="3">
         <v>6.6000000000000003E-2</v>
@@ -4304,10 +4296,10 @@
         <v>1.6500000000000001E-2</v>
       </c>
       <c r="L85" s="1" t="s">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="M85" s="1" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="N85" s="1">
         <v>0.21</v>
@@ -4330,13 +4322,13 @@
         <v>0.8</v>
       </c>
       <c r="F86" s="1" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="G86" s="1" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="H86" s="4" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="I86" s="3">
         <v>6.9000000000000006E-2</v>
@@ -4349,10 +4341,10 @@
         <v>1.7250000000000001E-2</v>
       </c>
       <c r="L86" s="1" t="s">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="M86" s="1" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="N86" s="1">
         <v>0.21</v>
@@ -4375,13 +4367,13 @@
         <v>1</v>
       </c>
       <c r="F87" s="1" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="G87" s="1" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="H87" s="4" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="I87" s="3">
         <v>0.05</v>
@@ -4394,10 +4386,10 @@
         <v>1.2500000000000001E-2</v>
       </c>
       <c r="L87" s="1" t="s">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="M87" s="1" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="N87" s="1">
         <v>0.21</v>
@@ -4420,13 +4412,13 @@
         <v>1.2</v>
       </c>
       <c r="F88" s="1" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="G88" s="1" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="H88" s="4" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="I88" s="3">
         <v>0.05</v>
@@ -4439,10 +4431,10 @@
         <v>1.2500000000000001E-2</v>
       </c>
       <c r="L88" s="1" t="s">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="M88" s="1" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="N88" s="1">
         <v>0.21</v>
@@ -4465,13 +4457,13 @@
         <v>1.4</v>
       </c>
       <c r="F89" s="1" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="G89" s="1" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="H89" s="4" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="I89" s="3">
         <v>0.03</v>
@@ -4484,10 +4476,10 @@
         <v>7.4999999999999997E-3</v>
       </c>
       <c r="L89" s="1" t="s">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="M89" s="1" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="N89" s="1">
         <v>0.21</v>
@@ -4510,13 +4502,13 @@
         <v>1.6</v>
       </c>
       <c r="F90" s="1" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="G90" s="1" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="H90" s="4" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="I90" s="3">
         <v>1.66E-2</v>
@@ -4529,10 +4521,10 @@
         <v>4.15E-3</v>
       </c>
       <c r="L90" s="1" t="s">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="M90" s="1" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="N90" s="1">
         <v>0.21</v>
@@ -4555,13 +4547,13 @@
         <v>1.8</v>
       </c>
       <c r="F91" s="1" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="G91" s="1" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="H91" s="4" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="I91" s="3">
         <v>9.7000000000000003E-3</v>
@@ -4574,10 +4566,10 @@
         <v>2.4250000000000001E-3</v>
       </c>
       <c r="L91" s="1" t="s">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="M91" s="1" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="N91" s="1">
         <v>0.21</v>
@@ -4600,13 +4592,13 @@
         <v>2</v>
       </c>
       <c r="F92" s="1" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="G92" s="1" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="H92" s="4" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="I92" s="3">
         <v>2.2000000000000001E-3</v>
@@ -4619,10 +4611,10 @@
         <v>5.5000000000000003E-4</v>
       </c>
       <c r="L92" s="1" t="s">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="M92" s="1" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="N92" s="1">
         <v>0.21</v>
@@ -4645,13 +4637,13 @@
         <v>2.2000000000000002</v>
       </c>
       <c r="F93" s="1" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="G93" s="1" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="H93" s="4" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="I93" s="3">
         <v>6.7000000000000011E-3</v>
@@ -4664,10 +4656,10 @@
         <v>1.6750000000000003E-3</v>
       </c>
       <c r="L93" s="1" t="s">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="M93" s="1" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="N93" s="1">
         <v>0.21</v>
@@ -4690,13 +4682,13 @@
         <v>2.4</v>
       </c>
       <c r="F94" s="1" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="G94" s="1" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="H94" s="4" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="I94" s="3">
         <v>1.5499999999999999E-3</v>
@@ -4709,10 +4701,10 @@
         <v>3.8749999999999999E-4</v>
       </c>
       <c r="L94" s="1" t="s">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="M94" s="1" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="N94" s="1">
         <v>0.21</v>
@@ -4735,13 +4727,13 @@
         <v>2.6</v>
       </c>
       <c r="F95" s="1" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="G95" s="1" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="H95" s="4" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="I95" s="3">
         <v>8.4000000000000014E-4</v>
@@ -4754,10 +4746,10 @@
         <v>2.1000000000000004E-4</v>
       </c>
       <c r="L95" s="1" t="s">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="M95" s="1" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="N95" s="1">
         <v>0.21</v>
@@ -4780,13 +4772,13 @@
         <v>3.2</v>
       </c>
       <c r="F96" s="1" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="G96" s="1" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="H96" s="4" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="I96" s="3">
         <v>9.6000000000000002E-4</v>
@@ -4799,10 +4791,10 @@
         <v>2.4000000000000001E-4</v>
       </c>
       <c r="L96" s="1" t="s">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="M96" s="1" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="N96" s="1">
         <v>0.21</v>
@@ -4825,13 +4817,13 @@
         <v>0.2</v>
       </c>
       <c r="F97" s="1" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="G97" s="1" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="H97" s="4" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="I97" s="3">
         <v>1.8700000000000001E-2</v>
@@ -4844,10 +4836,10 @@
         <v>4.6750000000000003E-3</v>
       </c>
       <c r="L97" s="1" t="s">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="M97" s="1" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="N97" s="1">
         <v>0.21</v>
@@ -4870,13 +4862,13 @@
         <v>0.4</v>
       </c>
       <c r="F98" s="1" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="G98" s="1" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="H98" s="4" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="I98" s="3">
         <v>1.66E-2</v>
@@ -4889,10 +4881,10 @@
         <v>4.15E-3</v>
       </c>
       <c r="L98" s="1" t="s">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="M98" s="1" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="N98" s="1">
         <v>0.21</v>
@@ -4915,13 +4907,13 @@
         <v>0.6</v>
       </c>
       <c r="F99" s="1" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="G99" s="1" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="H99" s="4" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="I99" s="3">
         <v>1.2100000000000001E-2</v>
@@ -4934,10 +4926,10 @@
         <v>3.0250000000000003E-3</v>
       </c>
       <c r="L99" s="1" t="s">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="M99" s="1" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="N99" s="1">
         <v>0.21</v>
@@ -4960,13 +4952,13 @@
         <v>0.8</v>
       </c>
       <c r="F100" s="1" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="G100" s="1" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="H100" s="4" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="I100" s="3">
         <v>1.0100000000000001E-2</v>
@@ -4979,10 +4971,10 @@
         <v>2.5250000000000003E-3</v>
       </c>
       <c r="L100" s="1" t="s">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="M100" s="1" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="N100" s="1">
         <v>0.21</v>
@@ -5005,13 +4997,13 @@
         <v>1</v>
       </c>
       <c r="F101" s="1" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="G101" s="1" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="H101" s="4" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="I101" s="3">
         <v>6.2400000000000004E-2</v>
@@ -5024,10 +5016,10 @@
         <v>1.5600000000000001E-2</v>
       </c>
       <c r="L101" s="1" t="s">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="M101" s="1" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="N101" s="1">
         <v>0.21</v>
@@ -5050,13 +5042,13 @@
         <v>1.2</v>
       </c>
       <c r="F102" s="1" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="G102" s="1" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="H102" s="4" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="I102" s="3">
         <v>6.6E-3</v>
@@ -5069,10 +5061,10 @@
         <v>1.65E-3</v>
       </c>
       <c r="L102" s="1" t="s">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="M102" s="1" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="N102" s="1">
         <v>0.21</v>
@@ -5095,13 +5087,13 @@
         <v>1.4</v>
       </c>
       <c r="F103" s="1" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="G103" s="1" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="H103" s="4" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="I103" s="3">
         <v>2.3000000000000004E-3</v>
@@ -5114,10 +5106,10 @@
         <v>5.750000000000001E-4</v>
       </c>
       <c r="L103" s="1" t="s">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="M103" s="1" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="N103" s="1">
         <v>0.21</v>
@@ -5140,13 +5132,13 @@
         <v>1.6</v>
       </c>
       <c r="F104" s="1" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="G104" s="1" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="H104" s="4" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="I104" s="3">
         <v>3.7000000000000002E-3</v>
@@ -5159,10 +5151,10 @@
         <v>9.2500000000000004E-4</v>
       </c>
       <c r="L104" s="1" t="s">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="M104" s="1" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="N104" s="1">
         <v>0.21</v>
@@ -5185,13 +5177,13 @@
         <v>1.8</v>
       </c>
       <c r="F105" s="1" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="G105" s="1" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="H105" s="4" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="I105" s="3">
         <v>4.6000000000000008E-3</v>
@@ -5204,10 +5196,10 @@
         <v>1.1500000000000002E-3</v>
       </c>
       <c r="L105" s="1" t="s">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="M105" s="1" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="N105" s="1">
         <v>0.21</v>
@@ -5230,13 +5222,13 @@
         <v>2</v>
       </c>
       <c r="F106" s="1" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="G106" s="1" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="H106" s="4" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="I106" s="3">
         <v>7.5000000000000012E-4</v>
@@ -5249,10 +5241,10 @@
         <v>1.8750000000000003E-4</v>
       </c>
       <c r="L106" s="1" t="s">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="M106" s="1" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="N106" s="1">
         <v>0.21</v>
@@ -5275,13 +5267,13 @@
         <v>2.2000000000000002</v>
       </c>
       <c r="F107" s="1" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="G107" s="1" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="H107" s="4" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="I107" s="3">
         <v>4.6999999999999999E-4</v>
@@ -5294,10 +5286,10 @@
         <v>1.175E-4</v>
       </c>
       <c r="L107" s="1" t="s">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="M107" s="1" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="N107" s="1">
         <v>0.21</v>
@@ -5320,13 +5312,13 @@
         <v>2.8</v>
       </c>
       <c r="F108" s="1" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="G108" s="1" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="H108" s="4" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="I108" s="3">
         <v>3.6999999999999999E-4</v>
@@ -5339,10 +5331,10 @@
         <v>9.2499999999999999E-5</v>
       </c>
       <c r="L108" s="1" t="s">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="M108" s="1" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="N108" s="1">
         <v>0.21</v>
@@ -5365,13 +5357,13 @@
         <v>3</v>
       </c>
       <c r="F109" s="1" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="G109" s="1" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="H109" s="4" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="I109" s="3">
         <v>4.4000000000000002E-4</v>
@@ -5384,10 +5376,10 @@
         <v>1.1E-4</v>
       </c>
       <c r="L109" s="1" t="s">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="M109" s="1" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="N109" s="1">
         <v>0.21</v>
@@ -5410,13 +5402,13 @@
         <v>0.2</v>
       </c>
       <c r="F110" s="1" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="G110" s="1" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="H110" s="4" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="I110" s="3">
         <v>2.7100000000000002E-3</v>
@@ -5429,10 +5421,10 @@
         <v>6.7750000000000004E-4</v>
       </c>
       <c r="L110" s="1" t="s">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="M110" s="1" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="N110" s="1">
         <v>0.21</v>
@@ -5455,13 +5447,13 @@
         <v>0.4</v>
       </c>
       <c r="F111" s="1" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="G111" s="1" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="H111" s="4" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="I111" s="3">
         <v>7.9000000000000012E-4</v>
@@ -5474,10 +5466,10 @@
         <v>1.9750000000000003E-4</v>
       </c>
       <c r="L111" s="1" t="s">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="M111" s="1" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="N111" s="1">
         <v>0.21</v>
@@ -5500,13 +5492,13 @@
         <v>0.6</v>
       </c>
       <c r="F112" s="1" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="G112" s="1" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="H112" s="4" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="I112" s="3">
         <v>1.01E-3</v>
@@ -5519,10 +5511,10 @@
         <v>2.5250000000000001E-4</v>
       </c>
       <c r="L112" s="1" t="s">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="M112" s="1" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="N112" s="1">
         <v>0.21</v>
@@ -5545,13 +5537,13 @@
         <v>0.8</v>
       </c>
       <c r="F113" s="1" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="G113" s="1" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="H113" s="4" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="I113" s="3">
         <v>1E-3</v>
@@ -5564,10 +5556,10 @@
         <v>2.5000000000000001E-4</v>
       </c>
       <c r="L113" s="1" t="s">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="M113" s="1" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="N113" s="1">
         <v>0.21</v>
@@ -5590,13 +5582,13 @@
         <v>1</v>
       </c>
       <c r="F114" s="1" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="G114" s="1" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="H114" s="4" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="I114" s="3">
         <v>6.8000000000000005E-4</v>
@@ -5609,10 +5601,10 @@
         <v>1.7000000000000001E-4</v>
       </c>
       <c r="L114" s="1" t="s">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="M114" s="1" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="N114" s="1">
         <v>0.21</v>
@@ -5635,13 +5627,13 @@
         <v>1.2</v>
       </c>
       <c r="F115" s="1" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="G115" s="1" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="H115" s="4" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="I115" s="3">
         <v>1.1800000000000001E-3</v>
@@ -5654,10 +5646,10 @@
         <v>2.9500000000000001E-4</v>
       </c>
       <c r="L115" s="1" t="s">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="M115" s="1" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="N115" s="1">
         <v>0.21</v>
@@ -5680,13 +5672,13 @@
         <v>1.4</v>
       </c>
       <c r="F116" s="1" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="G116" s="1" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="H116" s="4" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="I116" s="3">
         <v>2.6000000000000003E-4</v>
@@ -5699,10 +5691,10 @@
         <v>6.5000000000000008E-5</v>
       </c>
       <c r="L116" s="1" t="s">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="M116" s="1" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="N116" s="1">
         <v>0.21</v>
@@ -5725,13 +5717,13 @@
         <v>1.6</v>
       </c>
       <c r="F117" s="1" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="G117" s="1" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="H117" s="4" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="I117" s="3">
         <v>5.4000000000000001E-4</v>
@@ -5744,10 +5736,10 @@
         <v>1.35E-4</v>
       </c>
       <c r="L117" s="1" t="s">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="M117" s="1" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="N117" s="1">
         <v>0.21</v>
@@ -5770,13 +5762,13 @@
         <v>1.8</v>
       </c>
       <c r="F118" s="1" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="G118" s="1" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="H118" s="4" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="I118" s="3">
         <v>3.5000000000000005E-4</v>
@@ -5789,10 +5781,10 @@
         <v>8.7500000000000013E-5</v>
       </c>
       <c r="L118" s="1" t="s">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="M118" s="1" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="N118" s="1">
         <v>0.21</v>
@@ -5815,13 +5807,13 @@
         <v>2.4</v>
       </c>
       <c r="F119" s="1" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="G119" s="1" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="H119" s="4" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="I119" s="3">
         <v>2.9E-4</v>
@@ -5834,10 +5826,10 @@
         <v>7.25E-5</v>
       </c>
       <c r="L119" s="1" t="s">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="M119" s="1" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="N119" s="1">
         <v>0.21</v>

--- a/proton_qT/expdata/12882.xlsx
+++ b/proton_qT/expdata/12882.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/barryp/work/JAM/fitpack2/database/proton_qT/expdata/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C41DB3E0-E933-B741-BB68-0289B6C2B35B}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A31C84ED-DFC7-2549-9440-CC24EE222127}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="1960" yWindow="7360" windowWidth="26840" windowHeight="8660" xr2:uid="{20CAA433-5407-F041-ACD1-8E0E90D3CEE4}"/>
   </bookViews>
@@ -75,13 +75,13 @@
     <t>pp</t>
   </si>
   <si>
-    <t>Y</t>
-  </si>
-  <si>
     <t>M_min</t>
   </si>
   <si>
     <t>M_max</t>
+  </si>
+  <si>
+    <t>y</t>
   </si>
 </sst>
 </file>
@@ -463,7 +463,7 @@
   <dimension ref="A1:N119"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C2" sqref="C2"/>
+      <selection activeCell="N2" sqref="N2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -486,10 +486,10 @@
         <v>0</v>
       </c>
       <c r="B1" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="C1" s="2" t="s">
         <v>17</v>
-      </c>
-      <c r="C1" s="2" t="s">
-        <v>18</v>
       </c>
       <c r="D1" s="1" t="s">
         <v>1</v>
@@ -522,7 +522,7 @@
         <v>14</v>
       </c>
       <c r="N1" s="1" t="s">
-        <v>16</v>
+        <v>18</v>
       </c>
     </row>
     <row r="2" spans="1:14" ht="17" x14ac:dyDescent="0.25">

--- a/proton_qT/expdata/12882.xlsx
+++ b/proton_qT/expdata/12882.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10212"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10509"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/barryp/work/JAM/fitpack2/database/proton_qT/expdata/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A31C84ED-DFC7-2549-9440-CC24EE222127}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B0941071-25E7-BF4E-856D-5EBC686BF7D1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1960" yWindow="7360" windowWidth="26840" windowHeight="8660" xr2:uid="{20CAA433-5407-F041-ACD1-8E0E90D3CEE4}"/>
+    <workbookView xWindow="4520" yWindow="8040" windowWidth="26840" windowHeight="8660" xr2:uid="{20CAA433-5407-F041-ACD1-8E0E90D3CEE4}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -28,12 +28,6 @@
 <sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="604" uniqueCount="19">
   <si>
     <t>E</t>
-  </si>
-  <si>
-    <t>pT_min</t>
-  </si>
-  <si>
-    <t>pT_max</t>
   </si>
   <si>
     <t>value</t>
@@ -75,13 +69,19 @@
     <t>pp</t>
   </si>
   <si>
-    <t>M_min</t>
+    <t>y</t>
   </si>
   <si>
-    <t>M_max</t>
+    <t>Qmin</t>
   </si>
   <si>
-    <t>y</t>
+    <t>Qmax</t>
+  </si>
+  <si>
+    <t>pTmin</t>
+  </si>
+  <si>
+    <t>pTmax</t>
   </si>
 </sst>
 </file>
@@ -463,7 +463,7 @@
   <dimension ref="A1:N119"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="N2" sqref="N2"/>
+      <selection activeCell="B2" sqref="B2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -486,43 +486,43 @@
         <v>0</v>
       </c>
       <c r="B1" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="C1" s="2" t="s">
         <v>16</v>
       </c>
-      <c r="C1" s="2" t="s">
+      <c r="D1" s="1" t="s">
         <v>17</v>
       </c>
-      <c r="D1" s="1" t="s">
+      <c r="E1" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="F1" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="G1" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="H1" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="I1" s="3" t="s">
         <v>1</v>
       </c>
-      <c r="E1" s="1" t="s">
+      <c r="J1" s="3" t="s">
         <v>2</v>
       </c>
-      <c r="F1" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="G1" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="H1" s="1" t="s">
+      <c r="K1" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="L1" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="M1" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="I1" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="J1" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="K1" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="L1" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="M1" s="1" t="s">
+      <c r="N1" s="1" t="s">
         <v>14</v>
-      </c>
-      <c r="N1" s="1" t="s">
-        <v>18</v>
       </c>
     </row>
     <row r="2" spans="1:14" ht="17" x14ac:dyDescent="0.25">
@@ -542,13 +542,13 @@
         <v>0.2</v>
       </c>
       <c r="F2" s="1" t="s">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="G2" s="1" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="H2" s="4" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="I2" s="3">
         <v>9.16</v>
@@ -561,10 +561,10 @@
         <v>2.29</v>
       </c>
       <c r="L2" s="1" t="s">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="M2" s="1" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="N2" s="1">
         <v>0.21</v>
@@ -587,13 +587,13 @@
         <v>0.4</v>
       </c>
       <c r="F3" s="1" t="s">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="G3" s="1" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="H3" s="4" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="I3" s="3">
         <v>7.6500000000000012</v>
@@ -606,10 +606,10 @@
         <v>1.9125000000000003</v>
       </c>
       <c r="L3" s="1" t="s">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="M3" s="1" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="N3" s="1">
         <v>0.21</v>
@@ -632,13 +632,13 @@
         <v>0.6</v>
       </c>
       <c r="F4" s="1" t="s">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="G4" s="1" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="H4" s="4" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="I4" s="3">
         <v>6.6099999999999994</v>
@@ -651,10 +651,10 @@
         <v>1.6524999999999999</v>
       </c>
       <c r="L4" s="1" t="s">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="M4" s="1" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="N4" s="1">
         <v>0.21</v>
@@ -677,13 +677,13 @@
         <v>0.8</v>
       </c>
       <c r="F5" s="1" t="s">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="G5" s="1" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="H5" s="4" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="I5" s="3">
         <v>5.58</v>
@@ -696,10 +696,10 @@
         <v>1.395</v>
       </c>
       <c r="L5" s="1" t="s">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="M5" s="1" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="N5" s="1">
         <v>0.21</v>
@@ -722,13 +722,13 @@
         <v>1</v>
       </c>
       <c r="F6" s="1" t="s">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="G6" s="1" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="H6" s="4" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="I6" s="3">
         <v>3.91</v>
@@ -741,10 +741,10 @@
         <v>0.97750000000000004</v>
       </c>
       <c r="L6" s="1" t="s">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="M6" s="1" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="N6" s="1">
         <v>0.21</v>
@@ -767,13 +767,13 @@
         <v>1.2</v>
       </c>
       <c r="F7" s="1" t="s">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="G7" s="1" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="H7" s="4" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="I7" s="3">
         <v>2.73</v>
@@ -786,10 +786,10 @@
         <v>0.6825</v>
       </c>
       <c r="L7" s="1" t="s">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="M7" s="1" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="N7" s="1">
         <v>0.21</v>
@@ -812,13 +812,13 @@
         <v>1.4</v>
       </c>
       <c r="F8" s="1" t="s">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="G8" s="1" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="H8" s="4" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="I8" s="3">
         <v>1.85</v>
@@ -831,10 +831,10 @@
         <v>0.46250000000000002</v>
       </c>
       <c r="L8" s="1" t="s">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="M8" s="1" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="N8" s="1">
         <v>0.21</v>
@@ -857,13 +857,13 @@
         <v>1.6</v>
       </c>
       <c r="F9" s="1" t="s">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="G9" s="1" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="H9" s="4" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="I9" s="3">
         <v>1.58</v>
@@ -876,10 +876,10 @@
         <v>0.39500000000000002</v>
       </c>
       <c r="L9" s="1" t="s">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="M9" s="1" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="N9" s="1">
         <v>0.21</v>
@@ -902,13 +902,13 @@
         <v>1.8</v>
       </c>
       <c r="F10" s="1" t="s">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="G10" s="1" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="H10" s="4" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="I10" s="3">
         <v>0.83800000000000008</v>
@@ -921,10 +921,10 @@
         <v>0.20950000000000002</v>
       </c>
       <c r="L10" s="1" t="s">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="M10" s="1" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="N10" s="1">
         <v>0.21</v>
@@ -947,13 +947,13 @@
         <v>2</v>
       </c>
       <c r="F11" s="1" t="s">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="G11" s="1" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="H11" s="4" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="I11" s="3">
         <v>0.503</v>
@@ -966,10 +966,10 @@
         <v>0.12575</v>
       </c>
       <c r="L11" s="1" t="s">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="M11" s="1" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="N11" s="1">
         <v>0.21</v>
@@ -992,13 +992,13 @@
         <v>2.2000000000000002</v>
       </c>
       <c r="F12" s="1" t="s">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="G12" s="1" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="H12" s="4" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="I12" s="3">
         <v>0.39699999999999996</v>
@@ -1011,10 +1011,10 @@
         <v>9.9249999999999991E-2</v>
       </c>
       <c r="L12" s="1" t="s">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="M12" s="1" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="N12" s="1">
         <v>0.21</v>
@@ -1037,13 +1037,13 @@
         <v>2.4</v>
       </c>
       <c r="F13" s="1" t="s">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="G13" s="1" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="H13" s="4" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="I13" s="3">
         <v>0.189</v>
@@ -1056,10 +1056,10 @@
         <v>4.725E-2</v>
       </c>
       <c r="L13" s="1" t="s">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="M13" s="1" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="N13" s="1">
         <v>0.21</v>
@@ -1082,13 +1082,13 @@
         <v>2.6</v>
       </c>
       <c r="F14" s="1" t="s">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="G14" s="1" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="H14" s="4" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="I14" s="3">
         <v>5.8000000000000003E-2</v>
@@ -1101,10 +1101,10 @@
         <v>1.4500000000000001E-2</v>
       </c>
       <c r="L14" s="1" t="s">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="M14" s="1" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="N14" s="1">
         <v>0.21</v>
@@ -1127,13 +1127,13 @@
         <v>2.8</v>
       </c>
       <c r="F15" s="1" t="s">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="G15" s="1" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="H15" s="4" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="I15" s="3">
         <v>0.21200000000000002</v>
@@ -1146,10 +1146,10 @@
         <v>5.3000000000000005E-2</v>
       </c>
       <c r="L15" s="1" t="s">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="M15" s="1" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="N15" s="1">
         <v>0.21</v>
@@ -1172,13 +1172,13 @@
         <v>3</v>
       </c>
       <c r="F16" s="1" t="s">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="G16" s="1" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="H16" s="4" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="I16" s="3">
         <v>-0.13900000000000001</v>
@@ -1191,10 +1191,10 @@
         <v>-3.4750000000000003E-2</v>
       </c>
       <c r="L16" s="1" t="s">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="M16" s="1" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="N16" s="1">
         <v>0.21</v>
@@ -1217,13 +1217,13 @@
         <v>0.2</v>
       </c>
       <c r="F17" s="1" t="s">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="G17" s="1" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="H17" s="4" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="I17" s="3">
         <v>2.57</v>
@@ -1236,10 +1236,10 @@
         <v>0.64249999999999996</v>
       </c>
       <c r="L17" s="1" t="s">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="M17" s="1" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="N17" s="1">
         <v>0.21</v>
@@ -1262,13 +1262,13 @@
         <v>0.4</v>
       </c>
       <c r="F18" s="1" t="s">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="G18" s="1" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="H18" s="4" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="I18" s="3">
         <v>2.3000000000000003</v>
@@ -1281,10 +1281,10 @@
         <v>0.57500000000000007</v>
       </c>
       <c r="L18" s="1" t="s">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="M18" s="1" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="N18" s="1">
         <v>0.21</v>
@@ -1307,13 +1307,13 @@
         <v>0.6</v>
       </c>
       <c r="F19" s="1" t="s">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="G19" s="1" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="H19" s="4" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="I19" s="3">
         <v>2.0700000000000003</v>
@@ -1326,10 +1326,10 @@
         <v>0.51750000000000007</v>
       </c>
       <c r="L19" s="1" t="s">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="M19" s="1" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="N19" s="1">
         <v>0.21</v>
@@ -1352,13 +1352,13 @@
         <v>0.8</v>
       </c>
       <c r="F20" s="1" t="s">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="G20" s="1" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="H20" s="4" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="I20" s="3">
         <v>1.82</v>
@@ -1371,10 +1371,10 @@
         <v>0.45500000000000002</v>
       </c>
       <c r="L20" s="1" t="s">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="M20" s="1" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="N20" s="1">
         <v>0.21</v>
@@ -1397,13 +1397,13 @@
         <v>1</v>
       </c>
       <c r="F21" s="1" t="s">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="G21" s="1" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="H21" s="4" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="I21" s="3">
         <v>1.1300000000000001</v>
@@ -1416,10 +1416,10 @@
         <v>0.28250000000000003</v>
       </c>
       <c r="L21" s="1" t="s">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="M21" s="1" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="N21" s="1">
         <v>0.21</v>
@@ -1442,13 +1442,13 @@
         <v>1.2</v>
       </c>
       <c r="F22" s="1" t="s">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="G22" s="1" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="H22" s="4" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="I22" s="3">
         <v>0.872</v>
@@ -1461,10 +1461,10 @@
         <v>0.218</v>
       </c>
       <c r="L22" s="1" t="s">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="M22" s="1" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="N22" s="1">
         <v>0.21</v>
@@ -1487,13 +1487,13 @@
         <v>1.4</v>
       </c>
       <c r="F23" s="1" t="s">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="G23" s="1" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="H23" s="4" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="I23" s="3">
         <v>0.63500000000000012</v>
@@ -1506,10 +1506,10 @@
         <v>0.15875000000000003</v>
       </c>
       <c r="L23" s="1" t="s">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="M23" s="1" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="N23" s="1">
         <v>0.21</v>
@@ -1532,13 +1532,13 @@
         <v>1.6</v>
       </c>
       <c r="F24" s="1" t="s">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="G24" s="1" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="H24" s="4" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="I24" s="3">
         <v>0.38400000000000006</v>
@@ -1551,10 +1551,10 @@
         <v>9.6000000000000016E-2</v>
       </c>
       <c r="L24" s="1" t="s">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="M24" s="1" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="N24" s="1">
         <v>0.21</v>
@@ -1577,13 +1577,13 @@
         <v>1.8</v>
       </c>
       <c r="F25" s="1" t="s">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="G25" s="1" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="H25" s="4" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="I25" s="3">
         <v>0.26</v>
@@ -1596,10 +1596,10 @@
         <v>6.5000000000000002E-2</v>
       </c>
       <c r="L25" s="1" t="s">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="M25" s="1" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="N25" s="1">
         <v>0.21</v>
@@ -1622,13 +1622,13 @@
         <v>2</v>
       </c>
       <c r="F26" s="1" t="s">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="G26" s="1" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="H26" s="4" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="I26" s="3">
         <v>0.124</v>
@@ -1641,10 +1641,10 @@
         <v>3.1E-2</v>
       </c>
       <c r="L26" s="1" t="s">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="M26" s="1" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="N26" s="1">
         <v>0.21</v>
@@ -1667,13 +1667,13 @@
         <v>2.2000000000000002</v>
       </c>
       <c r="F27" s="1" t="s">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="G27" s="1" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="H27" s="4" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="I27" s="3">
         <v>0.10300000000000001</v>
@@ -1686,10 +1686,10 @@
         <v>2.5750000000000002E-2</v>
       </c>
       <c r="L27" s="1" t="s">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="M27" s="1" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="N27" s="1">
         <v>0.21</v>
@@ -1712,13 +1712,13 @@
         <v>2.4</v>
       </c>
       <c r="F28" s="1" t="s">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="G28" s="1" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="H28" s="4" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="I28" s="3">
         <v>7.9000000000000001E-2</v>
@@ -1731,10 +1731,10 @@
         <v>1.975E-2</v>
       </c>
       <c r="L28" s="1" t="s">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="M28" s="1" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="N28" s="1">
         <v>0.21</v>
@@ -1757,13 +1757,13 @@
         <v>2.6</v>
       </c>
       <c r="F29" s="1" t="s">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="G29" s="1" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="H29" s="4" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="I29" s="3">
         <v>3.2000000000000001E-2</v>
@@ -1776,10 +1776,10 @@
         <v>8.0000000000000002E-3</v>
       </c>
       <c r="L29" s="1" t="s">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="M29" s="1" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="N29" s="1">
         <v>0.21</v>
@@ -1802,13 +1802,13 @@
         <v>2.8</v>
       </c>
       <c r="F30" s="1" t="s">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="G30" s="1" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="H30" s="4" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="I30" s="3">
         <v>1.4E-2</v>
@@ -1821,10 +1821,10 @@
         <v>3.5000000000000001E-3</v>
       </c>
       <c r="L30" s="1" t="s">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="M30" s="1" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="N30" s="1">
         <v>0.21</v>
@@ -1847,13 +1847,13 @@
         <v>3</v>
       </c>
       <c r="F31" s="1" t="s">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="G31" s="1" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="H31" s="4" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="I31" s="3">
         <v>6.6E-3</v>
@@ -1866,10 +1866,10 @@
         <v>1.65E-3</v>
       </c>
       <c r="L31" s="1" t="s">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="M31" s="1" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="N31" s="1">
         <v>0.21</v>
@@ -1892,13 +1892,13 @@
         <v>3.2</v>
       </c>
       <c r="F32" s="1" t="s">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="G32" s="1" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="H32" s="4" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="I32" s="3">
         <v>5.5000000000000005E-3</v>
@@ -1911,10 +1911,10 @@
         <v>1.3750000000000001E-3</v>
       </c>
       <c r="L32" s="1" t="s">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="M32" s="1" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="N32" s="1">
         <v>0.21</v>
@@ -1937,13 +1937,13 @@
         <v>4</v>
       </c>
       <c r="F33" s="1" t="s">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="G33" s="1" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="H33" s="4" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="I33" s="3">
         <v>1.3299999999999999E-2</v>
@@ -1956,10 +1956,10 @@
         <v>3.3249999999999998E-3</v>
       </c>
       <c r="L33" s="1" t="s">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="M33" s="1" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="N33" s="1">
         <v>0.21</v>
@@ -1982,13 +1982,13 @@
         <v>0.2</v>
       </c>
       <c r="F34" s="1" t="s">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="G34" s="1" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="H34" s="4" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="I34" s="3">
         <v>0.84899999999999998</v>
@@ -2001,10 +2001,10 @@
         <v>0.21224999999999999</v>
       </c>
       <c r="L34" s="1" t="s">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="M34" s="1" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="N34" s="1">
         <v>0.21</v>
@@ -2027,13 +2027,13 @@
         <v>0.4</v>
       </c>
       <c r="F35" s="1" t="s">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="G35" s="1" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="H35" s="4" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="I35" s="3">
         <v>0.78300000000000003</v>
@@ -2046,10 +2046,10 @@
         <v>0.19575000000000001</v>
       </c>
       <c r="L35" s="1" t="s">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="M35" s="1" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="N35" s="1">
         <v>0.21</v>
@@ -2072,13 +2072,13 @@
         <v>0.6</v>
       </c>
       <c r="F36" s="1" t="s">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="G36" s="1" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="H36" s="4" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="I36" s="3">
         <v>0.65500000000000003</v>
@@ -2091,10 +2091,10 @@
         <v>0.16375000000000001</v>
       </c>
       <c r="L36" s="1" t="s">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="M36" s="1" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="N36" s="1">
         <v>0.21</v>
@@ -2117,13 +2117,13 @@
         <v>0.8</v>
       </c>
       <c r="F37" s="1" t="s">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="G37" s="1" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="H37" s="4" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="I37" s="3">
         <v>0.54</v>
@@ -2136,10 +2136,10 @@
         <v>0.13500000000000001</v>
       </c>
       <c r="L37" s="1" t="s">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="M37" s="1" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="N37" s="1">
         <v>0.21</v>
@@ -2162,13 +2162,13 @@
         <v>1</v>
       </c>
       <c r="F38" s="1" t="s">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="G38" s="1" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="H38" s="4" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="I38" s="3">
         <v>0.41399999999999998</v>
@@ -2181,10 +2181,10 @@
         <v>0.10349999999999999</v>
       </c>
       <c r="L38" s="1" t="s">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="M38" s="1" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="N38" s="1">
         <v>0.21</v>
@@ -2207,13 +2207,13 @@
         <v>1.2</v>
       </c>
       <c r="F39" s="1" t="s">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="G39" s="1" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="H39" s="4" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="I39" s="3">
         <v>0.28600000000000003</v>
@@ -2226,10 +2226,10 @@
         <v>7.1500000000000008E-2</v>
       </c>
       <c r="L39" s="1" t="s">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="M39" s="1" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="N39" s="1">
         <v>0.21</v>
@@ -2252,13 +2252,13 @@
         <v>1.4</v>
       </c>
       <c r="F40" s="1" t="s">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="G40" s="1" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="H40" s="4" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="I40" s="3">
         <v>0.187</v>
@@ -2271,10 +2271,10 @@
         <v>4.675E-2</v>
       </c>
       <c r="L40" s="1" t="s">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="M40" s="1" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="N40" s="1">
         <v>0.21</v>
@@ -2297,13 +2297,13 @@
         <v>1.6</v>
       </c>
       <c r="F41" s="1" t="s">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="G41" s="1" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="H41" s="4" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="I41" s="3">
         <v>0.18200000000000002</v>
@@ -2316,10 +2316,10 @@
         <v>4.5500000000000006E-2</v>
       </c>
       <c r="L41" s="1" t="s">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="M41" s="1" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="N41" s="1">
         <v>0.21</v>
@@ -2342,13 +2342,13 @@
         <v>1.8</v>
       </c>
       <c r="F42" s="1" t="s">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="G42" s="1" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="H42" s="4" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="I42" s="3">
         <v>0.11</v>
@@ -2361,10 +2361,10 @@
         <v>2.75E-2</v>
       </c>
       <c r="L42" s="1" t="s">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="M42" s="1" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="N42" s="1">
         <v>0.21</v>
@@ -2387,13 +2387,13 @@
         <v>2</v>
       </c>
       <c r="F43" s="1" t="s">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="G43" s="1" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="H43" s="4" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="I43" s="3">
         <v>7.2000000000000008E-2</v>
@@ -2406,10 +2406,10 @@
         <v>1.8000000000000002E-2</v>
       </c>
       <c r="L43" s="1" t="s">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="M43" s="1" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="N43" s="1">
         <v>0.21</v>
@@ -2432,13 +2432,13 @@
         <v>2.2000000000000002</v>
       </c>
       <c r="F44" s="1" t="s">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="G44" s="1" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="H44" s="4" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="I44" s="3">
         <v>4.0800000000000003E-2</v>
@@ -2451,10 +2451,10 @@
         <v>1.0200000000000001E-2</v>
       </c>
       <c r="L44" s="1" t="s">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="M44" s="1" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="N44" s="1">
         <v>0.21</v>
@@ -2477,13 +2477,13 @@
         <v>2.4</v>
       </c>
       <c r="F45" s="1" t="s">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="G45" s="1" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="H45" s="4" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="I45" s="3">
         <v>2.1899999999999999E-2</v>
@@ -2496,10 +2496,10 @@
         <v>5.4749999999999998E-3</v>
       </c>
       <c r="L45" s="1" t="s">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="M45" s="1" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="N45" s="1">
         <v>0.21</v>
@@ -2522,13 +2522,13 @@
         <v>2.6</v>
       </c>
       <c r="F46" s="1" t="s">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="G46" s="1" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="H46" s="4" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="I46" s="3">
         <v>1.9E-2</v>
@@ -2541,10 +2541,10 @@
         <v>4.7499999999999999E-3</v>
       </c>
       <c r="L46" s="1" t="s">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="M46" s="1" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="N46" s="1">
         <v>0.21</v>
@@ -2567,13 +2567,13 @@
         <v>2.8</v>
       </c>
       <c r="F47" s="1" t="s">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="G47" s="1" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="H47" s="4" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="I47" s="3">
         <v>7.9000000000000008E-3</v>
@@ -2586,10 +2586,10 @@
         <v>1.9750000000000002E-3</v>
       </c>
       <c r="L47" s="1" t="s">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="M47" s="1" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="N47" s="1">
         <v>0.21</v>
@@ -2612,13 +2612,13 @@
         <v>3</v>
       </c>
       <c r="F48" s="1" t="s">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="G48" s="1" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="H48" s="4" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="I48" s="3">
         <v>1.1000000000000001E-2</v>
@@ -2631,10 +2631,10 @@
         <v>2.7500000000000003E-3</v>
       </c>
       <c r="L48" s="1" t="s">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="M48" s="1" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="N48" s="1">
         <v>0.21</v>
@@ -2657,13 +2657,13 @@
         <v>3.2</v>
       </c>
       <c r="F49" s="1" t="s">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="G49" s="1" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="H49" s="4" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="I49" s="3">
         <v>1.9000000000000002E-3</v>
@@ -2676,10 +2676,10 @@
         <v>4.7500000000000005E-4</v>
       </c>
       <c r="L49" s="1" t="s">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="M49" s="1" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="N49" s="1">
         <v>0.21</v>
@@ -2702,13 +2702,13 @@
         <v>3.4</v>
       </c>
       <c r="F50" s="1" t="s">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="G50" s="1" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="H50" s="4" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="I50" s="3">
         <v>2.3000000000000004E-3</v>
@@ -2721,10 +2721,10 @@
         <v>5.750000000000001E-4</v>
       </c>
       <c r="L50" s="1" t="s">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="M50" s="1" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="N50" s="1">
         <v>0.21</v>
@@ -2747,13 +2747,13 @@
         <v>3.8</v>
       </c>
       <c r="F51" s="1" t="s">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="G51" s="1" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="H51" s="4" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="I51" s="3">
         <v>2.8000000000000004E-3</v>
@@ -2766,10 +2766,10 @@
         <v>7.000000000000001E-4</v>
       </c>
       <c r="L51" s="1" t="s">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="M51" s="1" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="N51" s="1">
         <v>0.21</v>
@@ -2792,13 +2792,13 @@
         <v>0.2</v>
       </c>
       <c r="F52" s="1" t="s">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="G52" s="1" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="H52" s="4" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="I52" s="3">
         <v>0.28600000000000003</v>
@@ -2811,10 +2811,10 @@
         <v>7.1500000000000008E-2</v>
       </c>
       <c r="L52" s="1" t="s">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="M52" s="1" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="N52" s="1">
         <v>0.21</v>
@@ -2837,13 +2837,13 @@
         <v>0.4</v>
       </c>
       <c r="F53" s="1" t="s">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="G53" s="1" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="H53" s="4" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="I53" s="3">
         <v>0.253</v>
@@ -2856,10 +2856,10 @@
         <v>6.3250000000000001E-2</v>
       </c>
       <c r="L53" s="1" t="s">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="M53" s="1" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="N53" s="1">
         <v>0.21</v>
@@ -2882,13 +2882,13 @@
         <v>0.6</v>
       </c>
       <c r="F54" s="1" t="s">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="G54" s="1" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="H54" s="4" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="I54" s="3">
         <v>0.23700000000000002</v>
@@ -2901,10 +2901,10 @@
         <v>5.9250000000000004E-2</v>
       </c>
       <c r="L54" s="1" t="s">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="M54" s="1" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="N54" s="1">
         <v>0.21</v>
@@ -2927,13 +2927,13 @@
         <v>0.8</v>
       </c>
       <c r="F55" s="1" t="s">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="G55" s="1" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="H55" s="4" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="I55" s="3">
         <v>0.19700000000000001</v>
@@ -2946,10 +2946,10 @@
         <v>4.9250000000000002E-2</v>
       </c>
       <c r="L55" s="1" t="s">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="M55" s="1" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="N55" s="1">
         <v>0.21</v>
@@ -2972,13 +2972,13 @@
         <v>1</v>
       </c>
       <c r="F56" s="1" t="s">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="G56" s="1" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="H56" s="4" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="I56" s="3">
         <v>0.14500000000000002</v>
@@ -2991,10 +2991,10 @@
         <v>3.6250000000000004E-2</v>
       </c>
       <c r="L56" s="1" t="s">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="M56" s="1" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="N56" s="1">
         <v>0.21</v>
@@ -3017,13 +3017,13 @@
         <v>1.2</v>
       </c>
       <c r="F57" s="1" t="s">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="G57" s="1" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="H57" s="4" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="I57" s="3">
         <v>0.11</v>
@@ -3036,10 +3036,10 @@
         <v>2.75E-2</v>
       </c>
       <c r="L57" s="1" t="s">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="M57" s="1" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="N57" s="1">
         <v>0.21</v>
@@ -3062,13 +3062,13 @@
         <v>1.4</v>
       </c>
       <c r="F58" s="1" t="s">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="G58" s="1" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="H58" s="4" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="I58" s="3">
         <v>7.8100000000000003E-2</v>
@@ -3081,10 +3081,10 @@
         <v>1.9525000000000001E-2</v>
       </c>
       <c r="L58" s="1" t="s">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="M58" s="1" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="N58" s="1">
         <v>0.21</v>
@@ -3107,13 +3107,13 @@
         <v>1.6</v>
       </c>
       <c r="F59" s="1" t="s">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="G59" s="1" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="H59" s="4" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="I59" s="3">
         <v>3.7999999999999999E-2</v>
@@ -3126,10 +3126,10 @@
         <v>9.4999999999999998E-3</v>
       </c>
       <c r="L59" s="1" t="s">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="M59" s="1" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="N59" s="1">
         <v>0.21</v>
@@ -3152,13 +3152,13 @@
         <v>1.8</v>
       </c>
       <c r="F60" s="1" t="s">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="G60" s="1" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="H60" s="4" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="I60" s="3">
         <v>4.6399999999999997E-2</v>
@@ -3171,10 +3171,10 @@
         <v>1.1599999999999999E-2</v>
       </c>
       <c r="L60" s="1" t="s">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="M60" s="1" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="N60" s="1">
         <v>0.21</v>
@@ -3197,13 +3197,13 @@
         <v>2</v>
       </c>
       <c r="F61" s="1" t="s">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="G61" s="1" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="H61" s="4" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="I61" s="3">
         <v>1.9200000000000002E-2</v>
@@ -3216,10 +3216,10 @@
         <v>4.8000000000000004E-3</v>
       </c>
       <c r="L61" s="1" t="s">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="M61" s="1" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="N61" s="1">
         <v>0.21</v>
@@ -3242,13 +3242,13 @@
         <v>2.2000000000000002</v>
       </c>
       <c r="F62" s="1" t="s">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="G62" s="1" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="H62" s="4" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="I62" s="3">
         <v>2.5000000000000001E-2</v>
@@ -3261,10 +3261,10 @@
         <v>6.2500000000000003E-3</v>
       </c>
       <c r="L62" s="1" t="s">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="M62" s="1" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="N62" s="1">
         <v>0.21</v>
@@ -3287,13 +3287,13 @@
         <v>2.4</v>
       </c>
       <c r="F63" s="1" t="s">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="G63" s="1" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="H63" s="4" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="I63" s="3">
         <v>1.18E-2</v>
@@ -3306,10 +3306,10 @@
         <v>2.9499999999999999E-3</v>
       </c>
       <c r="L63" s="1" t="s">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="M63" s="1" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="N63" s="1">
         <v>0.21</v>
@@ -3332,13 +3332,13 @@
         <v>2.6</v>
       </c>
       <c r="F64" s="1" t="s">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="G64" s="1" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="H64" s="4" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="I64" s="3">
         <v>5.1999999999999998E-3</v>
@@ -3351,10 +3351,10 @@
         <v>1.2999999999999999E-3</v>
       </c>
       <c r="L64" s="1" t="s">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="M64" s="1" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="N64" s="1">
         <v>0.21</v>
@@ -3377,13 +3377,13 @@
         <v>3</v>
       </c>
       <c r="F65" s="1" t="s">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="G65" s="1" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="H65" s="4" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="I65" s="3">
         <v>1.1000000000000001E-3</v>
@@ -3396,10 +3396,10 @@
         <v>2.7500000000000002E-4</v>
       </c>
       <c r="L65" s="1" t="s">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="M65" s="1" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="N65" s="1">
         <v>0.21</v>
@@ -3422,13 +3422,13 @@
         <v>3.2</v>
       </c>
       <c r="F66" s="1" t="s">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="G66" s="1" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="H66" s="4" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="I66" s="3">
         <v>1.2000000000000001E-3</v>
@@ -3441,10 +3441,10 @@
         <v>3.0000000000000003E-4</v>
       </c>
       <c r="L66" s="1" t="s">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="M66" s="1" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="N66" s="1">
         <v>0.21</v>
@@ -3467,13 +3467,13 @@
         <v>4.2</v>
       </c>
       <c r="F67" s="1" t="s">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="G67" s="1" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="H67" s="4" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="I67" s="3">
         <v>1.7000000000000001E-3</v>
@@ -3486,10 +3486,10 @@
         <v>4.2500000000000003E-4</v>
       </c>
       <c r="L67" s="1" t="s">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="M67" s="1" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="N67" s="1">
         <v>0.21</v>
@@ -3512,13 +3512,13 @@
         <v>4.5999999999999996</v>
       </c>
       <c r="F68" s="1" t="s">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="G68" s="1" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="H68" s="4" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="I68" s="3">
         <v>1.7000000000000001E-3</v>
@@ -3531,10 +3531,10 @@
         <v>4.2500000000000003E-4</v>
       </c>
       <c r="L68" s="1" t="s">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="M68" s="1" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="N68" s="1">
         <v>0.21</v>
@@ -3557,13 +3557,13 @@
         <v>0.2</v>
       </c>
       <c r="F69" s="1" t="s">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="G69" s="1" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="H69" s="4" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="I69" s="3">
         <v>9.6000000000000016E-2</v>
@@ -3576,10 +3576,10 @@
         <v>2.4000000000000004E-2</v>
       </c>
       <c r="L69" s="1" t="s">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="M69" s="1" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="N69" s="1">
         <v>0.21</v>
@@ -3602,13 +3602,13 @@
         <v>0.4</v>
       </c>
       <c r="F70" s="1" t="s">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="G70" s="1" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="H70" s="4" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="I70" s="3">
         <v>7.0000000000000007E-2</v>
@@ -3621,10 +3621,10 @@
         <v>1.7500000000000002E-2</v>
       </c>
       <c r="L70" s="1" t="s">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="M70" s="1" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="N70" s="1">
         <v>0.21</v>
@@ -3647,13 +3647,13 @@
         <v>0.6</v>
       </c>
       <c r="F71" s="1" t="s">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="G71" s="1" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="H71" s="4" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="I71" s="3">
         <v>7.0000000000000007E-2</v>
@@ -3666,10 +3666,10 @@
         <v>1.7500000000000002E-2</v>
       </c>
       <c r="L71" s="1" t="s">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="M71" s="1" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="N71" s="1">
         <v>0.21</v>
@@ -3692,13 +3692,13 @@
         <v>0.8</v>
       </c>
       <c r="F72" s="1" t="s">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="G72" s="1" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="H72" s="4" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="I72" s="3">
         <v>7.3000000000000009E-2</v>
@@ -3711,10 +3711,10 @@
         <v>1.8250000000000002E-2</v>
       </c>
       <c r="L72" s="1" t="s">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="M72" s="1" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="N72" s="1">
         <v>0.21</v>
@@ -3737,13 +3737,13 @@
         <v>1</v>
       </c>
       <c r="F73" s="1" t="s">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="G73" s="1" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="H73" s="4" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="I73" s="3">
         <v>5.3000000000000005E-2</v>
@@ -3756,10 +3756,10 @@
         <v>1.3250000000000001E-2</v>
       </c>
       <c r="L73" s="1" t="s">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="M73" s="1" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="N73" s="1">
         <v>0.21</v>
@@ -3782,13 +3782,13 @@
         <v>1.2</v>
       </c>
       <c r="F74" s="1" t="s">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="G74" s="1" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="H74" s="4" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="I74" s="3">
         <v>5.2000000000000005E-2</v>
@@ -3801,10 +3801,10 @@
         <v>1.3000000000000001E-2</v>
       </c>
       <c r="L74" s="1" t="s">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="M74" s="1" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="N74" s="1">
         <v>0.21</v>
@@ -3827,13 +3827,13 @@
         <v>1.4</v>
       </c>
       <c r="F75" s="1" t="s">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="G75" s="1" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="H75" s="4" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="I75" s="3">
         <v>3.2000000000000001E-2</v>
@@ -3846,10 +3846,10 @@
         <v>8.0000000000000002E-3</v>
       </c>
       <c r="L75" s="1" t="s">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="M75" s="1" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="N75" s="1">
         <v>0.21</v>
@@ -3872,13 +3872,13 @@
         <v>1.6</v>
       </c>
       <c r="F76" s="1" t="s">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="G76" s="1" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="H76" s="4" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="I76" s="3">
         <v>1.8000000000000002E-2</v>
@@ -3891,10 +3891,10 @@
         <v>4.5000000000000005E-3</v>
       </c>
       <c r="L76" s="1" t="s">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="M76" s="1" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="N76" s="1">
         <v>0.21</v>
@@ -3917,13 +3917,13 @@
         <v>1.8</v>
       </c>
       <c r="F77" s="1" t="s">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="G77" s="1" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="H77" s="4" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="I77" s="3">
         <v>1.0200000000000001E-2</v>
@@ -3936,10 +3936,10 @@
         <v>2.5500000000000002E-3</v>
       </c>
       <c r="L77" s="1" t="s">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="M77" s="1" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="N77" s="1">
         <v>0.21</v>
@@ -3962,13 +3962,13 @@
         <v>2</v>
       </c>
       <c r="F78" s="1" t="s">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="G78" s="1" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="H78" s="4" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="I78" s="3">
         <v>2.3000000000000004E-3</v>
@@ -3981,10 +3981,10 @@
         <v>5.750000000000001E-4</v>
       </c>
       <c r="L78" s="1" t="s">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="M78" s="1" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="N78" s="1">
         <v>0.21</v>
@@ -4007,13 +4007,13 @@
         <v>2.2000000000000002</v>
       </c>
       <c r="F79" s="1" t="s">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="G79" s="1" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="H79" s="4" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="I79" s="3">
         <v>7.0000000000000001E-3</v>
@@ -4026,10 +4026,10 @@
         <v>1.75E-3</v>
       </c>
       <c r="L79" s="1" t="s">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="M79" s="1" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="N79" s="1">
         <v>0.21</v>
@@ -4052,13 +4052,13 @@
         <v>2.4</v>
       </c>
       <c r="F80" s="1" t="s">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="G80" s="1" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="H80" s="4" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="I80" s="3">
         <v>1.5999999999999999E-3</v>
@@ -4071,10 +4071,10 @@
         <v>3.9999999999999996E-4</v>
       </c>
       <c r="L80" s="1" t="s">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="M80" s="1" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="N80" s="1">
         <v>0.21</v>
@@ -4097,13 +4097,13 @@
         <v>2.6</v>
       </c>
       <c r="F81" s="1" t="s">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="G81" s="1" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="H81" s="4" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="I81" s="3">
         <v>8.8000000000000003E-4</v>
@@ -4116,10 +4116,10 @@
         <v>2.2000000000000001E-4</v>
       </c>
       <c r="L81" s="1" t="s">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="M81" s="1" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="N81" s="1">
         <v>0.21</v>
@@ -4142,13 +4142,13 @@
         <v>3.2</v>
       </c>
       <c r="F82" s="1" t="s">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="G82" s="1" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="H82" s="4" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="I82" s="3">
         <v>1E-3</v>
@@ -4161,10 +4161,10 @@
         <v>2.5000000000000001E-4</v>
       </c>
       <c r="L82" s="1" t="s">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="M82" s="1" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="N82" s="1">
         <v>0.21</v>
@@ -4187,13 +4187,13 @@
         <v>0.2</v>
       </c>
       <c r="F83" s="1" t="s">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="G83" s="1" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="H83" s="4" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="I83" s="3">
         <v>9.1000000000000011E-2</v>
@@ -4206,10 +4206,10 @@
         <v>2.2750000000000003E-2</v>
       </c>
       <c r="L83" s="1" t="s">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="M83" s="1" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="N83" s="1">
         <v>0.21</v>
@@ -4232,13 +4232,13 @@
         <v>0.4</v>
       </c>
       <c r="F84" s="1" t="s">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="G84" s="1" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="H84" s="4" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="I84" s="3">
         <v>6.6000000000000003E-2</v>
@@ -4251,10 +4251,10 @@
         <v>1.6500000000000001E-2</v>
       </c>
       <c r="L84" s="1" t="s">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="M84" s="1" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="N84" s="1">
         <v>0.21</v>
@@ -4277,13 +4277,13 @@
         <v>0.6</v>
       </c>
       <c r="F85" s="1" t="s">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="G85" s="1" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="H85" s="4" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="I85" s="3">
         <v>6.6000000000000003E-2</v>
@@ -4296,10 +4296,10 @@
         <v>1.6500000000000001E-2</v>
       </c>
       <c r="L85" s="1" t="s">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="M85" s="1" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="N85" s="1">
         <v>0.21</v>
@@ -4322,13 +4322,13 @@
         <v>0.8</v>
       </c>
       <c r="F86" s="1" t="s">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="G86" s="1" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="H86" s="4" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="I86" s="3">
         <v>6.9000000000000006E-2</v>
@@ -4341,10 +4341,10 @@
         <v>1.7250000000000001E-2</v>
       </c>
       <c r="L86" s="1" t="s">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="M86" s="1" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="N86" s="1">
         <v>0.21</v>
@@ -4367,13 +4367,13 @@
         <v>1</v>
       </c>
       <c r="F87" s="1" t="s">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="G87" s="1" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="H87" s="4" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="I87" s="3">
         <v>0.05</v>
@@ -4386,10 +4386,10 @@
         <v>1.2500000000000001E-2</v>
       </c>
       <c r="L87" s="1" t="s">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="M87" s="1" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="N87" s="1">
         <v>0.21</v>
@@ -4412,13 +4412,13 @@
         <v>1.2</v>
       </c>
       <c r="F88" s="1" t="s">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="G88" s="1" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="H88" s="4" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="I88" s="3">
         <v>0.05</v>
@@ -4431,10 +4431,10 @@
         <v>1.2500000000000001E-2</v>
       </c>
       <c r="L88" s="1" t="s">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="M88" s="1" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="N88" s="1">
         <v>0.21</v>
@@ -4457,13 +4457,13 @@
         <v>1.4</v>
       </c>
       <c r="F89" s="1" t="s">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="G89" s="1" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="H89" s="4" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="I89" s="3">
         <v>0.03</v>
@@ -4476,10 +4476,10 @@
         <v>7.4999999999999997E-3</v>
       </c>
       <c r="L89" s="1" t="s">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="M89" s="1" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="N89" s="1">
         <v>0.21</v>
@@ -4502,13 +4502,13 @@
         <v>1.6</v>
       </c>
       <c r="F90" s="1" t="s">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="G90" s="1" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="H90" s="4" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="I90" s="3">
         <v>1.66E-2</v>
@@ -4521,10 +4521,10 @@
         <v>4.15E-3</v>
       </c>
       <c r="L90" s="1" t="s">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="M90" s="1" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="N90" s="1">
         <v>0.21</v>
@@ -4547,13 +4547,13 @@
         <v>1.8</v>
       </c>
       <c r="F91" s="1" t="s">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="G91" s="1" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="H91" s="4" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="I91" s="3">
         <v>9.7000000000000003E-3</v>
@@ -4566,10 +4566,10 @@
         <v>2.4250000000000001E-3</v>
       </c>
       <c r="L91" s="1" t="s">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="M91" s="1" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="N91" s="1">
         <v>0.21</v>
@@ -4592,13 +4592,13 @@
         <v>2</v>
       </c>
       <c r="F92" s="1" t="s">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="G92" s="1" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="H92" s="4" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="I92" s="3">
         <v>2.2000000000000001E-3</v>
@@ -4611,10 +4611,10 @@
         <v>5.5000000000000003E-4</v>
       </c>
       <c r="L92" s="1" t="s">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="M92" s="1" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="N92" s="1">
         <v>0.21</v>
@@ -4637,13 +4637,13 @@
         <v>2.2000000000000002</v>
       </c>
       <c r="F93" s="1" t="s">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="G93" s="1" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="H93" s="4" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="I93" s="3">
         <v>6.7000000000000011E-3</v>
@@ -4656,10 +4656,10 @@
         <v>1.6750000000000003E-3</v>
       </c>
       <c r="L93" s="1" t="s">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="M93" s="1" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="N93" s="1">
         <v>0.21</v>
@@ -4682,13 +4682,13 @@
         <v>2.4</v>
       </c>
       <c r="F94" s="1" t="s">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="G94" s="1" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="H94" s="4" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="I94" s="3">
         <v>1.5499999999999999E-3</v>
@@ -4701,10 +4701,10 @@
         <v>3.8749999999999999E-4</v>
       </c>
       <c r="L94" s="1" t="s">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="M94" s="1" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="N94" s="1">
         <v>0.21</v>
@@ -4727,13 +4727,13 @@
         <v>2.6</v>
       </c>
       <c r="F95" s="1" t="s">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="G95" s="1" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="H95" s="4" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="I95" s="3">
         <v>8.4000000000000014E-4</v>
@@ -4746,10 +4746,10 @@
         <v>2.1000000000000004E-4</v>
       </c>
       <c r="L95" s="1" t="s">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="M95" s="1" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="N95" s="1">
         <v>0.21</v>
@@ -4772,13 +4772,13 @@
         <v>3.2</v>
       </c>
       <c r="F96" s="1" t="s">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="G96" s="1" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="H96" s="4" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="I96" s="3">
         <v>9.6000000000000002E-4</v>
@@ -4791,10 +4791,10 @@
         <v>2.4000000000000001E-4</v>
       </c>
       <c r="L96" s="1" t="s">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="M96" s="1" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="N96" s="1">
         <v>0.21</v>
@@ -4817,13 +4817,13 @@
         <v>0.2</v>
       </c>
       <c r="F97" s="1" t="s">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="G97" s="1" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="H97" s="4" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="I97" s="3">
         <v>1.8700000000000001E-2</v>
@@ -4836,10 +4836,10 @@
         <v>4.6750000000000003E-3</v>
       </c>
       <c r="L97" s="1" t="s">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="M97" s="1" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="N97" s="1">
         <v>0.21</v>
@@ -4862,13 +4862,13 @@
         <v>0.4</v>
       </c>
       <c r="F98" s="1" t="s">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="G98" s="1" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="H98" s="4" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="I98" s="3">
         <v>1.66E-2</v>
@@ -4881,10 +4881,10 @@
         <v>4.15E-3</v>
       </c>
       <c r="L98" s="1" t="s">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="M98" s="1" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="N98" s="1">
         <v>0.21</v>
@@ -4907,13 +4907,13 @@
         <v>0.6</v>
       </c>
       <c r="F99" s="1" t="s">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="G99" s="1" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="H99" s="4" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="I99" s="3">
         <v>1.2100000000000001E-2</v>
@@ -4926,10 +4926,10 @@
         <v>3.0250000000000003E-3</v>
       </c>
       <c r="L99" s="1" t="s">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="M99" s="1" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="N99" s="1">
         <v>0.21</v>
@@ -4952,13 +4952,13 @@
         <v>0.8</v>
       </c>
       <c r="F100" s="1" t="s">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="G100" s="1" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="H100" s="4" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="I100" s="3">
         <v>1.0100000000000001E-2</v>
@@ -4971,10 +4971,10 @@
         <v>2.5250000000000003E-3</v>
       </c>
       <c r="L100" s="1" t="s">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="M100" s="1" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="N100" s="1">
         <v>0.21</v>
@@ -4997,13 +4997,13 @@
         <v>1</v>
       </c>
       <c r="F101" s="1" t="s">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="G101" s="1" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="H101" s="4" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="I101" s="3">
         <v>6.2400000000000004E-2</v>
@@ -5016,10 +5016,10 @@
         <v>1.5600000000000001E-2</v>
       </c>
       <c r="L101" s="1" t="s">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="M101" s="1" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="N101" s="1">
         <v>0.21</v>
@@ -5042,13 +5042,13 @@
         <v>1.2</v>
       </c>
       <c r="F102" s="1" t="s">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="G102" s="1" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="H102" s="4" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="I102" s="3">
         <v>6.6E-3</v>
@@ -5061,10 +5061,10 @@
         <v>1.65E-3</v>
       </c>
       <c r="L102" s="1" t="s">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="M102" s="1" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="N102" s="1">
         <v>0.21</v>
@@ -5087,13 +5087,13 @@
         <v>1.4</v>
       </c>
       <c r="F103" s="1" t="s">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="G103" s="1" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="H103" s="4" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="I103" s="3">
         <v>2.3000000000000004E-3</v>
@@ -5106,10 +5106,10 @@
         <v>5.750000000000001E-4</v>
       </c>
       <c r="L103" s="1" t="s">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="M103" s="1" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="N103" s="1">
         <v>0.21</v>
@@ -5132,13 +5132,13 @@
         <v>1.6</v>
       </c>
       <c r="F104" s="1" t="s">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="G104" s="1" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="H104" s="4" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="I104" s="3">
         <v>3.7000000000000002E-3</v>
@@ -5151,10 +5151,10 @@
         <v>9.2500000000000004E-4</v>
       </c>
       <c r="L104" s="1" t="s">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="M104" s="1" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="N104" s="1">
         <v>0.21</v>
@@ -5177,13 +5177,13 @@
         <v>1.8</v>
       </c>
       <c r="F105" s="1" t="s">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="G105" s="1" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="H105" s="4" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="I105" s="3">
         <v>4.6000000000000008E-3</v>
@@ -5196,10 +5196,10 @@
         <v>1.1500000000000002E-3</v>
       </c>
       <c r="L105" s="1" t="s">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="M105" s="1" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="N105" s="1">
         <v>0.21</v>
@@ -5222,13 +5222,13 @@
         <v>2</v>
       </c>
       <c r="F106" s="1" t="s">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="G106" s="1" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="H106" s="4" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="I106" s="3">
         <v>7.5000000000000012E-4</v>
@@ -5241,10 +5241,10 @@
         <v>1.8750000000000003E-4</v>
       </c>
       <c r="L106" s="1" t="s">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="M106" s="1" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="N106" s="1">
         <v>0.21</v>
@@ -5267,13 +5267,13 @@
         <v>2.2000000000000002</v>
       </c>
       <c r="F107" s="1" t="s">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="G107" s="1" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="H107" s="4" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="I107" s="3">
         <v>4.6999999999999999E-4</v>
@@ -5286,10 +5286,10 @@
         <v>1.175E-4</v>
       </c>
       <c r="L107" s="1" t="s">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="M107" s="1" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="N107" s="1">
         <v>0.21</v>
@@ -5312,13 +5312,13 @@
         <v>2.8</v>
       </c>
       <c r="F108" s="1" t="s">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="G108" s="1" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="H108" s="4" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="I108" s="3">
         <v>3.6999999999999999E-4</v>
@@ -5331,10 +5331,10 @@
         <v>9.2499999999999999E-5</v>
       </c>
       <c r="L108" s="1" t="s">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="M108" s="1" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="N108" s="1">
         <v>0.21</v>
@@ -5357,13 +5357,13 @@
         <v>3</v>
       </c>
       <c r="F109" s="1" t="s">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="G109" s="1" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="H109" s="4" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="I109" s="3">
         <v>4.4000000000000002E-4</v>
@@ -5376,10 +5376,10 @@
         <v>1.1E-4</v>
       </c>
       <c r="L109" s="1" t="s">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="M109" s="1" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="N109" s="1">
         <v>0.21</v>
@@ -5402,13 +5402,13 @@
         <v>0.2</v>
       </c>
       <c r="F110" s="1" t="s">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="G110" s="1" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="H110" s="4" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="I110" s="3">
         <v>2.7100000000000002E-3</v>
@@ -5421,10 +5421,10 @@
         <v>6.7750000000000004E-4</v>
       </c>
       <c r="L110" s="1" t="s">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="M110" s="1" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="N110" s="1">
         <v>0.21</v>
@@ -5447,13 +5447,13 @@
         <v>0.4</v>
       </c>
       <c r="F111" s="1" t="s">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="G111" s="1" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="H111" s="4" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="I111" s="3">
         <v>7.9000000000000012E-4</v>
@@ -5466,10 +5466,10 @@
         <v>1.9750000000000003E-4</v>
       </c>
       <c r="L111" s="1" t="s">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="M111" s="1" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="N111" s="1">
         <v>0.21</v>
@@ -5492,13 +5492,13 @@
         <v>0.6</v>
       </c>
       <c r="F112" s="1" t="s">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="G112" s="1" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="H112" s="4" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="I112" s="3">
         <v>1.01E-3</v>
@@ -5511,10 +5511,10 @@
         <v>2.5250000000000001E-4</v>
       </c>
       <c r="L112" s="1" t="s">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="M112" s="1" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="N112" s="1">
         <v>0.21</v>
@@ -5537,13 +5537,13 @@
         <v>0.8</v>
       </c>
       <c r="F113" s="1" t="s">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="G113" s="1" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="H113" s="4" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="I113" s="3">
         <v>1E-3</v>
@@ -5556,10 +5556,10 @@
         <v>2.5000000000000001E-4</v>
       </c>
       <c r="L113" s="1" t="s">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="M113" s="1" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="N113" s="1">
         <v>0.21</v>
@@ -5582,13 +5582,13 @@
         <v>1</v>
       </c>
       <c r="F114" s="1" t="s">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="G114" s="1" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="H114" s="4" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="I114" s="3">
         <v>6.8000000000000005E-4</v>
@@ -5601,10 +5601,10 @@
         <v>1.7000000000000001E-4</v>
       </c>
       <c r="L114" s="1" t="s">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="M114" s="1" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="N114" s="1">
         <v>0.21</v>
@@ -5627,13 +5627,13 @@
         <v>1.2</v>
       </c>
       <c r="F115" s="1" t="s">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="G115" s="1" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="H115" s="4" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="I115" s="3">
         <v>1.1800000000000001E-3</v>
@@ -5646,10 +5646,10 @@
         <v>2.9500000000000001E-4</v>
       </c>
       <c r="L115" s="1" t="s">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="M115" s="1" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="N115" s="1">
         <v>0.21</v>
@@ -5672,13 +5672,13 @@
         <v>1.4</v>
       </c>
       <c r="F116" s="1" t="s">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="G116" s="1" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="H116" s="4" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="I116" s="3">
         <v>2.6000000000000003E-4</v>
@@ -5691,10 +5691,10 @@
         <v>6.5000000000000008E-5</v>
       </c>
       <c r="L116" s="1" t="s">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="M116" s="1" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="N116" s="1">
         <v>0.21</v>
@@ -5717,13 +5717,13 @@
         <v>1.6</v>
       </c>
       <c r="F117" s="1" t="s">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="G117" s="1" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="H117" s="4" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="I117" s="3">
         <v>5.4000000000000001E-4</v>
@@ -5736,10 +5736,10 @@
         <v>1.35E-4</v>
       </c>
       <c r="L117" s="1" t="s">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="M117" s="1" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="N117" s="1">
         <v>0.21</v>
@@ -5762,13 +5762,13 @@
         <v>1.8</v>
       </c>
       <c r="F118" s="1" t="s">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="G118" s="1" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="H118" s="4" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="I118" s="3">
         <v>3.5000000000000005E-4</v>
@@ -5781,10 +5781,10 @@
         <v>8.7500000000000013E-5</v>
       </c>
       <c r="L118" s="1" t="s">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="M118" s="1" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="N118" s="1">
         <v>0.21</v>
@@ -5807,13 +5807,13 @@
         <v>2.4</v>
       </c>
       <c r="F119" s="1" t="s">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="G119" s="1" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="H119" s="4" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="I119" s="3">
         <v>2.9E-4</v>
@@ -5826,10 +5826,10 @@
         <v>7.25E-5</v>
       </c>
       <c r="L119" s="1" t="s">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="M119" s="1" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="N119" s="1">
         <v>0.21</v>

--- a/proton_qT/expdata/12882.xlsx
+++ b/proton_qT/expdata/12882.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10509"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10613"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/barryp/work/JAM/fitpack2/database/proton_qT/expdata/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B0941071-25E7-BF4E-856D-5EBC686BF7D1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BB56AAC8-3BCE-7644-BEE0-CFD61FAEE1FA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="4520" yWindow="8040" windowWidth="26840" windowHeight="8660" xr2:uid="{20CAA433-5407-F041-ACD1-8E0E90D3CEE4}"/>
+    <workbookView xWindow="1960" yWindow="460" windowWidth="26840" windowHeight="17760" xr2:uid="{20CAA433-5407-F041-ACD1-8E0E90D3CEE4}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -25,9 +25,21 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="604" uniqueCount="19">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="599" uniqueCount="19">
   <si>
     <t>E</t>
+  </si>
+  <si>
+    <t>m_min</t>
+  </si>
+  <si>
+    <t>m_max</t>
+  </si>
+  <si>
+    <t>pT_min</t>
+  </si>
+  <si>
+    <t>pT_max</t>
   </si>
   <si>
     <t>value</t>
@@ -69,19 +81,7 @@
     <t>pp</t>
   </si>
   <si>
-    <t>y</t>
-  </si>
-  <si>
-    <t>Qmin</t>
-  </si>
-  <si>
-    <t>Qmax</t>
-  </si>
-  <si>
-    <t>pTmin</t>
-  </si>
-  <si>
-    <t>pTmax</t>
+    <t>Y</t>
   </si>
 </sst>
 </file>
@@ -460,11 +460,9 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C91CFFCC-2AB3-A14D-A40A-F0A9E568B97D}">
-  <dimension ref="A1:N119"/>
+  <dimension ref="A1:N118"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B2" sqref="B2"/>
-    </sheetView>
+    <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <cols>
@@ -486,43 +484,43 @@
         <v>0</v>
       </c>
       <c r="B1" s="2" t="s">
-        <v>15</v>
+        <v>1</v>
       </c>
       <c r="C1" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="F1" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="G1" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="H1" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="I1" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="J1" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="K1" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="L1" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="M1" s="1" t="s">
         <v>16</v>
       </c>
-      <c r="D1" s="1" t="s">
-        <v>17</v>
-      </c>
-      <c r="E1" s="1" t="s">
+      <c r="N1" s="1" t="s">
         <v>18</v>
-      </c>
-      <c r="F1" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="G1" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="H1" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="I1" s="3" t="s">
-        <v>1</v>
-      </c>
-      <c r="J1" s="3" t="s">
-        <v>2</v>
-      </c>
-      <c r="K1" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="L1" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="M1" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="N1" s="1" t="s">
-        <v>14</v>
       </c>
     </row>
     <row r="2" spans="1:14" ht="17" x14ac:dyDescent="0.25">
@@ -542,13 +540,13 @@
         <v>0.2</v>
       </c>
       <c r="F2" s="1" t="s">
-        <v>7</v>
+        <v>11</v>
       </c>
       <c r="G2" s="1" t="s">
-        <v>8</v>
+        <v>12</v>
       </c>
       <c r="H2" s="4" t="s">
-        <v>11</v>
+        <v>15</v>
       </c>
       <c r="I2" s="3">
         <v>9.16</v>
@@ -561,10 +559,10 @@
         <v>2.29</v>
       </c>
       <c r="L2" s="1" t="s">
-        <v>5</v>
+        <v>9</v>
       </c>
       <c r="M2" s="1" t="s">
-        <v>13</v>
+        <v>17</v>
       </c>
       <c r="N2" s="1">
         <v>0.21</v>
@@ -587,13 +585,13 @@
         <v>0.4</v>
       </c>
       <c r="F3" s="1" t="s">
-        <v>7</v>
+        <v>11</v>
       </c>
       <c r="G3" s="1" t="s">
-        <v>8</v>
+        <v>12</v>
       </c>
       <c r="H3" s="4" t="s">
-        <v>11</v>
+        <v>15</v>
       </c>
       <c r="I3" s="3">
         <v>7.6500000000000012</v>
@@ -602,14 +600,14 @@
         <v>0.3</v>
       </c>
       <c r="K3" s="3">
-        <f t="shared" ref="K3:K66" si="0">0.25*I3</f>
+        <f t="shared" ref="K3:K65" si="0">0.25*I3</f>
         <v>1.9125000000000003</v>
       </c>
       <c r="L3" s="1" t="s">
-        <v>5</v>
+        <v>9</v>
       </c>
       <c r="M3" s="1" t="s">
-        <v>13</v>
+        <v>17</v>
       </c>
       <c r="N3" s="1">
         <v>0.21</v>
@@ -632,13 +630,13 @@
         <v>0.6</v>
       </c>
       <c r="F4" s="1" t="s">
-        <v>7</v>
+        <v>11</v>
       </c>
       <c r="G4" s="1" t="s">
-        <v>8</v>
+        <v>12</v>
       </c>
       <c r="H4" s="4" t="s">
-        <v>11</v>
+        <v>15</v>
       </c>
       <c r="I4" s="3">
         <v>6.6099999999999994</v>
@@ -651,10 +649,10 @@
         <v>1.6524999999999999</v>
       </c>
       <c r="L4" s="1" t="s">
-        <v>5</v>
+        <v>9</v>
       </c>
       <c r="M4" s="1" t="s">
-        <v>13</v>
+        <v>17</v>
       </c>
       <c r="N4" s="1">
         <v>0.21</v>
@@ -677,13 +675,13 @@
         <v>0.8</v>
       </c>
       <c r="F5" s="1" t="s">
-        <v>7</v>
+        <v>11</v>
       </c>
       <c r="G5" s="1" t="s">
-        <v>8</v>
+        <v>12</v>
       </c>
       <c r="H5" s="4" t="s">
-        <v>11</v>
+        <v>15</v>
       </c>
       <c r="I5" s="3">
         <v>5.58</v>
@@ -696,10 +694,10 @@
         <v>1.395</v>
       </c>
       <c r="L5" s="1" t="s">
-        <v>5</v>
+        <v>9</v>
       </c>
       <c r="M5" s="1" t="s">
-        <v>13</v>
+        <v>17</v>
       </c>
       <c r="N5" s="1">
         <v>0.21</v>
@@ -722,13 +720,13 @@
         <v>1</v>
       </c>
       <c r="F6" s="1" t="s">
-        <v>7</v>
+        <v>11</v>
       </c>
       <c r="G6" s="1" t="s">
-        <v>8</v>
+        <v>12</v>
       </c>
       <c r="H6" s="4" t="s">
-        <v>11</v>
+        <v>15</v>
       </c>
       <c r="I6" s="3">
         <v>3.91</v>
@@ -741,10 +739,10 @@
         <v>0.97750000000000004</v>
       </c>
       <c r="L6" s="1" t="s">
-        <v>5</v>
+        <v>9</v>
       </c>
       <c r="M6" s="1" t="s">
-        <v>13</v>
+        <v>17</v>
       </c>
       <c r="N6" s="1">
         <v>0.21</v>
@@ -767,13 +765,13 @@
         <v>1.2</v>
       </c>
       <c r="F7" s="1" t="s">
-        <v>7</v>
+        <v>11</v>
       </c>
       <c r="G7" s="1" t="s">
-        <v>8</v>
+        <v>12</v>
       </c>
       <c r="H7" s="4" t="s">
-        <v>11</v>
+        <v>15</v>
       </c>
       <c r="I7" s="3">
         <v>2.73</v>
@@ -786,10 +784,10 @@
         <v>0.6825</v>
       </c>
       <c r="L7" s="1" t="s">
-        <v>5</v>
+        <v>9</v>
       </c>
       <c r="M7" s="1" t="s">
-        <v>13</v>
+        <v>17</v>
       </c>
       <c r="N7" s="1">
         <v>0.21</v>
@@ -812,13 +810,13 @@
         <v>1.4</v>
       </c>
       <c r="F8" s="1" t="s">
-        <v>7</v>
+        <v>11</v>
       </c>
       <c r="G8" s="1" t="s">
-        <v>8</v>
+        <v>12</v>
       </c>
       <c r="H8" s="4" t="s">
-        <v>11</v>
+        <v>15</v>
       </c>
       <c r="I8" s="3">
         <v>1.85</v>
@@ -831,10 +829,10 @@
         <v>0.46250000000000002</v>
       </c>
       <c r="L8" s="1" t="s">
-        <v>5</v>
+        <v>9</v>
       </c>
       <c r="M8" s="1" t="s">
-        <v>13</v>
+        <v>17</v>
       </c>
       <c r="N8" s="1">
         <v>0.21</v>
@@ -857,13 +855,13 @@
         <v>1.6</v>
       </c>
       <c r="F9" s="1" t="s">
-        <v>7</v>
+        <v>11</v>
       </c>
       <c r="G9" s="1" t="s">
-        <v>8</v>
+        <v>12</v>
       </c>
       <c r="H9" s="4" t="s">
-        <v>11</v>
+        <v>15</v>
       </c>
       <c r="I9" s="3">
         <v>1.58</v>
@@ -876,10 +874,10 @@
         <v>0.39500000000000002</v>
       </c>
       <c r="L9" s="1" t="s">
-        <v>5</v>
+        <v>9</v>
       </c>
       <c r="M9" s="1" t="s">
-        <v>13</v>
+        <v>17</v>
       </c>
       <c r="N9" s="1">
         <v>0.21</v>
@@ -902,13 +900,13 @@
         <v>1.8</v>
       </c>
       <c r="F10" s="1" t="s">
-        <v>7</v>
+        <v>11</v>
       </c>
       <c r="G10" s="1" t="s">
-        <v>8</v>
+        <v>12</v>
       </c>
       <c r="H10" s="4" t="s">
-        <v>11</v>
+        <v>15</v>
       </c>
       <c r="I10" s="3">
         <v>0.83800000000000008</v>
@@ -921,10 +919,10 @@
         <v>0.20950000000000002</v>
       </c>
       <c r="L10" s="1" t="s">
-        <v>5</v>
+        <v>9</v>
       </c>
       <c r="M10" s="1" t="s">
-        <v>13</v>
+        <v>17</v>
       </c>
       <c r="N10" s="1">
         <v>0.21</v>
@@ -947,13 +945,13 @@
         <v>2</v>
       </c>
       <c r="F11" s="1" t="s">
-        <v>7</v>
+        <v>11</v>
       </c>
       <c r="G11" s="1" t="s">
-        <v>8</v>
+        <v>12</v>
       </c>
       <c r="H11" s="4" t="s">
-        <v>11</v>
+        <v>15</v>
       </c>
       <c r="I11" s="3">
         <v>0.503</v>
@@ -966,10 +964,10 @@
         <v>0.12575</v>
       </c>
       <c r="L11" s="1" t="s">
-        <v>5</v>
+        <v>9</v>
       </c>
       <c r="M11" s="1" t="s">
-        <v>13</v>
+        <v>17</v>
       </c>
       <c r="N11" s="1">
         <v>0.21</v>
@@ -992,13 +990,13 @@
         <v>2.2000000000000002</v>
       </c>
       <c r="F12" s="1" t="s">
-        <v>7</v>
+        <v>11</v>
       </c>
       <c r="G12" s="1" t="s">
-        <v>8</v>
+        <v>12</v>
       </c>
       <c r="H12" s="4" t="s">
-        <v>11</v>
+        <v>15</v>
       </c>
       <c r="I12" s="3">
         <v>0.39699999999999996</v>
@@ -1011,10 +1009,10 @@
         <v>9.9249999999999991E-2</v>
       </c>
       <c r="L12" s="1" t="s">
-        <v>5</v>
+        <v>9</v>
       </c>
       <c r="M12" s="1" t="s">
-        <v>13</v>
+        <v>17</v>
       </c>
       <c r="N12" s="1">
         <v>0.21</v>
@@ -1037,13 +1035,13 @@
         <v>2.4</v>
       </c>
       <c r="F13" s="1" t="s">
-        <v>7</v>
+        <v>11</v>
       </c>
       <c r="G13" s="1" t="s">
-        <v>8</v>
+        <v>12</v>
       </c>
       <c r="H13" s="4" t="s">
-        <v>11</v>
+        <v>15</v>
       </c>
       <c r="I13" s="3">
         <v>0.189</v>
@@ -1056,10 +1054,10 @@
         <v>4.725E-2</v>
       </c>
       <c r="L13" s="1" t="s">
-        <v>5</v>
+        <v>9</v>
       </c>
       <c r="M13" s="1" t="s">
-        <v>13</v>
+        <v>17</v>
       </c>
       <c r="N13" s="1">
         <v>0.21</v>
@@ -1082,13 +1080,13 @@
         <v>2.6</v>
       </c>
       <c r="F14" s="1" t="s">
-        <v>7</v>
+        <v>11</v>
       </c>
       <c r="G14" s="1" t="s">
-        <v>8</v>
+        <v>12</v>
       </c>
       <c r="H14" s="4" t="s">
-        <v>11</v>
+        <v>15</v>
       </c>
       <c r="I14" s="3">
         <v>5.8000000000000003E-2</v>
@@ -1101,10 +1099,10 @@
         <v>1.4500000000000001E-2</v>
       </c>
       <c r="L14" s="1" t="s">
-        <v>5</v>
+        <v>9</v>
       </c>
       <c r="M14" s="1" t="s">
-        <v>13</v>
+        <v>17</v>
       </c>
       <c r="N14" s="1">
         <v>0.21</v>
@@ -1127,13 +1125,13 @@
         <v>2.8</v>
       </c>
       <c r="F15" s="1" t="s">
-        <v>7</v>
+        <v>11</v>
       </c>
       <c r="G15" s="1" t="s">
-        <v>8</v>
+        <v>12</v>
       </c>
       <c r="H15" s="4" t="s">
-        <v>11</v>
+        <v>15</v>
       </c>
       <c r="I15" s="3">
         <v>0.21200000000000002</v>
@@ -1146,10 +1144,10 @@
         <v>5.3000000000000005E-2</v>
       </c>
       <c r="L15" s="1" t="s">
-        <v>5</v>
+        <v>9</v>
       </c>
       <c r="M15" s="1" t="s">
-        <v>13</v>
+        <v>17</v>
       </c>
       <c r="N15" s="1">
         <v>0.21</v>
@@ -1160,41 +1158,41 @@
         <v>300</v>
       </c>
       <c r="B16" s="2">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="C16" s="2">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="D16" s="1">
-        <v>2.8</v>
+        <v>0</v>
       </c>
       <c r="E16" s="1">
-        <v>3</v>
+        <v>0.2</v>
       </c>
       <c r="F16" s="1" t="s">
-        <v>7</v>
+        <v>11</v>
       </c>
       <c r="G16" s="1" t="s">
-        <v>8</v>
+        <v>12</v>
       </c>
       <c r="H16" s="4" t="s">
-        <v>11</v>
+        <v>15</v>
       </c>
       <c r="I16" s="3">
-        <v>-0.13900000000000001</v>
+        <v>2.57</v>
       </c>
       <c r="J16" s="3">
-        <v>0.10800000000000001</v>
+        <v>0.16</v>
       </c>
       <c r="K16" s="3">
         <f t="shared" si="0"/>
-        <v>-3.4750000000000003E-2</v>
+        <v>0.64249999999999996</v>
       </c>
       <c r="L16" s="1" t="s">
-        <v>5</v>
+        <v>9</v>
       </c>
       <c r="M16" s="1" t="s">
-        <v>13</v>
+        <v>17</v>
       </c>
       <c r="N16" s="1">
         <v>0.21</v>
@@ -1211,35 +1209,35 @@
         <v>6</v>
       </c>
       <c r="D17" s="1">
-        <v>0</v>
+        <v>0.2</v>
       </c>
       <c r="E17" s="1">
-        <v>0.2</v>
+        <v>0.4</v>
       </c>
       <c r="F17" s="1" t="s">
-        <v>7</v>
+        <v>11</v>
       </c>
       <c r="G17" s="1" t="s">
-        <v>8</v>
+        <v>12</v>
       </c>
       <c r="H17" s="4" t="s">
-        <v>11</v>
+        <v>15</v>
       </c>
       <c r="I17" s="3">
-        <v>2.57</v>
+        <v>2.3000000000000003</v>
       </c>
       <c r="J17" s="3">
-        <v>0.16</v>
+        <v>0.1</v>
       </c>
       <c r="K17" s="3">
         <f t="shared" si="0"/>
-        <v>0.64249999999999996</v>
+        <v>0.57500000000000007</v>
       </c>
       <c r="L17" s="1" t="s">
-        <v>5</v>
+        <v>9</v>
       </c>
       <c r="M17" s="1" t="s">
-        <v>13</v>
+        <v>17</v>
       </c>
       <c r="N17" s="1">
         <v>0.21</v>
@@ -1256,35 +1254,35 @@
         <v>6</v>
       </c>
       <c r="D18" s="1">
-        <v>0.2</v>
+        <v>0.4</v>
       </c>
       <c r="E18" s="1">
-        <v>0.4</v>
+        <v>0.6</v>
       </c>
       <c r="F18" s="1" t="s">
-        <v>7</v>
+        <v>11</v>
       </c>
       <c r="G18" s="1" t="s">
-        <v>8</v>
+        <v>12</v>
       </c>
       <c r="H18" s="4" t="s">
-        <v>11</v>
+        <v>15</v>
       </c>
       <c r="I18" s="3">
-        <v>2.3000000000000003</v>
+        <v>2.0700000000000003</v>
       </c>
       <c r="J18" s="3">
         <v>0.1</v>
       </c>
       <c r="K18" s="3">
         <f t="shared" si="0"/>
-        <v>0.57500000000000007</v>
+        <v>0.51750000000000007</v>
       </c>
       <c r="L18" s="1" t="s">
-        <v>5</v>
+        <v>9</v>
       </c>
       <c r="M18" s="1" t="s">
-        <v>13</v>
+        <v>17</v>
       </c>
       <c r="N18" s="1">
         <v>0.21</v>
@@ -1301,35 +1299,35 @@
         <v>6</v>
       </c>
       <c r="D19" s="1">
-        <v>0.4</v>
+        <v>0.6</v>
       </c>
       <c r="E19" s="1">
-        <v>0.6</v>
+        <v>0.8</v>
       </c>
       <c r="F19" s="1" t="s">
-        <v>7</v>
+        <v>11</v>
       </c>
       <c r="G19" s="1" t="s">
-        <v>8</v>
+        <v>12</v>
       </c>
       <c r="H19" s="4" t="s">
-        <v>11</v>
+        <v>15</v>
       </c>
       <c r="I19" s="3">
-        <v>2.0700000000000003</v>
+        <v>1.82</v>
       </c>
       <c r="J19" s="3">
-        <v>0.1</v>
+        <v>0.11</v>
       </c>
       <c r="K19" s="3">
         <f t="shared" si="0"/>
-        <v>0.51750000000000007</v>
+        <v>0.45500000000000002</v>
       </c>
       <c r="L19" s="1" t="s">
-        <v>5</v>
+        <v>9</v>
       </c>
       <c r="M19" s="1" t="s">
-        <v>13</v>
+        <v>17</v>
       </c>
       <c r="N19" s="1">
         <v>0.21</v>
@@ -1346,35 +1344,35 @@
         <v>6</v>
       </c>
       <c r="D20" s="1">
-        <v>0.6</v>
+        <v>0.8</v>
       </c>
       <c r="E20" s="1">
-        <v>0.8</v>
+        <v>1</v>
       </c>
       <c r="F20" s="1" t="s">
-        <v>7</v>
+        <v>11</v>
       </c>
       <c r="G20" s="1" t="s">
-        <v>8</v>
+        <v>12</v>
       </c>
       <c r="H20" s="4" t="s">
-        <v>11</v>
+        <v>15</v>
       </c>
       <c r="I20" s="3">
-        <v>1.82</v>
+        <v>1.1300000000000001</v>
       </c>
       <c r="J20" s="3">
-        <v>0.11</v>
+        <v>0.08</v>
       </c>
       <c r="K20" s="3">
         <f t="shared" si="0"/>
-        <v>0.45500000000000002</v>
+        <v>0.28250000000000003</v>
       </c>
       <c r="L20" s="1" t="s">
-        <v>5</v>
+        <v>9</v>
       </c>
       <c r="M20" s="1" t="s">
-        <v>13</v>
+        <v>17</v>
       </c>
       <c r="N20" s="1">
         <v>0.21</v>
@@ -1391,35 +1389,35 @@
         <v>6</v>
       </c>
       <c r="D21" s="1">
-        <v>0.8</v>
+        <v>1</v>
       </c>
       <c r="E21" s="1">
-        <v>1</v>
+        <v>1.2</v>
       </c>
       <c r="F21" s="1" t="s">
-        <v>7</v>
+        <v>11</v>
       </c>
       <c r="G21" s="1" t="s">
-        <v>8</v>
+        <v>12</v>
       </c>
       <c r="H21" s="4" t="s">
-        <v>11</v>
+        <v>15</v>
       </c>
       <c r="I21" s="3">
-        <v>1.1300000000000001</v>
+        <v>0.872</v>
       </c>
       <c r="J21" s="3">
-        <v>0.08</v>
+        <v>7.3000000000000009E-2</v>
       </c>
       <c r="K21" s="3">
         <f t="shared" si="0"/>
-        <v>0.28250000000000003</v>
+        <v>0.218</v>
       </c>
       <c r="L21" s="1" t="s">
-        <v>5</v>
+        <v>9</v>
       </c>
       <c r="M21" s="1" t="s">
-        <v>13</v>
+        <v>17</v>
       </c>
       <c r="N21" s="1">
         <v>0.21</v>
@@ -1436,35 +1434,35 @@
         <v>6</v>
       </c>
       <c r="D22" s="1">
-        <v>1</v>
+        <v>1.2</v>
       </c>
       <c r="E22" s="1">
-        <v>1.2</v>
+        <v>1.4</v>
       </c>
       <c r="F22" s="1" t="s">
-        <v>7</v>
+        <v>11</v>
       </c>
       <c r="G22" s="1" t="s">
-        <v>8</v>
+        <v>12</v>
       </c>
       <c r="H22" s="4" t="s">
-        <v>11</v>
+        <v>15</v>
       </c>
       <c r="I22" s="3">
-        <v>0.872</v>
+        <v>0.63500000000000012</v>
       </c>
       <c r="J22" s="3">
-        <v>7.3000000000000009E-2</v>
+        <v>6.0999999999999999E-2</v>
       </c>
       <c r="K22" s="3">
         <f t="shared" si="0"/>
-        <v>0.218</v>
+        <v>0.15875000000000003</v>
       </c>
       <c r="L22" s="1" t="s">
-        <v>5</v>
+        <v>9</v>
       </c>
       <c r="M22" s="1" t="s">
-        <v>13</v>
+        <v>17</v>
       </c>
       <c r="N22" s="1">
         <v>0.21</v>
@@ -1481,35 +1479,35 @@
         <v>6</v>
       </c>
       <c r="D23" s="1">
-        <v>1.2</v>
+        <v>1.4</v>
       </c>
       <c r="E23" s="1">
-        <v>1.4</v>
+        <v>1.6</v>
       </c>
       <c r="F23" s="1" t="s">
-        <v>7</v>
+        <v>11</v>
       </c>
       <c r="G23" s="1" t="s">
-        <v>8</v>
+        <v>12</v>
       </c>
       <c r="H23" s="4" t="s">
-        <v>11</v>
+        <v>15</v>
       </c>
       <c r="I23" s="3">
-        <v>0.63500000000000012</v>
+        <v>0.38400000000000006</v>
       </c>
       <c r="J23" s="3">
-        <v>6.0999999999999999E-2</v>
+        <v>4.2000000000000003E-2</v>
       </c>
       <c r="K23" s="3">
         <f t="shared" si="0"/>
-        <v>0.15875000000000003</v>
+        <v>9.6000000000000016E-2</v>
       </c>
       <c r="L23" s="1" t="s">
-        <v>5</v>
+        <v>9</v>
       </c>
       <c r="M23" s="1" t="s">
-        <v>13</v>
+        <v>17</v>
       </c>
       <c r="N23" s="1">
         <v>0.21</v>
@@ -1526,35 +1524,35 @@
         <v>6</v>
       </c>
       <c r="D24" s="1">
-        <v>1.4</v>
+        <v>1.6</v>
       </c>
       <c r="E24" s="1">
-        <v>1.6</v>
+        <v>1.8</v>
       </c>
       <c r="F24" s="1" t="s">
-        <v>7</v>
+        <v>11</v>
       </c>
       <c r="G24" s="1" t="s">
-        <v>8</v>
+        <v>12</v>
       </c>
       <c r="H24" s="4" t="s">
-        <v>11</v>
+        <v>15</v>
       </c>
       <c r="I24" s="3">
-        <v>0.38400000000000006</v>
+        <v>0.26</v>
       </c>
       <c r="J24" s="3">
-        <v>4.2000000000000003E-2</v>
+        <v>3.7999999999999999E-2</v>
       </c>
       <c r="K24" s="3">
         <f t="shared" si="0"/>
-        <v>9.6000000000000016E-2</v>
+        <v>6.5000000000000002E-2</v>
       </c>
       <c r="L24" s="1" t="s">
-        <v>5</v>
+        <v>9</v>
       </c>
       <c r="M24" s="1" t="s">
-        <v>13</v>
+        <v>17</v>
       </c>
       <c r="N24" s="1">
         <v>0.21</v>
@@ -1571,35 +1569,35 @@
         <v>6</v>
       </c>
       <c r="D25" s="1">
-        <v>1.6</v>
+        <v>1.8</v>
       </c>
       <c r="E25" s="1">
-        <v>1.8</v>
+        <v>2</v>
       </c>
       <c r="F25" s="1" t="s">
-        <v>7</v>
+        <v>11</v>
       </c>
       <c r="G25" s="1" t="s">
-        <v>8</v>
+        <v>12</v>
       </c>
       <c r="H25" s="4" t="s">
-        <v>11</v>
+        <v>15</v>
       </c>
       <c r="I25" s="3">
-        <v>0.26</v>
+        <v>0.124</v>
       </c>
       <c r="J25" s="3">
-        <v>3.7999999999999999E-2</v>
+        <v>2.5000000000000001E-2</v>
       </c>
       <c r="K25" s="3">
         <f t="shared" si="0"/>
-        <v>6.5000000000000002E-2</v>
+        <v>3.1E-2</v>
       </c>
       <c r="L25" s="1" t="s">
-        <v>5</v>
+        <v>9</v>
       </c>
       <c r="M25" s="1" t="s">
-        <v>13</v>
+        <v>17</v>
       </c>
       <c r="N25" s="1">
         <v>0.21</v>
@@ -1616,35 +1614,35 @@
         <v>6</v>
       </c>
       <c r="D26" s="1">
-        <v>1.8</v>
+        <v>2</v>
       </c>
       <c r="E26" s="1">
-        <v>2</v>
+        <v>2.2000000000000002</v>
       </c>
       <c r="F26" s="1" t="s">
-        <v>7</v>
+        <v>11</v>
       </c>
       <c r="G26" s="1" t="s">
-        <v>8</v>
+        <v>12</v>
       </c>
       <c r="H26" s="4" t="s">
-        <v>11</v>
+        <v>15</v>
       </c>
       <c r="I26" s="3">
-        <v>0.124</v>
+        <v>0.10300000000000001</v>
       </c>
       <c r="J26" s="3">
-        <v>2.5000000000000001E-2</v>
+        <v>2.2000000000000002E-2</v>
       </c>
       <c r="K26" s="3">
         <f t="shared" si="0"/>
-        <v>3.1E-2</v>
+        <v>2.5750000000000002E-2</v>
       </c>
       <c r="L26" s="1" t="s">
-        <v>5</v>
+        <v>9</v>
       </c>
       <c r="M26" s="1" t="s">
-        <v>13</v>
+        <v>17</v>
       </c>
       <c r="N26" s="1">
         <v>0.21</v>
@@ -1661,35 +1659,35 @@
         <v>6</v>
       </c>
       <c r="D27" s="1">
-        <v>2</v>
+        <v>2.2000000000000002</v>
       </c>
       <c r="E27" s="1">
-        <v>2.2000000000000002</v>
+        <v>2.4</v>
       </c>
       <c r="F27" s="1" t="s">
-        <v>7</v>
+        <v>11</v>
       </c>
       <c r="G27" s="1" t="s">
-        <v>8</v>
+        <v>12</v>
       </c>
       <c r="H27" s="4" t="s">
-        <v>11</v>
+        <v>15</v>
       </c>
       <c r="I27" s="3">
-        <v>0.10300000000000001</v>
+        <v>7.9000000000000001E-2</v>
       </c>
       <c r="J27" s="3">
-        <v>2.2000000000000002E-2</v>
+        <v>2.3E-2</v>
       </c>
       <c r="K27" s="3">
         <f t="shared" si="0"/>
-        <v>2.5750000000000002E-2</v>
+        <v>1.975E-2</v>
       </c>
       <c r="L27" s="1" t="s">
-        <v>5</v>
+        <v>9</v>
       </c>
       <c r="M27" s="1" t="s">
-        <v>13</v>
+        <v>17</v>
       </c>
       <c r="N27" s="1">
         <v>0.21</v>
@@ -1706,35 +1704,35 @@
         <v>6</v>
       </c>
       <c r="D28" s="1">
-        <v>2.2000000000000002</v>
+        <v>2.4</v>
       </c>
       <c r="E28" s="1">
-        <v>2.4</v>
+        <v>2.6</v>
       </c>
       <c r="F28" s="1" t="s">
-        <v>7</v>
+        <v>11</v>
       </c>
       <c r="G28" s="1" t="s">
-        <v>8</v>
+        <v>12</v>
       </c>
       <c r="H28" s="4" t="s">
-        <v>11</v>
+        <v>15</v>
       </c>
       <c r="I28" s="3">
-        <v>7.9000000000000001E-2</v>
+        <v>3.2000000000000001E-2</v>
       </c>
       <c r="J28" s="3">
-        <v>2.3E-2</v>
+        <v>1.3000000000000001E-2</v>
       </c>
       <c r="K28" s="3">
         <f t="shared" si="0"/>
-        <v>1.975E-2</v>
+        <v>8.0000000000000002E-3</v>
       </c>
       <c r="L28" s="1" t="s">
-        <v>5</v>
+        <v>9</v>
       </c>
       <c r="M28" s="1" t="s">
-        <v>13</v>
+        <v>17</v>
       </c>
       <c r="N28" s="1">
         <v>0.21</v>
@@ -1751,35 +1749,35 @@
         <v>6</v>
       </c>
       <c r="D29" s="1">
-        <v>2.4</v>
+        <v>2.6</v>
       </c>
       <c r="E29" s="1">
-        <v>2.6</v>
+        <v>2.8</v>
       </c>
       <c r="F29" s="1" t="s">
-        <v>7</v>
+        <v>11</v>
       </c>
       <c r="G29" s="1" t="s">
-        <v>8</v>
+        <v>12</v>
       </c>
       <c r="H29" s="4" t="s">
-        <v>11</v>
+        <v>15</v>
       </c>
       <c r="I29" s="3">
-        <v>3.2000000000000001E-2</v>
+        <v>1.4E-2</v>
       </c>
       <c r="J29" s="3">
-        <v>1.3000000000000001E-2</v>
+        <v>1.2000000000000002E-2</v>
       </c>
       <c r="K29" s="3">
         <f t="shared" si="0"/>
-        <v>8.0000000000000002E-3</v>
+        <v>3.5000000000000001E-3</v>
       </c>
       <c r="L29" s="1" t="s">
-        <v>5</v>
+        <v>9</v>
       </c>
       <c r="M29" s="1" t="s">
-        <v>13</v>
+        <v>17</v>
       </c>
       <c r="N29" s="1">
         <v>0.21</v>
@@ -1796,35 +1794,35 @@
         <v>6</v>
       </c>
       <c r="D30" s="1">
-        <v>2.6</v>
+        <v>2.8</v>
       </c>
       <c r="E30" s="1">
-        <v>2.8</v>
+        <v>3</v>
       </c>
       <c r="F30" s="1" t="s">
-        <v>7</v>
+        <v>11</v>
       </c>
       <c r="G30" s="1" t="s">
-        <v>8</v>
+        <v>12</v>
       </c>
       <c r="H30" s="4" t="s">
-        <v>11</v>
+        <v>15</v>
       </c>
       <c r="I30" s="3">
-        <v>1.4E-2</v>
+        <v>6.6E-3</v>
       </c>
       <c r="J30" s="3">
-        <v>1.2000000000000002E-2</v>
+        <v>1.15E-2</v>
       </c>
       <c r="K30" s="3">
         <f t="shared" si="0"/>
-        <v>3.5000000000000001E-3</v>
+        <v>1.65E-3</v>
       </c>
       <c r="L30" s="1" t="s">
-        <v>5</v>
+        <v>9</v>
       </c>
       <c r="M30" s="1" t="s">
-        <v>13</v>
+        <v>17</v>
       </c>
       <c r="N30" s="1">
         <v>0.21</v>
@@ -1841,35 +1839,35 @@
         <v>6</v>
       </c>
       <c r="D31" s="1">
-        <v>2.8</v>
+        <v>3</v>
       </c>
       <c r="E31" s="1">
-        <v>3</v>
+        <v>3.2</v>
       </c>
       <c r="F31" s="1" t="s">
-        <v>7</v>
+        <v>11</v>
       </c>
       <c r="G31" s="1" t="s">
-        <v>8</v>
+        <v>12</v>
       </c>
       <c r="H31" s="4" t="s">
-        <v>11</v>
+        <v>15</v>
       </c>
       <c r="I31" s="3">
-        <v>6.6E-3</v>
+        <v>5.5000000000000005E-3</v>
       </c>
       <c r="J31" s="3">
-        <v>1.15E-2</v>
+        <v>9.6000000000000009E-3</v>
       </c>
       <c r="K31" s="3">
         <f t="shared" si="0"/>
-        <v>1.65E-3</v>
+        <v>1.3750000000000001E-3</v>
       </c>
       <c r="L31" s="1" t="s">
-        <v>5</v>
+        <v>9</v>
       </c>
       <c r="M31" s="1" t="s">
-        <v>13</v>
+        <v>17</v>
       </c>
       <c r="N31" s="1">
         <v>0.21</v>
@@ -1886,35 +1884,35 @@
         <v>6</v>
       </c>
       <c r="D32" s="1">
-        <v>3</v>
+        <v>3.8</v>
       </c>
       <c r="E32" s="1">
-        <v>3.2</v>
+        <v>4</v>
       </c>
       <c r="F32" s="1" t="s">
-        <v>7</v>
+        <v>11</v>
       </c>
       <c r="G32" s="1" t="s">
-        <v>8</v>
+        <v>12</v>
       </c>
       <c r="H32" s="4" t="s">
-        <v>11</v>
+        <v>15</v>
       </c>
       <c r="I32" s="3">
-        <v>5.5000000000000005E-3</v>
+        <v>1.3299999999999999E-2</v>
       </c>
       <c r="J32" s="3">
-        <v>9.6000000000000009E-3</v>
+        <v>1.3800000000000002E-2</v>
       </c>
       <c r="K32" s="3">
         <f t="shared" si="0"/>
-        <v>1.3750000000000001E-3</v>
+        <v>3.3249999999999998E-3</v>
       </c>
       <c r="L32" s="1" t="s">
-        <v>5</v>
+        <v>9</v>
       </c>
       <c r="M32" s="1" t="s">
-        <v>13</v>
+        <v>17</v>
       </c>
       <c r="N32" s="1">
         <v>0.21</v>
@@ -1925,41 +1923,41 @@
         <v>300</v>
       </c>
       <c r="B33" s="2">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="C33" s="2">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="D33" s="1">
-        <v>3.8</v>
+        <v>0</v>
       </c>
       <c r="E33" s="1">
-        <v>4</v>
+        <v>0.2</v>
       </c>
       <c r="F33" s="1" t="s">
-        <v>7</v>
+        <v>11</v>
       </c>
       <c r="G33" s="1" t="s">
-        <v>8</v>
+        <v>12</v>
       </c>
       <c r="H33" s="4" t="s">
-        <v>11</v>
+        <v>15</v>
       </c>
       <c r="I33" s="3">
-        <v>1.3299999999999999E-2</v>
+        <v>0.84899999999999998</v>
       </c>
       <c r="J33" s="3">
-        <v>1.3800000000000002E-2</v>
+        <v>7.0000000000000007E-2</v>
       </c>
       <c r="K33" s="3">
         <f t="shared" si="0"/>
-        <v>3.3249999999999998E-3</v>
+        <v>0.21224999999999999</v>
       </c>
       <c r="L33" s="1" t="s">
-        <v>5</v>
+        <v>9</v>
       </c>
       <c r="M33" s="1" t="s">
-        <v>13</v>
+        <v>17</v>
       </c>
       <c r="N33" s="1">
         <v>0.21</v>
@@ -1976,35 +1974,35 @@
         <v>7</v>
       </c>
       <c r="D34" s="1">
-        <v>0</v>
+        <v>0.2</v>
       </c>
       <c r="E34" s="1">
-        <v>0.2</v>
+        <v>0.4</v>
       </c>
       <c r="F34" s="1" t="s">
-        <v>7</v>
+        <v>11</v>
       </c>
       <c r="G34" s="1" t="s">
-        <v>8</v>
+        <v>12</v>
       </c>
       <c r="H34" s="4" t="s">
-        <v>11</v>
+        <v>15</v>
       </c>
       <c r="I34" s="3">
-        <v>0.84899999999999998</v>
+        <v>0.78300000000000003</v>
       </c>
       <c r="J34" s="3">
-        <v>7.0000000000000007E-2</v>
+        <v>4.3000000000000003E-2</v>
       </c>
       <c r="K34" s="3">
         <f t="shared" si="0"/>
-        <v>0.21224999999999999</v>
+        <v>0.19575000000000001</v>
       </c>
       <c r="L34" s="1" t="s">
-        <v>5</v>
+        <v>9</v>
       </c>
       <c r="M34" s="1" t="s">
-        <v>13</v>
+        <v>17</v>
       </c>
       <c r="N34" s="1">
         <v>0.21</v>
@@ -2021,35 +2019,35 @@
         <v>7</v>
       </c>
       <c r="D35" s="1">
-        <v>0.2</v>
+        <v>0.4</v>
       </c>
       <c r="E35" s="1">
-        <v>0.4</v>
+        <v>0.6</v>
       </c>
       <c r="F35" s="1" t="s">
-        <v>7</v>
+        <v>11</v>
       </c>
       <c r="G35" s="1" t="s">
-        <v>8</v>
+        <v>12</v>
       </c>
       <c r="H35" s="4" t="s">
-        <v>11</v>
+        <v>15</v>
       </c>
       <c r="I35" s="3">
-        <v>0.78300000000000003</v>
+        <v>0.65500000000000003</v>
       </c>
       <c r="J35" s="3">
-        <v>4.3000000000000003E-2</v>
+        <v>3.5000000000000003E-2</v>
       </c>
       <c r="K35" s="3">
         <f t="shared" si="0"/>
-        <v>0.19575000000000001</v>
+        <v>0.16375000000000001</v>
       </c>
       <c r="L35" s="1" t="s">
-        <v>5</v>
+        <v>9</v>
       </c>
       <c r="M35" s="1" t="s">
-        <v>13</v>
+        <v>17</v>
       </c>
       <c r="N35" s="1">
         <v>0.21</v>
@@ -2066,35 +2064,35 @@
         <v>7</v>
       </c>
       <c r="D36" s="1">
-        <v>0.4</v>
+        <v>0.6</v>
       </c>
       <c r="E36" s="1">
-        <v>0.6</v>
+        <v>0.8</v>
       </c>
       <c r="F36" s="1" t="s">
-        <v>7</v>
+        <v>11</v>
       </c>
       <c r="G36" s="1" t="s">
-        <v>8</v>
+        <v>12</v>
       </c>
       <c r="H36" s="4" t="s">
-        <v>11</v>
+        <v>15</v>
       </c>
       <c r="I36" s="3">
-        <v>0.65500000000000003</v>
+        <v>0.54</v>
       </c>
       <c r="J36" s="3">
-        <v>3.5000000000000003E-2</v>
+        <v>3.3000000000000002E-2</v>
       </c>
       <c r="K36" s="3">
         <f t="shared" si="0"/>
-        <v>0.16375000000000001</v>
+        <v>0.13500000000000001</v>
       </c>
       <c r="L36" s="1" t="s">
-        <v>5</v>
+        <v>9</v>
       </c>
       <c r="M36" s="1" t="s">
-        <v>13</v>
+        <v>17</v>
       </c>
       <c r="N36" s="1">
         <v>0.21</v>
@@ -2111,35 +2109,35 @@
         <v>7</v>
       </c>
       <c r="D37" s="1">
-        <v>0.6</v>
+        <v>0.8</v>
       </c>
       <c r="E37" s="1">
-        <v>0.8</v>
+        <v>1</v>
       </c>
       <c r="F37" s="1" t="s">
-        <v>7</v>
+        <v>11</v>
       </c>
       <c r="G37" s="1" t="s">
-        <v>8</v>
+        <v>12</v>
       </c>
       <c r="H37" s="4" t="s">
-        <v>11</v>
+        <v>15</v>
       </c>
       <c r="I37" s="3">
-        <v>0.54</v>
+        <v>0.41399999999999998</v>
       </c>
       <c r="J37" s="3">
-        <v>3.3000000000000002E-2</v>
+        <v>0.03</v>
       </c>
       <c r="K37" s="3">
         <f t="shared" si="0"/>
-        <v>0.13500000000000001</v>
+        <v>0.10349999999999999</v>
       </c>
       <c r="L37" s="1" t="s">
-        <v>5</v>
+        <v>9</v>
       </c>
       <c r="M37" s="1" t="s">
-        <v>13</v>
+        <v>17</v>
       </c>
       <c r="N37" s="1">
         <v>0.21</v>
@@ -2156,35 +2154,35 @@
         <v>7</v>
       </c>
       <c r="D38" s="1">
-        <v>0.8</v>
+        <v>1</v>
       </c>
       <c r="E38" s="1">
-        <v>1</v>
+        <v>1.2</v>
       </c>
       <c r="F38" s="1" t="s">
-        <v>7</v>
+        <v>11</v>
       </c>
       <c r="G38" s="1" t="s">
-        <v>8</v>
+        <v>12</v>
       </c>
       <c r="H38" s="4" t="s">
-        <v>11</v>
+        <v>15</v>
       </c>
       <c r="I38" s="3">
-        <v>0.41399999999999998</v>
+        <v>0.28600000000000003</v>
       </c>
       <c r="J38" s="3">
-        <v>0.03</v>
+        <v>2.4000000000000004E-2</v>
       </c>
       <c r="K38" s="3">
         <f t="shared" si="0"/>
-        <v>0.10349999999999999</v>
+        <v>7.1500000000000008E-2</v>
       </c>
       <c r="L38" s="1" t="s">
-        <v>5</v>
+        <v>9</v>
       </c>
       <c r="M38" s="1" t="s">
-        <v>13</v>
+        <v>17</v>
       </c>
       <c r="N38" s="1">
         <v>0.21</v>
@@ -2201,35 +2199,35 @@
         <v>7</v>
       </c>
       <c r="D39" s="1">
-        <v>1</v>
+        <v>1.2</v>
       </c>
       <c r="E39" s="1">
-        <v>1.2</v>
+        <v>1.4</v>
       </c>
       <c r="F39" s="1" t="s">
-        <v>7</v>
+        <v>11</v>
       </c>
       <c r="G39" s="1" t="s">
-        <v>8</v>
+        <v>12</v>
       </c>
       <c r="H39" s="4" t="s">
-        <v>11</v>
+        <v>15</v>
       </c>
       <c r="I39" s="3">
-        <v>0.28600000000000003</v>
+        <v>0.187</v>
       </c>
       <c r="J39" s="3">
-        <v>2.4000000000000004E-2</v>
+        <v>1.9E-2</v>
       </c>
       <c r="K39" s="3">
         <f t="shared" si="0"/>
-        <v>7.1500000000000008E-2</v>
+        <v>4.675E-2</v>
       </c>
       <c r="L39" s="1" t="s">
-        <v>5</v>
+        <v>9</v>
       </c>
       <c r="M39" s="1" t="s">
-        <v>13</v>
+        <v>17</v>
       </c>
       <c r="N39" s="1">
         <v>0.21</v>
@@ -2246,35 +2244,35 @@
         <v>7</v>
       </c>
       <c r="D40" s="1">
-        <v>1.2</v>
+        <v>1.4</v>
       </c>
       <c r="E40" s="1">
-        <v>1.4</v>
+        <v>1.6</v>
       </c>
       <c r="F40" s="1" t="s">
-        <v>7</v>
+        <v>11</v>
       </c>
       <c r="G40" s="1" t="s">
-        <v>8</v>
+        <v>12</v>
       </c>
       <c r="H40" s="4" t="s">
-        <v>11</v>
+        <v>15</v>
       </c>
       <c r="I40" s="3">
-        <v>0.187</v>
+        <v>0.18200000000000002</v>
       </c>
       <c r="J40" s="3">
-        <v>1.9E-2</v>
+        <v>0.02</v>
       </c>
       <c r="K40" s="3">
         <f t="shared" si="0"/>
-        <v>4.675E-2</v>
+        <v>4.5500000000000006E-2</v>
       </c>
       <c r="L40" s="1" t="s">
-        <v>5</v>
+        <v>9</v>
       </c>
       <c r="M40" s="1" t="s">
-        <v>13</v>
+        <v>17</v>
       </c>
       <c r="N40" s="1">
         <v>0.21</v>
@@ -2291,35 +2289,35 @@
         <v>7</v>
       </c>
       <c r="D41" s="1">
-        <v>1.4</v>
+        <v>1.6</v>
       </c>
       <c r="E41" s="1">
-        <v>1.6</v>
+        <v>1.8</v>
       </c>
       <c r="F41" s="1" t="s">
-        <v>7</v>
+        <v>11</v>
       </c>
       <c r="G41" s="1" t="s">
-        <v>8</v>
+        <v>12</v>
       </c>
       <c r="H41" s="4" t="s">
-        <v>11</v>
+        <v>15</v>
       </c>
       <c r="I41" s="3">
-        <v>0.18200000000000002</v>
+        <v>0.11</v>
       </c>
       <c r="J41" s="3">
-        <v>0.02</v>
+        <v>1.4E-2</v>
       </c>
       <c r="K41" s="3">
         <f t="shared" si="0"/>
-        <v>4.5500000000000006E-2</v>
+        <v>2.75E-2</v>
       </c>
       <c r="L41" s="1" t="s">
-        <v>5</v>
+        <v>9</v>
       </c>
       <c r="M41" s="1" t="s">
-        <v>13</v>
+        <v>17</v>
       </c>
       <c r="N41" s="1">
         <v>0.21</v>
@@ -2336,35 +2334,35 @@
         <v>7</v>
       </c>
       <c r="D42" s="1">
-        <v>1.6</v>
+        <v>1.8</v>
       </c>
       <c r="E42" s="1">
-        <v>1.8</v>
+        <v>2</v>
       </c>
       <c r="F42" s="1" t="s">
-        <v>7</v>
+        <v>11</v>
       </c>
       <c r="G42" s="1" t="s">
-        <v>8</v>
+        <v>12</v>
       </c>
       <c r="H42" s="4" t="s">
-        <v>11</v>
+        <v>15</v>
       </c>
       <c r="I42" s="3">
-        <v>0.11</v>
+        <v>7.2000000000000008E-2</v>
       </c>
       <c r="J42" s="3">
-        <v>1.4E-2</v>
+        <v>1.3000000000000001E-2</v>
       </c>
       <c r="K42" s="3">
         <f t="shared" si="0"/>
-        <v>2.75E-2</v>
+        <v>1.8000000000000002E-2</v>
       </c>
       <c r="L42" s="1" t="s">
-        <v>5</v>
+        <v>9</v>
       </c>
       <c r="M42" s="1" t="s">
-        <v>13</v>
+        <v>17</v>
       </c>
       <c r="N42" s="1">
         <v>0.21</v>
@@ -2381,35 +2379,35 @@
         <v>7</v>
       </c>
       <c r="D43" s="1">
-        <v>1.8</v>
+        <v>2</v>
       </c>
       <c r="E43" s="1">
-        <v>2</v>
+        <v>2.2000000000000002</v>
       </c>
       <c r="F43" s="1" t="s">
-        <v>7</v>
+        <v>11</v>
       </c>
       <c r="G43" s="1" t="s">
-        <v>8</v>
+        <v>12</v>
       </c>
       <c r="H43" s="4" t="s">
-        <v>11</v>
+        <v>15</v>
       </c>
       <c r="I43" s="3">
-        <v>7.2000000000000008E-2</v>
+        <v>4.0800000000000003E-2</v>
       </c>
       <c r="J43" s="3">
-        <v>1.3000000000000001E-2</v>
+        <v>9.9000000000000008E-3</v>
       </c>
       <c r="K43" s="3">
         <f t="shared" si="0"/>
-        <v>1.8000000000000002E-2</v>
+        <v>1.0200000000000001E-2</v>
       </c>
       <c r="L43" s="1" t="s">
-        <v>5</v>
+        <v>9</v>
       </c>
       <c r="M43" s="1" t="s">
-        <v>13</v>
+        <v>17</v>
       </c>
       <c r="N43" s="1">
         <v>0.21</v>
@@ -2426,35 +2424,35 @@
         <v>7</v>
       </c>
       <c r="D44" s="1">
-        <v>2</v>
+        <v>2.2000000000000002</v>
       </c>
       <c r="E44" s="1">
-        <v>2.2000000000000002</v>
+        <v>2.4</v>
       </c>
       <c r="F44" s="1" t="s">
-        <v>7</v>
+        <v>11</v>
       </c>
       <c r="G44" s="1" t="s">
-        <v>8</v>
+        <v>12</v>
       </c>
       <c r="H44" s="4" t="s">
-        <v>11</v>
+        <v>15</v>
       </c>
       <c r="I44" s="3">
-        <v>4.0800000000000003E-2</v>
+        <v>2.1899999999999999E-2</v>
       </c>
       <c r="J44" s="3">
-        <v>9.9000000000000008E-3</v>
+        <v>6.8000000000000005E-3</v>
       </c>
       <c r="K44" s="3">
         <f t="shared" si="0"/>
-        <v>1.0200000000000001E-2</v>
+        <v>5.4749999999999998E-3</v>
       </c>
       <c r="L44" s="1" t="s">
-        <v>5</v>
+        <v>9</v>
       </c>
       <c r="M44" s="1" t="s">
-        <v>13</v>
+        <v>17</v>
       </c>
       <c r="N44" s="1">
         <v>0.21</v>
@@ -2471,35 +2469,35 @@
         <v>7</v>
       </c>
       <c r="D45" s="1">
-        <v>2.2000000000000002</v>
+        <v>2.4</v>
       </c>
       <c r="E45" s="1">
-        <v>2.4</v>
+        <v>2.6</v>
       </c>
       <c r="F45" s="1" t="s">
-        <v>7</v>
+        <v>11</v>
       </c>
       <c r="G45" s="1" t="s">
-        <v>8</v>
+        <v>12</v>
       </c>
       <c r="H45" s="4" t="s">
-        <v>11</v>
+        <v>15</v>
       </c>
       <c r="I45" s="3">
-        <v>2.1899999999999999E-2</v>
+        <v>1.9E-2</v>
       </c>
       <c r="J45" s="3">
-        <v>6.8000000000000005E-3</v>
+        <v>6.5000000000000006E-3</v>
       </c>
       <c r="K45" s="3">
         <f t="shared" si="0"/>
-        <v>5.4749999999999998E-3</v>
+        <v>4.7499999999999999E-3</v>
       </c>
       <c r="L45" s="1" t="s">
-        <v>5</v>
+        <v>9</v>
       </c>
       <c r="M45" s="1" t="s">
-        <v>13</v>
+        <v>17</v>
       </c>
       <c r="N45" s="1">
         <v>0.21</v>
@@ -2516,35 +2514,35 @@
         <v>7</v>
       </c>
       <c r="D46" s="1">
-        <v>2.4</v>
+        <v>2.6</v>
       </c>
       <c r="E46" s="1">
-        <v>2.6</v>
+        <v>2.8</v>
       </c>
       <c r="F46" s="1" t="s">
-        <v>7</v>
+        <v>11</v>
       </c>
       <c r="G46" s="1" t="s">
-        <v>8</v>
+        <v>12</v>
       </c>
       <c r="H46" s="4" t="s">
-        <v>11</v>
+        <v>15</v>
       </c>
       <c r="I46" s="3">
-        <v>1.9E-2</v>
+        <v>7.9000000000000008E-3</v>
       </c>
       <c r="J46" s="3">
-        <v>6.5000000000000006E-3</v>
+        <v>4.0000000000000001E-3</v>
       </c>
       <c r="K46" s="3">
         <f t="shared" si="0"/>
-        <v>4.7499999999999999E-3</v>
+        <v>1.9750000000000002E-3</v>
       </c>
       <c r="L46" s="1" t="s">
-        <v>5</v>
+        <v>9</v>
       </c>
       <c r="M46" s="1" t="s">
-        <v>13</v>
+        <v>17</v>
       </c>
       <c r="N46" s="1">
         <v>0.21</v>
@@ -2561,35 +2559,35 @@
         <v>7</v>
       </c>
       <c r="D47" s="1">
-        <v>2.6</v>
+        <v>2.8</v>
       </c>
       <c r="E47" s="1">
-        <v>2.8</v>
+        <v>3</v>
       </c>
       <c r="F47" s="1" t="s">
-        <v>7</v>
+        <v>11</v>
       </c>
       <c r="G47" s="1" t="s">
-        <v>8</v>
+        <v>12</v>
       </c>
       <c r="H47" s="4" t="s">
-        <v>11</v>
+        <v>15</v>
       </c>
       <c r="I47" s="3">
-        <v>7.9000000000000008E-3</v>
+        <v>1.1000000000000001E-2</v>
       </c>
       <c r="J47" s="3">
-        <v>4.0000000000000001E-3</v>
+        <v>5.0000000000000001E-3</v>
       </c>
       <c r="K47" s="3">
         <f t="shared" si="0"/>
-        <v>1.9750000000000002E-3</v>
+        <v>2.7500000000000003E-3</v>
       </c>
       <c r="L47" s="1" t="s">
-        <v>5</v>
+        <v>9</v>
       </c>
       <c r="M47" s="1" t="s">
-        <v>13</v>
+        <v>17</v>
       </c>
       <c r="N47" s="1">
         <v>0.21</v>
@@ -2606,35 +2604,35 @@
         <v>7</v>
       </c>
       <c r="D48" s="1">
-        <v>2.8</v>
+        <v>3</v>
       </c>
       <c r="E48" s="1">
-        <v>3</v>
+        <v>3.2</v>
       </c>
       <c r="F48" s="1" t="s">
-        <v>7</v>
+        <v>11</v>
       </c>
       <c r="G48" s="1" t="s">
-        <v>8</v>
+        <v>12</v>
       </c>
       <c r="H48" s="4" t="s">
-        <v>11</v>
+        <v>15</v>
       </c>
       <c r="I48" s="3">
-        <v>1.1000000000000001E-2</v>
+        <v>1.9000000000000002E-3</v>
       </c>
       <c r="J48" s="3">
-        <v>5.0000000000000001E-3</v>
+        <v>1.9000000000000002E-3</v>
       </c>
       <c r="K48" s="3">
         <f t="shared" si="0"/>
-        <v>2.7500000000000003E-3</v>
+        <v>4.7500000000000005E-4</v>
       </c>
       <c r="L48" s="1" t="s">
-        <v>5</v>
+        <v>9</v>
       </c>
       <c r="M48" s="1" t="s">
-        <v>13</v>
+        <v>17</v>
       </c>
       <c r="N48" s="1">
         <v>0.21</v>
@@ -2651,35 +2649,35 @@
         <v>7</v>
       </c>
       <c r="D49" s="1">
-        <v>3</v>
+        <v>3.2</v>
       </c>
       <c r="E49" s="1">
-        <v>3.2</v>
+        <v>3.4</v>
       </c>
       <c r="F49" s="1" t="s">
-        <v>7</v>
+        <v>11</v>
       </c>
       <c r="G49" s="1" t="s">
-        <v>8</v>
+        <v>12</v>
       </c>
       <c r="H49" s="4" t="s">
-        <v>11</v>
+        <v>15</v>
       </c>
       <c r="I49" s="3">
-        <v>1.9000000000000002E-3</v>
+        <v>2.3000000000000004E-3</v>
       </c>
       <c r="J49" s="3">
-        <v>1.9000000000000002E-3</v>
+        <v>2.3000000000000004E-3</v>
       </c>
       <c r="K49" s="3">
         <f t="shared" si="0"/>
-        <v>4.7500000000000005E-4</v>
+        <v>5.750000000000001E-4</v>
       </c>
       <c r="L49" s="1" t="s">
-        <v>5</v>
+        <v>9</v>
       </c>
       <c r="M49" s="1" t="s">
-        <v>13</v>
+        <v>17</v>
       </c>
       <c r="N49" s="1">
         <v>0.21</v>
@@ -2696,35 +2694,35 @@
         <v>7</v>
       </c>
       <c r="D50" s="1">
-        <v>3.2</v>
+        <v>3.6</v>
       </c>
       <c r="E50" s="1">
-        <v>3.4</v>
+        <v>3.8</v>
       </c>
       <c r="F50" s="1" t="s">
-        <v>7</v>
+        <v>11</v>
       </c>
       <c r="G50" s="1" t="s">
-        <v>8</v>
+        <v>12</v>
       </c>
       <c r="H50" s="4" t="s">
-        <v>11</v>
+        <v>15</v>
       </c>
       <c r="I50" s="3">
-        <v>2.3000000000000004E-3</v>
+        <v>2.8000000000000004E-3</v>
       </c>
       <c r="J50" s="3">
-        <v>2.3000000000000004E-3</v>
+        <v>2.8999999999999998E-3</v>
       </c>
       <c r="K50" s="3">
         <f t="shared" si="0"/>
-        <v>5.750000000000001E-4</v>
+        <v>7.000000000000001E-4</v>
       </c>
       <c r="L50" s="1" t="s">
-        <v>5</v>
+        <v>9</v>
       </c>
       <c r="M50" s="1" t="s">
-        <v>13</v>
+        <v>17</v>
       </c>
       <c r="N50" s="1">
         <v>0.21</v>
@@ -2735,41 +2733,41 @@
         <v>300</v>
       </c>
       <c r="B51" s="2">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="C51" s="2">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="D51" s="1">
-        <v>3.6</v>
+        <v>0</v>
       </c>
       <c r="E51" s="1">
-        <v>3.8</v>
+        <v>0.2</v>
       </c>
       <c r="F51" s="1" t="s">
-        <v>7</v>
+        <v>11</v>
       </c>
       <c r="G51" s="1" t="s">
-        <v>8</v>
+        <v>12</v>
       </c>
       <c r="H51" s="4" t="s">
-        <v>11</v>
+        <v>15</v>
       </c>
       <c r="I51" s="3">
-        <v>2.8000000000000004E-3</v>
+        <v>0.28600000000000003</v>
       </c>
       <c r="J51" s="3">
-        <v>2.8999999999999998E-3</v>
+        <v>3.9E-2</v>
       </c>
       <c r="K51" s="3">
         <f t="shared" si="0"/>
-        <v>7.000000000000001E-4</v>
+        <v>7.1500000000000008E-2</v>
       </c>
       <c r="L51" s="1" t="s">
-        <v>5</v>
+        <v>9</v>
       </c>
       <c r="M51" s="1" t="s">
-        <v>13</v>
+        <v>17</v>
       </c>
       <c r="N51" s="1">
         <v>0.21</v>
@@ -2786,35 +2784,35 @@
         <v>8</v>
       </c>
       <c r="D52" s="1">
-        <v>0</v>
+        <v>0.2</v>
       </c>
       <c r="E52" s="1">
-        <v>0.2</v>
+        <v>0.4</v>
       </c>
       <c r="F52" s="1" t="s">
-        <v>7</v>
+        <v>11</v>
       </c>
       <c r="G52" s="1" t="s">
-        <v>8</v>
+        <v>12</v>
       </c>
       <c r="H52" s="4" t="s">
-        <v>11</v>
+        <v>15</v>
       </c>
       <c r="I52" s="3">
-        <v>0.28600000000000003</v>
+        <v>0.253</v>
       </c>
       <c r="J52" s="3">
-        <v>3.9E-2</v>
+        <v>2.2000000000000002E-2</v>
       </c>
       <c r="K52" s="3">
         <f t="shared" si="0"/>
-        <v>7.1500000000000008E-2</v>
+        <v>6.3250000000000001E-2</v>
       </c>
       <c r="L52" s="1" t="s">
-        <v>5</v>
+        <v>9</v>
       </c>
       <c r="M52" s="1" t="s">
-        <v>13</v>
+        <v>17</v>
       </c>
       <c r="N52" s="1">
         <v>0.21</v>
@@ -2831,35 +2829,35 @@
         <v>8</v>
       </c>
       <c r="D53" s="1">
-        <v>0.2</v>
+        <v>0.4</v>
       </c>
       <c r="E53" s="1">
-        <v>0.4</v>
+        <v>0.6</v>
       </c>
       <c r="F53" s="1" t="s">
-        <v>7</v>
+        <v>11</v>
       </c>
       <c r="G53" s="1" t="s">
-        <v>8</v>
+        <v>12</v>
       </c>
       <c r="H53" s="4" t="s">
-        <v>11</v>
+        <v>15</v>
       </c>
       <c r="I53" s="3">
-        <v>0.253</v>
+        <v>0.23700000000000002</v>
       </c>
       <c r="J53" s="3">
-        <v>2.2000000000000002E-2</v>
+        <v>1.9E-2</v>
       </c>
       <c r="K53" s="3">
         <f t="shared" si="0"/>
-        <v>6.3250000000000001E-2</v>
+        <v>5.9250000000000004E-2</v>
       </c>
       <c r="L53" s="1" t="s">
-        <v>5</v>
+        <v>9</v>
       </c>
       <c r="M53" s="1" t="s">
-        <v>13</v>
+        <v>17</v>
       </c>
       <c r="N53" s="1">
         <v>0.21</v>
@@ -2876,35 +2874,35 @@
         <v>8</v>
       </c>
       <c r="D54" s="1">
-        <v>0.4</v>
+        <v>0.6</v>
       </c>
       <c r="E54" s="1">
-        <v>0.6</v>
+        <v>0.8</v>
       </c>
       <c r="F54" s="1" t="s">
-        <v>7</v>
+        <v>11</v>
       </c>
       <c r="G54" s="1" t="s">
-        <v>8</v>
+        <v>12</v>
       </c>
       <c r="H54" s="4" t="s">
-        <v>11</v>
+        <v>15</v>
       </c>
       <c r="I54" s="3">
-        <v>0.23700000000000002</v>
+        <v>0.19700000000000001</v>
       </c>
       <c r="J54" s="3">
-        <v>1.9E-2</v>
+        <v>1.6E-2</v>
       </c>
       <c r="K54" s="3">
         <f t="shared" si="0"/>
-        <v>5.9250000000000004E-2</v>
+        <v>4.9250000000000002E-2</v>
       </c>
       <c r="L54" s="1" t="s">
-        <v>5</v>
+        <v>9</v>
       </c>
       <c r="M54" s="1" t="s">
-        <v>13</v>
+        <v>17</v>
       </c>
       <c r="N54" s="1">
         <v>0.21</v>
@@ -2921,35 +2919,35 @@
         <v>8</v>
       </c>
       <c r="D55" s="1">
-        <v>0.6</v>
+        <v>0.8</v>
       </c>
       <c r="E55" s="1">
-        <v>0.8</v>
+        <v>1</v>
       </c>
       <c r="F55" s="1" t="s">
-        <v>7</v>
+        <v>11</v>
       </c>
       <c r="G55" s="1" t="s">
-        <v>8</v>
+        <v>12</v>
       </c>
       <c r="H55" s="4" t="s">
-        <v>11</v>
+        <v>15</v>
       </c>
       <c r="I55" s="3">
-        <v>0.19700000000000001</v>
+        <v>0.14500000000000002</v>
       </c>
       <c r="J55" s="3">
-        <v>1.6E-2</v>
+        <v>1.4E-2</v>
       </c>
       <c r="K55" s="3">
         <f t="shared" si="0"/>
-        <v>4.9250000000000002E-2</v>
+        <v>3.6250000000000004E-2</v>
       </c>
       <c r="L55" s="1" t="s">
-        <v>5</v>
+        <v>9</v>
       </c>
       <c r="M55" s="1" t="s">
-        <v>13</v>
+        <v>17</v>
       </c>
       <c r="N55" s="1">
         <v>0.21</v>
@@ -2966,35 +2964,35 @@
         <v>8</v>
       </c>
       <c r="D56" s="1">
-        <v>0.8</v>
+        <v>1</v>
       </c>
       <c r="E56" s="1">
-        <v>1</v>
+        <v>1.2</v>
       </c>
       <c r="F56" s="1" t="s">
-        <v>7</v>
+        <v>11</v>
       </c>
       <c r="G56" s="1" t="s">
-        <v>8</v>
+        <v>12</v>
       </c>
       <c r="H56" s="4" t="s">
-        <v>11</v>
+        <v>15</v>
       </c>
       <c r="I56" s="3">
-        <v>0.14500000000000002</v>
+        <v>0.11</v>
       </c>
       <c r="J56" s="3">
-        <v>1.4E-2</v>
+        <v>1.2000000000000002E-2</v>
       </c>
       <c r="K56" s="3">
         <f t="shared" si="0"/>
-        <v>3.6250000000000004E-2</v>
+        <v>2.75E-2</v>
       </c>
       <c r="L56" s="1" t="s">
-        <v>5</v>
+        <v>9</v>
       </c>
       <c r="M56" s="1" t="s">
-        <v>13</v>
+        <v>17</v>
       </c>
       <c r="N56" s="1">
         <v>0.21</v>
@@ -3011,35 +3009,35 @@
         <v>8</v>
       </c>
       <c r="D57" s="1">
-        <v>1</v>
+        <v>1.2</v>
       </c>
       <c r="E57" s="1">
-        <v>1.2</v>
+        <v>1.4</v>
       </c>
       <c r="F57" s="1" t="s">
-        <v>7</v>
+        <v>11</v>
       </c>
       <c r="G57" s="1" t="s">
-        <v>8</v>
+        <v>12</v>
       </c>
       <c r="H57" s="4" t="s">
-        <v>11</v>
+        <v>15</v>
       </c>
       <c r="I57" s="3">
-        <v>0.11</v>
+        <v>7.8100000000000003E-2</v>
       </c>
       <c r="J57" s="3">
-        <v>1.2000000000000002E-2</v>
+        <v>9.7999999999999997E-3</v>
       </c>
       <c r="K57" s="3">
         <f t="shared" si="0"/>
-        <v>2.75E-2</v>
+        <v>1.9525000000000001E-2</v>
       </c>
       <c r="L57" s="1" t="s">
-        <v>5</v>
+        <v>9</v>
       </c>
       <c r="M57" s="1" t="s">
-        <v>13</v>
+        <v>17</v>
       </c>
       <c r="N57" s="1">
         <v>0.21</v>
@@ -3056,35 +3054,35 @@
         <v>8</v>
       </c>
       <c r="D58" s="1">
-        <v>1.2</v>
+        <v>1.4</v>
       </c>
       <c r="E58" s="1">
-        <v>1.4</v>
+        <v>1.6</v>
       </c>
       <c r="F58" s="1" t="s">
-        <v>7</v>
+        <v>11</v>
       </c>
       <c r="G58" s="1" t="s">
-        <v>8</v>
+        <v>12</v>
       </c>
       <c r="H58" s="4" t="s">
-        <v>11</v>
+        <v>15</v>
       </c>
       <c r="I58" s="3">
-        <v>7.8100000000000003E-2</v>
+        <v>3.7999999999999999E-2</v>
       </c>
       <c r="J58" s="3">
-        <v>9.7999999999999997E-3</v>
+        <v>7.2000000000000007E-3</v>
       </c>
       <c r="K58" s="3">
         <f t="shared" si="0"/>
-        <v>1.9525000000000001E-2</v>
+        <v>9.4999999999999998E-3</v>
       </c>
       <c r="L58" s="1" t="s">
-        <v>5</v>
+        <v>9</v>
       </c>
       <c r="M58" s="1" t="s">
-        <v>13</v>
+        <v>17</v>
       </c>
       <c r="N58" s="1">
         <v>0.21</v>
@@ -3101,35 +3099,35 @@
         <v>8</v>
       </c>
       <c r="D59" s="1">
-        <v>1.4</v>
+        <v>1.6</v>
       </c>
       <c r="E59" s="1">
-        <v>1.6</v>
+        <v>1.8</v>
       </c>
       <c r="F59" s="1" t="s">
-        <v>7</v>
+        <v>11</v>
       </c>
       <c r="G59" s="1" t="s">
-        <v>8</v>
+        <v>12</v>
       </c>
       <c r="H59" s="4" t="s">
-        <v>11</v>
+        <v>15</v>
       </c>
       <c r="I59" s="3">
-        <v>3.7999999999999999E-2</v>
+        <v>4.6399999999999997E-2</v>
       </c>
       <c r="J59" s="3">
-        <v>7.2000000000000007E-3</v>
+        <v>8.2000000000000007E-3</v>
       </c>
       <c r="K59" s="3">
         <f t="shared" si="0"/>
-        <v>9.4999999999999998E-3</v>
+        <v>1.1599999999999999E-2</v>
       </c>
       <c r="L59" s="1" t="s">
-        <v>5</v>
+        <v>9</v>
       </c>
       <c r="M59" s="1" t="s">
-        <v>13</v>
+        <v>17</v>
       </c>
       <c r="N59" s="1">
         <v>0.21</v>
@@ -3146,35 +3144,35 @@
         <v>8</v>
       </c>
       <c r="D60" s="1">
-        <v>1.6</v>
+        <v>1.8</v>
       </c>
       <c r="E60" s="1">
-        <v>1.8</v>
+        <v>2</v>
       </c>
       <c r="F60" s="1" t="s">
-        <v>7</v>
+        <v>11</v>
       </c>
       <c r="G60" s="1" t="s">
-        <v>8</v>
+        <v>12</v>
       </c>
       <c r="H60" s="4" t="s">
-        <v>11</v>
+        <v>15</v>
       </c>
       <c r="I60" s="3">
-        <v>4.6399999999999997E-2</v>
+        <v>1.9200000000000002E-2</v>
       </c>
       <c r="J60" s="3">
-        <v>8.2000000000000007E-3</v>
+        <v>4.8999999999999998E-3</v>
       </c>
       <c r="K60" s="3">
         <f t="shared" si="0"/>
-        <v>1.1599999999999999E-2</v>
+        <v>4.8000000000000004E-3</v>
       </c>
       <c r="L60" s="1" t="s">
-        <v>5</v>
+        <v>9</v>
       </c>
       <c r="M60" s="1" t="s">
-        <v>13</v>
+        <v>17</v>
       </c>
       <c r="N60" s="1">
         <v>0.21</v>
@@ -3191,35 +3189,35 @@
         <v>8</v>
       </c>
       <c r="D61" s="1">
-        <v>1.8</v>
+        <v>2</v>
       </c>
       <c r="E61" s="1">
-        <v>2</v>
+        <v>2.2000000000000002</v>
       </c>
       <c r="F61" s="1" t="s">
-        <v>7</v>
+        <v>11</v>
       </c>
       <c r="G61" s="1" t="s">
-        <v>8</v>
+        <v>12</v>
       </c>
       <c r="H61" s="4" t="s">
-        <v>11</v>
+        <v>15</v>
       </c>
       <c r="I61" s="3">
-        <v>1.9200000000000002E-2</v>
+        <v>2.5000000000000001E-2</v>
       </c>
       <c r="J61" s="3">
-        <v>4.8999999999999998E-3</v>
+        <v>6.000000000000001E-3</v>
       </c>
       <c r="K61" s="3">
         <f t="shared" si="0"/>
-        <v>4.8000000000000004E-3</v>
+        <v>6.2500000000000003E-3</v>
       </c>
       <c r="L61" s="1" t="s">
-        <v>5</v>
+        <v>9</v>
       </c>
       <c r="M61" s="1" t="s">
-        <v>13</v>
+        <v>17</v>
       </c>
       <c r="N61" s="1">
         <v>0.21</v>
@@ -3236,35 +3234,35 @@
         <v>8</v>
       </c>
       <c r="D62" s="1">
-        <v>2</v>
+        <v>2.2000000000000002</v>
       </c>
       <c r="E62" s="1">
-        <v>2.2000000000000002</v>
+        <v>2.4</v>
       </c>
       <c r="F62" s="1" t="s">
-        <v>7</v>
+        <v>11</v>
       </c>
       <c r="G62" s="1" t="s">
-        <v>8</v>
+        <v>12</v>
       </c>
       <c r="H62" s="4" t="s">
-        <v>11</v>
+        <v>15</v>
       </c>
       <c r="I62" s="3">
-        <v>2.5000000000000001E-2</v>
+        <v>1.18E-2</v>
       </c>
       <c r="J62" s="3">
-        <v>6.000000000000001E-3</v>
+        <v>4.1000000000000003E-3</v>
       </c>
       <c r="K62" s="3">
         <f t="shared" si="0"/>
-        <v>6.2500000000000003E-3</v>
+        <v>2.9499999999999999E-3</v>
       </c>
       <c r="L62" s="1" t="s">
-        <v>5</v>
+        <v>9</v>
       </c>
       <c r="M62" s="1" t="s">
-        <v>13</v>
+        <v>17</v>
       </c>
       <c r="N62" s="1">
         <v>0.21</v>
@@ -3281,35 +3279,35 @@
         <v>8</v>
       </c>
       <c r="D63" s="1">
-        <v>2.2000000000000002</v>
+        <v>2.4</v>
       </c>
       <c r="E63" s="1">
-        <v>2.4</v>
+        <v>2.6</v>
       </c>
       <c r="F63" s="1" t="s">
-        <v>7</v>
+        <v>11</v>
       </c>
       <c r="G63" s="1" t="s">
-        <v>8</v>
+        <v>12</v>
       </c>
       <c r="H63" s="4" t="s">
-        <v>11</v>
+        <v>15</v>
       </c>
       <c r="I63" s="3">
-        <v>1.18E-2</v>
+        <v>5.1999999999999998E-3</v>
       </c>
       <c r="J63" s="3">
-        <v>4.1000000000000003E-3</v>
+        <v>2.7000000000000001E-3</v>
       </c>
       <c r="K63" s="3">
         <f t="shared" si="0"/>
-        <v>2.9499999999999999E-3</v>
+        <v>1.2999999999999999E-3</v>
       </c>
       <c r="L63" s="1" t="s">
-        <v>5</v>
+        <v>9</v>
       </c>
       <c r="M63" s="1" t="s">
-        <v>13</v>
+        <v>17</v>
       </c>
       <c r="N63" s="1">
         <v>0.21</v>
@@ -3326,35 +3324,35 @@
         <v>8</v>
       </c>
       <c r="D64" s="1">
-        <v>2.4</v>
+        <v>2.8</v>
       </c>
       <c r="E64" s="1">
-        <v>2.6</v>
+        <v>3</v>
       </c>
       <c r="F64" s="1" t="s">
-        <v>7</v>
+        <v>11</v>
       </c>
       <c r="G64" s="1" t="s">
-        <v>8</v>
+        <v>12</v>
       </c>
       <c r="H64" s="4" t="s">
-        <v>11</v>
+        <v>15</v>
       </c>
       <c r="I64" s="3">
-        <v>5.1999999999999998E-3</v>
+        <v>1.1000000000000001E-3</v>
       </c>
       <c r="J64" s="3">
-        <v>2.7000000000000001E-3</v>
+        <v>1.1000000000000001E-3</v>
       </c>
       <c r="K64" s="3">
         <f t="shared" si="0"/>
-        <v>1.2999999999999999E-3</v>
+        <v>2.7500000000000002E-4</v>
       </c>
       <c r="L64" s="1" t="s">
-        <v>5</v>
+        <v>9</v>
       </c>
       <c r="M64" s="1" t="s">
-        <v>13</v>
+        <v>17</v>
       </c>
       <c r="N64" s="1">
         <v>0.21</v>
@@ -3371,35 +3369,35 @@
         <v>8</v>
       </c>
       <c r="D65" s="1">
-        <v>2.8</v>
+        <v>3</v>
       </c>
       <c r="E65" s="1">
-        <v>3</v>
+        <v>3.2</v>
       </c>
       <c r="F65" s="1" t="s">
-        <v>7</v>
+        <v>11</v>
       </c>
       <c r="G65" s="1" t="s">
-        <v>8</v>
+        <v>12</v>
       </c>
       <c r="H65" s="4" t="s">
-        <v>11</v>
+        <v>15</v>
       </c>
       <c r="I65" s="3">
-        <v>1.1000000000000001E-3</v>
+        <v>1.2000000000000001E-3</v>
       </c>
       <c r="J65" s="3">
-        <v>1.1000000000000001E-3</v>
+        <v>1.2000000000000001E-3</v>
       </c>
       <c r="K65" s="3">
         <f t="shared" si="0"/>
-        <v>2.7500000000000002E-4</v>
+        <v>3.0000000000000003E-4</v>
       </c>
       <c r="L65" s="1" t="s">
-        <v>5</v>
+        <v>9</v>
       </c>
       <c r="M65" s="1" t="s">
-        <v>13</v>
+        <v>17</v>
       </c>
       <c r="N65" s="1">
         <v>0.21</v>
@@ -3416,35 +3414,35 @@
         <v>8</v>
       </c>
       <c r="D66" s="1">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="E66" s="1">
-        <v>3.2</v>
+        <v>4.2</v>
       </c>
       <c r="F66" s="1" t="s">
-        <v>7</v>
+        <v>11</v>
       </c>
       <c r="G66" s="1" t="s">
-        <v>8</v>
+        <v>12</v>
       </c>
       <c r="H66" s="4" t="s">
-        <v>11</v>
+        <v>15</v>
       </c>
       <c r="I66" s="3">
-        <v>1.2000000000000001E-3</v>
+        <v>1.7000000000000001E-3</v>
       </c>
       <c r="J66" s="3">
-        <v>1.2000000000000001E-3</v>
+        <v>1.7000000000000001E-3</v>
       </c>
       <c r="K66" s="3">
-        <f t="shared" si="0"/>
-        <v>3.0000000000000003E-4</v>
+        <f t="shared" ref="K66:K118" si="1">0.25*I66</f>
+        <v>4.2500000000000003E-4</v>
       </c>
       <c r="L66" s="1" t="s">
-        <v>5</v>
+        <v>9</v>
       </c>
       <c r="M66" s="1" t="s">
-        <v>13</v>
+        <v>17</v>
       </c>
       <c r="N66" s="1">
         <v>0.21</v>
@@ -3461,19 +3459,19 @@
         <v>8</v>
       </c>
       <c r="D67" s="1">
-        <v>4</v>
+        <v>4.4000000000000004</v>
       </c>
       <c r="E67" s="1">
-        <v>4.2</v>
+        <v>4.5999999999999996</v>
       </c>
       <c r="F67" s="1" t="s">
-        <v>7</v>
+        <v>11</v>
       </c>
       <c r="G67" s="1" t="s">
-        <v>8</v>
+        <v>12</v>
       </c>
       <c r="H67" s="4" t="s">
-        <v>11</v>
+        <v>15</v>
       </c>
       <c r="I67" s="3">
         <v>1.7000000000000001E-3</v>
@@ -3482,14 +3480,14 @@
         <v>1.7000000000000001E-3</v>
       </c>
       <c r="K67" s="3">
-        <f t="shared" ref="K67:K119" si="1">0.25*I67</f>
+        <f t="shared" si="1"/>
         <v>4.2500000000000003E-4</v>
       </c>
       <c r="L67" s="1" t="s">
-        <v>5</v>
+        <v>9</v>
       </c>
       <c r="M67" s="1" t="s">
-        <v>13</v>
+        <v>17</v>
       </c>
       <c r="N67" s="1">
         <v>0.21</v>
@@ -3500,41 +3498,41 @@
         <v>300</v>
       </c>
       <c r="B68" s="2">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C68" s="2">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D68" s="1">
-        <v>4.4000000000000004</v>
+        <v>0</v>
       </c>
       <c r="E68" s="1">
-        <v>4.5999999999999996</v>
+        <v>0.2</v>
       </c>
       <c r="F68" s="1" t="s">
-        <v>7</v>
+        <v>11</v>
       </c>
       <c r="G68" s="1" t="s">
-        <v>8</v>
+        <v>12</v>
       </c>
       <c r="H68" s="4" t="s">
-        <v>11</v>
+        <v>15</v>
       </c>
       <c r="I68" s="3">
-        <v>1.7000000000000001E-3</v>
+        <v>9.6000000000000016E-2</v>
       </c>
       <c r="J68" s="3">
-        <v>1.7000000000000001E-3</v>
+        <v>0.02</v>
       </c>
       <c r="K68" s="3">
         <f t="shared" si="1"/>
-        <v>4.2500000000000003E-4</v>
+        <v>2.4000000000000004E-2</v>
       </c>
       <c r="L68" s="1" t="s">
-        <v>5</v>
+        <v>9</v>
       </c>
       <c r="M68" s="1" t="s">
-        <v>13</v>
+        <v>17</v>
       </c>
       <c r="N68" s="1">
         <v>0.21</v>
@@ -3551,35 +3549,35 @@
         <v>9</v>
       </c>
       <c r="D69" s="1">
-        <v>0</v>
+        <v>0.2</v>
       </c>
       <c r="E69" s="1">
-        <v>0.2</v>
+        <v>0.4</v>
       </c>
       <c r="F69" s="1" t="s">
-        <v>7</v>
+        <v>11</v>
       </c>
       <c r="G69" s="1" t="s">
-        <v>8</v>
+        <v>12</v>
       </c>
       <c r="H69" s="4" t="s">
-        <v>11</v>
+        <v>15</v>
       </c>
       <c r="I69" s="3">
-        <v>9.6000000000000016E-2</v>
+        <v>7.0000000000000007E-2</v>
       </c>
       <c r="J69" s="3">
-        <v>0.02</v>
+        <v>1.1000000000000001E-2</v>
       </c>
       <c r="K69" s="3">
         <f t="shared" si="1"/>
-        <v>2.4000000000000004E-2</v>
+        <v>1.7500000000000002E-2</v>
       </c>
       <c r="L69" s="1" t="s">
-        <v>5</v>
+        <v>9</v>
       </c>
       <c r="M69" s="1" t="s">
-        <v>13</v>
+        <v>17</v>
       </c>
       <c r="N69" s="1">
         <v>0.21</v>
@@ -3596,35 +3594,35 @@
         <v>9</v>
       </c>
       <c r="D70" s="1">
-        <v>0.2</v>
+        <v>0.4</v>
       </c>
       <c r="E70" s="1">
-        <v>0.4</v>
+        <v>0.6</v>
       </c>
       <c r="F70" s="1" t="s">
-        <v>7</v>
+        <v>11</v>
       </c>
       <c r="G70" s="1" t="s">
-        <v>8</v>
+        <v>12</v>
       </c>
       <c r="H70" s="4" t="s">
-        <v>11</v>
+        <v>15</v>
       </c>
       <c r="I70" s="3">
         <v>7.0000000000000007E-2</v>
       </c>
       <c r="J70" s="3">
-        <v>1.1000000000000001E-2</v>
+        <v>9.0000000000000011E-3</v>
       </c>
       <c r="K70" s="3">
         <f t="shared" si="1"/>
         <v>1.7500000000000002E-2</v>
       </c>
       <c r="L70" s="1" t="s">
-        <v>5</v>
+        <v>9</v>
       </c>
       <c r="M70" s="1" t="s">
-        <v>13</v>
+        <v>17</v>
       </c>
       <c r="N70" s="1">
         <v>0.21</v>
@@ -3641,35 +3639,35 @@
         <v>9</v>
       </c>
       <c r="D71" s="1">
-        <v>0.4</v>
+        <v>0.6</v>
       </c>
       <c r="E71" s="1">
-        <v>0.6</v>
+        <v>0.8</v>
       </c>
       <c r="F71" s="1" t="s">
-        <v>7</v>
+        <v>11</v>
       </c>
       <c r="G71" s="1" t="s">
-        <v>8</v>
+        <v>12</v>
       </c>
       <c r="H71" s="4" t="s">
-        <v>11</v>
+        <v>15</v>
       </c>
       <c r="I71" s="3">
-        <v>7.0000000000000007E-2</v>
+        <v>7.3000000000000009E-2</v>
       </c>
       <c r="J71" s="3">
         <v>9.0000000000000011E-3</v>
       </c>
       <c r="K71" s="3">
         <f t="shared" si="1"/>
-        <v>1.7500000000000002E-2</v>
+        <v>1.8250000000000002E-2</v>
       </c>
       <c r="L71" s="1" t="s">
-        <v>5</v>
+        <v>9</v>
       </c>
       <c r="M71" s="1" t="s">
-        <v>13</v>
+        <v>17</v>
       </c>
       <c r="N71" s="1">
         <v>0.21</v>
@@ -3686,35 +3684,35 @@
         <v>9</v>
       </c>
       <c r="D72" s="1">
-        <v>0.6</v>
+        <v>0.8</v>
       </c>
       <c r="E72" s="1">
-        <v>0.8</v>
+        <v>1</v>
       </c>
       <c r="F72" s="1" t="s">
-        <v>7</v>
+        <v>11</v>
       </c>
       <c r="G72" s="1" t="s">
-        <v>8</v>
+        <v>12</v>
       </c>
       <c r="H72" s="4" t="s">
-        <v>11</v>
+        <v>15</v>
       </c>
       <c r="I72" s="3">
-        <v>7.3000000000000009E-2</v>
+        <v>5.3000000000000005E-2</v>
       </c>
       <c r="J72" s="3">
-        <v>9.0000000000000011E-3</v>
+        <v>7.0000000000000001E-3</v>
       </c>
       <c r="K72" s="3">
         <f t="shared" si="1"/>
-        <v>1.8250000000000002E-2</v>
+        <v>1.3250000000000001E-2</v>
       </c>
       <c r="L72" s="1" t="s">
-        <v>5</v>
+        <v>9</v>
       </c>
       <c r="M72" s="1" t="s">
-        <v>13</v>
+        <v>17</v>
       </c>
       <c r="N72" s="1">
         <v>0.21</v>
@@ -3731,35 +3729,35 @@
         <v>9</v>
       </c>
       <c r="D73" s="1">
-        <v>0.8</v>
+        <v>1</v>
       </c>
       <c r="E73" s="1">
-        <v>1</v>
+        <v>1.2</v>
       </c>
       <c r="F73" s="1" t="s">
-        <v>7</v>
+        <v>11</v>
       </c>
       <c r="G73" s="1" t="s">
-        <v>8</v>
+        <v>12</v>
       </c>
       <c r="H73" s="4" t="s">
-        <v>11</v>
+        <v>15</v>
       </c>
       <c r="I73" s="3">
-        <v>5.3000000000000005E-2</v>
+        <v>5.2000000000000005E-2</v>
       </c>
       <c r="J73" s="3">
-        <v>7.0000000000000001E-3</v>
+        <v>8.0000000000000002E-3</v>
       </c>
       <c r="K73" s="3">
         <f t="shared" si="1"/>
-        <v>1.3250000000000001E-2</v>
+        <v>1.3000000000000001E-2</v>
       </c>
       <c r="L73" s="1" t="s">
-        <v>5</v>
+        <v>9</v>
       </c>
       <c r="M73" s="1" t="s">
-        <v>13</v>
+        <v>17</v>
       </c>
       <c r="N73" s="1">
         <v>0.21</v>
@@ -3776,35 +3774,35 @@
         <v>9</v>
       </c>
       <c r="D74" s="1">
-        <v>1</v>
+        <v>1.2</v>
       </c>
       <c r="E74" s="1">
-        <v>1.2</v>
+        <v>1.4</v>
       </c>
       <c r="F74" s="1" t="s">
-        <v>7</v>
+        <v>11</v>
       </c>
       <c r="G74" s="1" t="s">
-        <v>8</v>
+        <v>12</v>
       </c>
       <c r="H74" s="4" t="s">
-        <v>11</v>
+        <v>15</v>
       </c>
       <c r="I74" s="3">
-        <v>5.2000000000000005E-2</v>
+        <v>3.2000000000000001E-2</v>
       </c>
       <c r="J74" s="3">
-        <v>8.0000000000000002E-3</v>
+        <v>6.000000000000001E-3</v>
       </c>
       <c r="K74" s="3">
         <f t="shared" si="1"/>
-        <v>1.3000000000000001E-2</v>
+        <v>8.0000000000000002E-3</v>
       </c>
       <c r="L74" s="1" t="s">
-        <v>5</v>
+        <v>9</v>
       </c>
       <c r="M74" s="1" t="s">
-        <v>13</v>
+        <v>17</v>
       </c>
       <c r="N74" s="1">
         <v>0.21</v>
@@ -3821,35 +3819,35 @@
         <v>9</v>
       </c>
       <c r="D75" s="1">
-        <v>1.2</v>
+        <v>1.4</v>
       </c>
       <c r="E75" s="1">
-        <v>1.4</v>
+        <v>1.6</v>
       </c>
       <c r="F75" s="1" t="s">
-        <v>7</v>
+        <v>11</v>
       </c>
       <c r="G75" s="1" t="s">
-        <v>8</v>
+        <v>12</v>
       </c>
       <c r="H75" s="4" t="s">
-        <v>11</v>
+        <v>15</v>
       </c>
       <c r="I75" s="3">
-        <v>3.2000000000000001E-2</v>
+        <v>1.8000000000000002E-2</v>
       </c>
       <c r="J75" s="3">
-        <v>6.000000000000001E-3</v>
+        <v>4.0000000000000001E-3</v>
       </c>
       <c r="K75" s="3">
         <f t="shared" si="1"/>
-        <v>8.0000000000000002E-3</v>
+        <v>4.5000000000000005E-3</v>
       </c>
       <c r="L75" s="1" t="s">
-        <v>5</v>
+        <v>9</v>
       </c>
       <c r="M75" s="1" t="s">
-        <v>13</v>
+        <v>17</v>
       </c>
       <c r="N75" s="1">
         <v>0.21</v>
@@ -3866,35 +3864,35 @@
         <v>9</v>
       </c>
       <c r="D76" s="1">
-        <v>1.4</v>
+        <v>1.6</v>
       </c>
       <c r="E76" s="1">
-        <v>1.6</v>
+        <v>1.8</v>
       </c>
       <c r="F76" s="1" t="s">
-        <v>7</v>
+        <v>11</v>
       </c>
       <c r="G76" s="1" t="s">
-        <v>8</v>
+        <v>12</v>
       </c>
       <c r="H76" s="4" t="s">
-        <v>11</v>
+        <v>15</v>
       </c>
       <c r="I76" s="3">
-        <v>1.8000000000000002E-2</v>
+        <v>1.0200000000000001E-2</v>
       </c>
       <c r="J76" s="3">
-        <v>4.0000000000000001E-3</v>
+        <v>3.4000000000000002E-3</v>
       </c>
       <c r="K76" s="3">
         <f t="shared" si="1"/>
-        <v>4.5000000000000005E-3</v>
+        <v>2.5500000000000002E-3</v>
       </c>
       <c r="L76" s="1" t="s">
-        <v>5</v>
+        <v>9</v>
       </c>
       <c r="M76" s="1" t="s">
-        <v>13</v>
+        <v>17</v>
       </c>
       <c r="N76" s="1">
         <v>0.21</v>
@@ -3911,35 +3909,35 @@
         <v>9</v>
       </c>
       <c r="D77" s="1">
-        <v>1.6</v>
+        <v>1.8</v>
       </c>
       <c r="E77" s="1">
-        <v>1.8</v>
+        <v>2</v>
       </c>
       <c r="F77" s="1" t="s">
-        <v>7</v>
+        <v>11</v>
       </c>
       <c r="G77" s="1" t="s">
-        <v>8</v>
+        <v>12</v>
       </c>
       <c r="H77" s="4" t="s">
-        <v>11</v>
+        <v>15</v>
       </c>
       <c r="I77" s="3">
-        <v>1.0200000000000001E-2</v>
+        <v>2.3000000000000004E-3</v>
       </c>
       <c r="J77" s="3">
-        <v>3.4000000000000002E-3</v>
+        <v>1.2999999999999999E-3</v>
       </c>
       <c r="K77" s="3">
         <f t="shared" si="1"/>
-        <v>2.5500000000000002E-3</v>
+        <v>5.750000000000001E-4</v>
       </c>
       <c r="L77" s="1" t="s">
-        <v>5</v>
+        <v>9</v>
       </c>
       <c r="M77" s="1" t="s">
-        <v>13</v>
+        <v>17</v>
       </c>
       <c r="N77" s="1">
         <v>0.21</v>
@@ -3956,35 +3954,35 @@
         <v>9</v>
       </c>
       <c r="D78" s="1">
-        <v>1.8</v>
+        <v>2</v>
       </c>
       <c r="E78" s="1">
-        <v>2</v>
+        <v>2.2000000000000002</v>
       </c>
       <c r="F78" s="1" t="s">
-        <v>7</v>
+        <v>11</v>
       </c>
       <c r="G78" s="1" t="s">
-        <v>8</v>
+        <v>12</v>
       </c>
       <c r="H78" s="4" t="s">
-        <v>11</v>
+        <v>15</v>
       </c>
       <c r="I78" s="3">
-        <v>2.3000000000000004E-3</v>
+        <v>7.0000000000000001E-3</v>
       </c>
       <c r="J78" s="3">
-        <v>1.2999999999999999E-3</v>
+        <v>3.0000000000000005E-3</v>
       </c>
       <c r="K78" s="3">
         <f t="shared" si="1"/>
-        <v>5.750000000000001E-4</v>
+        <v>1.75E-3</v>
       </c>
       <c r="L78" s="1" t="s">
-        <v>5</v>
+        <v>9</v>
       </c>
       <c r="M78" s="1" t="s">
-        <v>13</v>
+        <v>17</v>
       </c>
       <c r="N78" s="1">
         <v>0.21</v>
@@ -4001,35 +3999,35 @@
         <v>9</v>
       </c>
       <c r="D79" s="1">
-        <v>2</v>
+        <v>2.2000000000000002</v>
       </c>
       <c r="E79" s="1">
-        <v>2.2000000000000002</v>
+        <v>2.4</v>
       </c>
       <c r="F79" s="1" t="s">
-        <v>7</v>
+        <v>11</v>
       </c>
       <c r="G79" s="1" t="s">
-        <v>8</v>
+        <v>12</v>
       </c>
       <c r="H79" s="4" t="s">
-        <v>11</v>
+        <v>15</v>
       </c>
       <c r="I79" s="3">
-        <v>7.0000000000000001E-3</v>
+        <v>1.5999999999999999E-3</v>
       </c>
       <c r="J79" s="3">
-        <v>3.0000000000000005E-3</v>
+        <v>1.2000000000000001E-3</v>
       </c>
       <c r="K79" s="3">
         <f t="shared" si="1"/>
-        <v>1.75E-3</v>
+        <v>3.9999999999999996E-4</v>
       </c>
       <c r="L79" s="1" t="s">
-        <v>5</v>
+        <v>9</v>
       </c>
       <c r="M79" s="1" t="s">
-        <v>13</v>
+        <v>17</v>
       </c>
       <c r="N79" s="1">
         <v>0.21</v>
@@ -4046,35 +4044,35 @@
         <v>9</v>
       </c>
       <c r="D80" s="1">
-        <v>2.2000000000000002</v>
+        <v>2.4</v>
       </c>
       <c r="E80" s="1">
-        <v>2.4</v>
+        <v>2.6</v>
       </c>
       <c r="F80" s="1" t="s">
-        <v>7</v>
+        <v>11</v>
       </c>
       <c r="G80" s="1" t="s">
-        <v>8</v>
+        <v>12</v>
       </c>
       <c r="H80" s="4" t="s">
-        <v>11</v>
+        <v>15</v>
       </c>
       <c r="I80" s="3">
-        <v>1.5999999999999999E-3</v>
+        <v>8.8000000000000003E-4</v>
       </c>
       <c r="J80" s="3">
-        <v>1.2000000000000001E-3</v>
+        <v>8.8999999999999995E-4</v>
       </c>
       <c r="K80" s="3">
         <f t="shared" si="1"/>
-        <v>3.9999999999999996E-4</v>
+        <v>2.2000000000000001E-4</v>
       </c>
       <c r="L80" s="1" t="s">
-        <v>5</v>
+        <v>9</v>
       </c>
       <c r="M80" s="1" t="s">
-        <v>13</v>
+        <v>17</v>
       </c>
       <c r="N80" s="1">
         <v>0.21</v>
@@ -4091,35 +4089,35 @@
         <v>9</v>
       </c>
       <c r="D81" s="1">
-        <v>2.4</v>
+        <v>3</v>
       </c>
       <c r="E81" s="1">
-        <v>2.6</v>
+        <v>3.2</v>
       </c>
       <c r="F81" s="1" t="s">
-        <v>7</v>
+        <v>11</v>
       </c>
       <c r="G81" s="1" t="s">
-        <v>8</v>
+        <v>12</v>
       </c>
       <c r="H81" s="4" t="s">
-        <v>11</v>
+        <v>15</v>
       </c>
       <c r="I81" s="3">
-        <v>8.8000000000000003E-4</v>
+        <v>1E-3</v>
       </c>
       <c r="J81" s="3">
-        <v>8.8999999999999995E-4</v>
+        <v>1E-3</v>
       </c>
       <c r="K81" s="3">
         <f t="shared" si="1"/>
-        <v>2.2000000000000001E-4</v>
+        <v>2.5000000000000001E-4</v>
       </c>
       <c r="L81" s="1" t="s">
-        <v>5</v>
+        <v>9</v>
       </c>
       <c r="M81" s="1" t="s">
-        <v>13</v>
+        <v>17</v>
       </c>
       <c r="N81" s="1">
         <v>0.21</v>
@@ -4130,41 +4128,41 @@
         <v>300</v>
       </c>
       <c r="B82" s="2">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C82" s="2">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D82" s="1">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="E82" s="1">
-        <v>3.2</v>
+        <v>0.2</v>
       </c>
       <c r="F82" s="1" t="s">
-        <v>7</v>
+        <v>11</v>
       </c>
       <c r="G82" s="1" t="s">
-        <v>8</v>
+        <v>12</v>
       </c>
       <c r="H82" s="4" t="s">
-        <v>11</v>
+        <v>15</v>
       </c>
       <c r="I82" s="3">
-        <v>1E-3</v>
+        <v>9.1000000000000011E-2</v>
       </c>
       <c r="J82" s="3">
-        <v>1E-3</v>
+        <v>2.1000000000000001E-2</v>
       </c>
       <c r="K82" s="3">
         <f t="shared" si="1"/>
-        <v>2.5000000000000001E-4</v>
+        <v>2.2750000000000003E-2</v>
       </c>
       <c r="L82" s="1" t="s">
-        <v>5</v>
+        <v>9</v>
       </c>
       <c r="M82" s="1" t="s">
-        <v>13</v>
+        <v>17</v>
       </c>
       <c r="N82" s="1">
         <v>0.21</v>
@@ -4181,35 +4179,35 @@
         <v>10</v>
       </c>
       <c r="D83" s="1">
-        <v>0</v>
+        <v>0.2</v>
       </c>
       <c r="E83" s="1">
-        <v>0.2</v>
+        <v>0.4</v>
       </c>
       <c r="F83" s="1" t="s">
-        <v>7</v>
+        <v>11</v>
       </c>
       <c r="G83" s="1" t="s">
-        <v>8</v>
+        <v>12</v>
       </c>
       <c r="H83" s="4" t="s">
-        <v>11</v>
+        <v>15</v>
       </c>
       <c r="I83" s="3">
-        <v>9.1000000000000011E-2</v>
+        <v>6.6000000000000003E-2</v>
       </c>
       <c r="J83" s="3">
-        <v>2.1000000000000001E-2</v>
+        <v>0.01</v>
       </c>
       <c r="K83" s="3">
         <f t="shared" si="1"/>
-        <v>2.2750000000000003E-2</v>
+        <v>1.6500000000000001E-2</v>
       </c>
       <c r="L83" s="1" t="s">
-        <v>5</v>
+        <v>9</v>
       </c>
       <c r="M83" s="1" t="s">
-        <v>13</v>
+        <v>17</v>
       </c>
       <c r="N83" s="1">
         <v>0.21</v>
@@ -4226,35 +4224,35 @@
         <v>10</v>
       </c>
       <c r="D84" s="1">
-        <v>0.2</v>
+        <v>0.4</v>
       </c>
       <c r="E84" s="1">
-        <v>0.4</v>
+        <v>0.6</v>
       </c>
       <c r="F84" s="1" t="s">
-        <v>7</v>
+        <v>11</v>
       </c>
       <c r="G84" s="1" t="s">
-        <v>8</v>
+        <v>12</v>
       </c>
       <c r="H84" s="4" t="s">
-        <v>11</v>
+        <v>15</v>
       </c>
       <c r="I84" s="3">
         <v>6.6000000000000003E-2</v>
       </c>
       <c r="J84" s="3">
-        <v>0.01</v>
+        <v>8.0000000000000002E-3</v>
       </c>
       <c r="K84" s="3">
         <f t="shared" si="1"/>
         <v>1.6500000000000001E-2</v>
       </c>
       <c r="L84" s="1" t="s">
-        <v>5</v>
+        <v>9</v>
       </c>
       <c r="M84" s="1" t="s">
-        <v>13</v>
+        <v>17</v>
       </c>
       <c r="N84" s="1">
         <v>0.21</v>
@@ -4271,35 +4269,35 @@
         <v>10</v>
       </c>
       <c r="D85" s="1">
-        <v>0.4</v>
+        <v>0.6</v>
       </c>
       <c r="E85" s="1">
-        <v>0.6</v>
+        <v>0.8</v>
       </c>
       <c r="F85" s="1" t="s">
-        <v>7</v>
+        <v>11</v>
       </c>
       <c r="G85" s="1" t="s">
-        <v>8</v>
+        <v>12</v>
       </c>
       <c r="H85" s="4" t="s">
-        <v>11</v>
+        <v>15</v>
       </c>
       <c r="I85" s="3">
-        <v>6.6000000000000003E-2</v>
+        <v>6.9000000000000006E-2</v>
       </c>
       <c r="J85" s="3">
-        <v>8.0000000000000002E-3</v>
+        <v>9.0000000000000011E-3</v>
       </c>
       <c r="K85" s="3">
         <f t="shared" si="1"/>
-        <v>1.6500000000000001E-2</v>
+        <v>1.7250000000000001E-2</v>
       </c>
       <c r="L85" s="1" t="s">
-        <v>5</v>
+        <v>9</v>
       </c>
       <c r="M85" s="1" t="s">
-        <v>13</v>
+        <v>17</v>
       </c>
       <c r="N85" s="1">
         <v>0.21</v>
@@ -4316,35 +4314,35 @@
         <v>10</v>
       </c>
       <c r="D86" s="1">
-        <v>0.6</v>
+        <v>0.8</v>
       </c>
       <c r="E86" s="1">
-        <v>0.8</v>
+        <v>1</v>
       </c>
       <c r="F86" s="1" t="s">
-        <v>7</v>
+        <v>11</v>
       </c>
       <c r="G86" s="1" t="s">
-        <v>8</v>
+        <v>12</v>
       </c>
       <c r="H86" s="4" t="s">
-        <v>11</v>
+        <v>15</v>
       </c>
       <c r="I86" s="3">
-        <v>6.9000000000000006E-2</v>
+        <v>0.05</v>
       </c>
       <c r="J86" s="3">
-        <v>9.0000000000000011E-3</v>
+        <v>7.0000000000000001E-3</v>
       </c>
       <c r="K86" s="3">
         <f t="shared" si="1"/>
-        <v>1.7250000000000001E-2</v>
+        <v>1.2500000000000001E-2</v>
       </c>
       <c r="L86" s="1" t="s">
-        <v>5</v>
+        <v>9</v>
       </c>
       <c r="M86" s="1" t="s">
-        <v>13</v>
+        <v>17</v>
       </c>
       <c r="N86" s="1">
         <v>0.21</v>
@@ -4361,35 +4359,35 @@
         <v>10</v>
       </c>
       <c r="D87" s="1">
-        <v>0.8</v>
+        <v>1</v>
       </c>
       <c r="E87" s="1">
-        <v>1</v>
+        <v>1.2</v>
       </c>
       <c r="F87" s="1" t="s">
-        <v>7</v>
+        <v>11</v>
       </c>
       <c r="G87" s="1" t="s">
-        <v>8</v>
+        <v>12</v>
       </c>
       <c r="H87" s="4" t="s">
-        <v>11</v>
+        <v>15</v>
       </c>
       <c r="I87" s="3">
         <v>0.05</v>
       </c>
       <c r="J87" s="3">
-        <v>7.0000000000000001E-3</v>
+        <v>7.7000000000000002E-3</v>
       </c>
       <c r="K87" s="3">
         <f t="shared" si="1"/>
         <v>1.2500000000000001E-2</v>
       </c>
       <c r="L87" s="1" t="s">
-        <v>5</v>
+        <v>9</v>
       </c>
       <c r="M87" s="1" t="s">
-        <v>13</v>
+        <v>17</v>
       </c>
       <c r="N87" s="1">
         <v>0.21</v>
@@ -4406,35 +4404,35 @@
         <v>10</v>
       </c>
       <c r="D88" s="1">
-        <v>1</v>
+        <v>1.2</v>
       </c>
       <c r="E88" s="1">
-        <v>1.2</v>
+        <v>1.4</v>
       </c>
       <c r="F88" s="1" t="s">
-        <v>7</v>
+        <v>11</v>
       </c>
       <c r="G88" s="1" t="s">
-        <v>8</v>
+        <v>12</v>
       </c>
       <c r="H88" s="4" t="s">
-        <v>11</v>
+        <v>15</v>
       </c>
       <c r="I88" s="3">
-        <v>0.05</v>
+        <v>0.03</v>
       </c>
       <c r="J88" s="3">
-        <v>7.7000000000000002E-3</v>
+        <v>5.6000000000000008E-3</v>
       </c>
       <c r="K88" s="3">
         <f t="shared" si="1"/>
-        <v>1.2500000000000001E-2</v>
+        <v>7.4999999999999997E-3</v>
       </c>
       <c r="L88" s="1" t="s">
-        <v>5</v>
+        <v>9</v>
       </c>
       <c r="M88" s="1" t="s">
-        <v>13</v>
+        <v>17</v>
       </c>
       <c r="N88" s="1">
         <v>0.21</v>
@@ -4451,35 +4449,35 @@
         <v>10</v>
       </c>
       <c r="D89" s="1">
-        <v>1.2</v>
+        <v>1.4</v>
       </c>
       <c r="E89" s="1">
-        <v>1.4</v>
+        <v>1.6</v>
       </c>
       <c r="F89" s="1" t="s">
-        <v>7</v>
+        <v>11</v>
       </c>
       <c r="G89" s="1" t="s">
-        <v>8</v>
+        <v>12</v>
       </c>
       <c r="H89" s="4" t="s">
-        <v>11</v>
+        <v>15</v>
       </c>
       <c r="I89" s="3">
-        <v>0.03</v>
+        <v>1.66E-2</v>
       </c>
       <c r="J89" s="3">
-        <v>5.6000000000000008E-3</v>
+        <v>4.0000000000000001E-3</v>
       </c>
       <c r="K89" s="3">
         <f t="shared" si="1"/>
-        <v>7.4999999999999997E-3</v>
+        <v>4.15E-3</v>
       </c>
       <c r="L89" s="1" t="s">
-        <v>5</v>
+        <v>9</v>
       </c>
       <c r="M89" s="1" t="s">
-        <v>13</v>
+        <v>17</v>
       </c>
       <c r="N89" s="1">
         <v>0.21</v>
@@ -4496,35 +4494,35 @@
         <v>10</v>
       </c>
       <c r="D90" s="1">
-        <v>1.4</v>
+        <v>1.6</v>
       </c>
       <c r="E90" s="1">
-        <v>1.6</v>
+        <v>1.8</v>
       </c>
       <c r="F90" s="1" t="s">
-        <v>7</v>
+        <v>11</v>
       </c>
       <c r="G90" s="1" t="s">
-        <v>8</v>
+        <v>12</v>
       </c>
       <c r="H90" s="4" t="s">
-        <v>11</v>
+        <v>15</v>
       </c>
       <c r="I90" s="3">
-        <v>1.66E-2</v>
+        <v>9.7000000000000003E-3</v>
       </c>
       <c r="J90" s="3">
-        <v>4.0000000000000001E-3</v>
+        <v>3.3E-3</v>
       </c>
       <c r="K90" s="3">
         <f t="shared" si="1"/>
-        <v>4.15E-3</v>
+        <v>2.4250000000000001E-3</v>
       </c>
       <c r="L90" s="1" t="s">
-        <v>5</v>
+        <v>9</v>
       </c>
       <c r="M90" s="1" t="s">
-        <v>13</v>
+        <v>17</v>
       </c>
       <c r="N90" s="1">
         <v>0.21</v>
@@ -4541,35 +4539,35 @@
         <v>10</v>
       </c>
       <c r="D91" s="1">
-        <v>1.6</v>
+        <v>1.8</v>
       </c>
       <c r="E91" s="1">
-        <v>1.8</v>
+        <v>2</v>
       </c>
       <c r="F91" s="1" t="s">
-        <v>7</v>
+        <v>11</v>
       </c>
       <c r="G91" s="1" t="s">
-        <v>8</v>
+        <v>12</v>
       </c>
       <c r="H91" s="4" t="s">
-        <v>11</v>
+        <v>15</v>
       </c>
       <c r="I91" s="3">
-        <v>9.7000000000000003E-3</v>
+        <v>2.2000000000000001E-3</v>
       </c>
       <c r="J91" s="3">
-        <v>3.3E-3</v>
+        <v>1.2999999999999999E-3</v>
       </c>
       <c r="K91" s="3">
         <f t="shared" si="1"/>
-        <v>2.4250000000000001E-3</v>
+        <v>5.5000000000000003E-4</v>
       </c>
       <c r="L91" s="1" t="s">
-        <v>5</v>
+        <v>9</v>
       </c>
       <c r="M91" s="1" t="s">
-        <v>13</v>
+        <v>17</v>
       </c>
       <c r="N91" s="1">
         <v>0.21</v>
@@ -4586,35 +4584,35 @@
         <v>10</v>
       </c>
       <c r="D92" s="1">
-        <v>1.8</v>
+        <v>2</v>
       </c>
       <c r="E92" s="1">
-        <v>2</v>
+        <v>2.2000000000000002</v>
       </c>
       <c r="F92" s="1" t="s">
-        <v>7</v>
+        <v>11</v>
       </c>
       <c r="G92" s="1" t="s">
-        <v>8</v>
+        <v>12</v>
       </c>
       <c r="H92" s="4" t="s">
-        <v>11</v>
+        <v>15</v>
       </c>
       <c r="I92" s="3">
-        <v>2.2000000000000001E-3</v>
+        <v>6.7000000000000011E-3</v>
       </c>
       <c r="J92" s="3">
-        <v>1.2999999999999999E-3</v>
+        <v>2.8999999999999998E-3</v>
       </c>
       <c r="K92" s="3">
         <f t="shared" si="1"/>
-        <v>5.5000000000000003E-4</v>
+        <v>1.6750000000000003E-3</v>
       </c>
       <c r="L92" s="1" t="s">
-        <v>5</v>
+        <v>9</v>
       </c>
       <c r="M92" s="1" t="s">
-        <v>13</v>
+        <v>17</v>
       </c>
       <c r="N92" s="1">
         <v>0.21</v>
@@ -4631,35 +4629,35 @@
         <v>10</v>
       </c>
       <c r="D93" s="1">
-        <v>2</v>
+        <v>2.2000000000000002</v>
       </c>
       <c r="E93" s="1">
-        <v>2.2000000000000002</v>
+        <v>2.4</v>
       </c>
       <c r="F93" s="1" t="s">
-        <v>7</v>
+        <v>11</v>
       </c>
       <c r="G93" s="1" t="s">
-        <v>8</v>
+        <v>12</v>
       </c>
       <c r="H93" s="4" t="s">
-        <v>11</v>
+        <v>15</v>
       </c>
       <c r="I93" s="3">
-        <v>6.7000000000000011E-3</v>
+        <v>1.5499999999999999E-3</v>
       </c>
       <c r="J93" s="3">
-        <v>2.8999999999999998E-3</v>
+        <v>1.1200000000000001E-3</v>
       </c>
       <c r="K93" s="3">
         <f t="shared" si="1"/>
-        <v>1.6750000000000003E-3</v>
+        <v>3.8749999999999999E-4</v>
       </c>
       <c r="L93" s="1" t="s">
-        <v>5</v>
+        <v>9</v>
       </c>
       <c r="M93" s="1" t="s">
-        <v>13</v>
+        <v>17</v>
       </c>
       <c r="N93" s="1">
         <v>0.21</v>
@@ -4676,35 +4674,35 @@
         <v>10</v>
       </c>
       <c r="D94" s="1">
-        <v>2.2000000000000002</v>
+        <v>2.4</v>
       </c>
       <c r="E94" s="1">
-        <v>2.4</v>
+        <v>2.6</v>
       </c>
       <c r="F94" s="1" t="s">
-        <v>7</v>
+        <v>11</v>
       </c>
       <c r="G94" s="1" t="s">
-        <v>8</v>
+        <v>12</v>
       </c>
       <c r="H94" s="4" t="s">
-        <v>11</v>
+        <v>15</v>
       </c>
       <c r="I94" s="3">
-        <v>1.5499999999999999E-3</v>
+        <v>8.4000000000000014E-4</v>
       </c>
       <c r="J94" s="3">
-        <v>1.1200000000000001E-3</v>
+        <v>8.4000000000000014E-4</v>
       </c>
       <c r="K94" s="3">
         <f t="shared" si="1"/>
-        <v>3.8749999999999999E-4</v>
+        <v>2.1000000000000004E-4</v>
       </c>
       <c r="L94" s="1" t="s">
-        <v>5</v>
+        <v>9</v>
       </c>
       <c r="M94" s="1" t="s">
-        <v>13</v>
+        <v>17</v>
       </c>
       <c r="N94" s="1">
         <v>0.21</v>
@@ -4721,35 +4719,35 @@
         <v>10</v>
       </c>
       <c r="D95" s="1">
-        <v>2.4</v>
+        <v>3</v>
       </c>
       <c r="E95" s="1">
-        <v>2.6</v>
+        <v>3.2</v>
       </c>
       <c r="F95" s="1" t="s">
-        <v>7</v>
+        <v>11</v>
       </c>
       <c r="G95" s="1" t="s">
-        <v>8</v>
+        <v>12</v>
       </c>
       <c r="H95" s="4" t="s">
-        <v>11</v>
+        <v>15</v>
       </c>
       <c r="I95" s="3">
-        <v>8.4000000000000014E-4</v>
+        <v>9.6000000000000002E-4</v>
       </c>
       <c r="J95" s="3">
-        <v>8.4000000000000014E-4</v>
+        <v>9.7999999999999997E-4</v>
       </c>
       <c r="K95" s="3">
         <f t="shared" si="1"/>
-        <v>2.1000000000000004E-4</v>
+        <v>2.4000000000000001E-4</v>
       </c>
       <c r="L95" s="1" t="s">
-        <v>5</v>
+        <v>9</v>
       </c>
       <c r="M95" s="1" t="s">
-        <v>13</v>
+        <v>17</v>
       </c>
       <c r="N95" s="1">
         <v>0.21</v>
@@ -4760,41 +4758,41 @@
         <v>300</v>
       </c>
       <c r="B96" s="2">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="C96" s="2">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="D96" s="1">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="E96" s="1">
-        <v>3.2</v>
+        <v>0.2</v>
       </c>
       <c r="F96" s="1" t="s">
-        <v>7</v>
+        <v>11</v>
       </c>
       <c r="G96" s="1" t="s">
-        <v>8</v>
+        <v>12</v>
       </c>
       <c r="H96" s="4" t="s">
-        <v>11</v>
+        <v>15</v>
       </c>
       <c r="I96" s="3">
-        <v>9.6000000000000002E-4</v>
+        <v>1.8700000000000001E-2</v>
       </c>
       <c r="J96" s="3">
-        <v>9.7999999999999997E-4</v>
+        <v>7.2000000000000007E-3</v>
       </c>
       <c r="K96" s="3">
         <f t="shared" si="1"/>
-        <v>2.4000000000000001E-4</v>
+        <v>4.6750000000000003E-3</v>
       </c>
       <c r="L96" s="1" t="s">
-        <v>5</v>
+        <v>9</v>
       </c>
       <c r="M96" s="1" t="s">
-        <v>13</v>
+        <v>17</v>
       </c>
       <c r="N96" s="1">
         <v>0.21</v>
@@ -4811,35 +4809,35 @@
         <v>11</v>
       </c>
       <c r="D97" s="1">
-        <v>0</v>
+        <v>0.2</v>
       </c>
       <c r="E97" s="1">
-        <v>0.2</v>
+        <v>0.4</v>
       </c>
       <c r="F97" s="1" t="s">
-        <v>7</v>
+        <v>11</v>
       </c>
       <c r="G97" s="1" t="s">
-        <v>8</v>
+        <v>12</v>
       </c>
       <c r="H97" s="4" t="s">
-        <v>11</v>
+        <v>15</v>
       </c>
       <c r="I97" s="3">
-        <v>1.8700000000000001E-2</v>
+        <v>1.66E-2</v>
       </c>
       <c r="J97" s="3">
-        <v>7.2000000000000007E-3</v>
+        <v>4.0000000000000001E-3</v>
       </c>
       <c r="K97" s="3">
         <f t="shared" si="1"/>
-        <v>4.6750000000000003E-3</v>
+        <v>4.15E-3</v>
       </c>
       <c r="L97" s="1" t="s">
-        <v>5</v>
+        <v>9</v>
       </c>
       <c r="M97" s="1" t="s">
-        <v>13</v>
+        <v>17</v>
       </c>
       <c r="N97" s="1">
         <v>0.21</v>
@@ -4856,35 +4854,35 @@
         <v>11</v>
       </c>
       <c r="D98" s="1">
-        <v>0.2</v>
+        <v>0.4</v>
       </c>
       <c r="E98" s="1">
-        <v>0.4</v>
+        <v>0.6</v>
       </c>
       <c r="F98" s="1" t="s">
-        <v>7</v>
+        <v>11</v>
       </c>
       <c r="G98" s="1" t="s">
-        <v>8</v>
+        <v>12</v>
       </c>
       <c r="H98" s="4" t="s">
-        <v>11</v>
+        <v>15</v>
       </c>
       <c r="I98" s="3">
-        <v>1.66E-2</v>
+        <v>1.2100000000000001E-2</v>
       </c>
       <c r="J98" s="3">
-        <v>4.0000000000000001E-3</v>
+        <v>2.5999999999999999E-3</v>
       </c>
       <c r="K98" s="3">
         <f t="shared" si="1"/>
-        <v>4.15E-3</v>
+        <v>3.0250000000000003E-3</v>
       </c>
       <c r="L98" s="1" t="s">
-        <v>5</v>
+        <v>9</v>
       </c>
       <c r="M98" s="1" t="s">
-        <v>13</v>
+        <v>17</v>
       </c>
       <c r="N98" s="1">
         <v>0.21</v>
@@ -4901,35 +4899,35 @@
         <v>11</v>
       </c>
       <c r="D99" s="1">
-        <v>0.4</v>
+        <v>0.6</v>
       </c>
       <c r="E99" s="1">
-        <v>0.6</v>
+        <v>0.8</v>
       </c>
       <c r="F99" s="1" t="s">
-        <v>7</v>
+        <v>11</v>
       </c>
       <c r="G99" s="1" t="s">
-        <v>8</v>
+        <v>12</v>
       </c>
       <c r="H99" s="4" t="s">
-        <v>11</v>
+        <v>15</v>
       </c>
       <c r="I99" s="3">
-        <v>1.2100000000000001E-2</v>
+        <v>1.0100000000000001E-2</v>
       </c>
       <c r="J99" s="3">
-        <v>2.5999999999999999E-3</v>
+        <v>2.2000000000000001E-3</v>
       </c>
       <c r="K99" s="3">
         <f t="shared" si="1"/>
-        <v>3.0250000000000003E-3</v>
+        <v>2.5250000000000003E-3</v>
       </c>
       <c r="L99" s="1" t="s">
-        <v>5</v>
+        <v>9</v>
       </c>
       <c r="M99" s="1" t="s">
-        <v>13</v>
+        <v>17</v>
       </c>
       <c r="N99" s="1">
         <v>0.21</v>
@@ -4946,35 +4944,35 @@
         <v>11</v>
       </c>
       <c r="D100" s="1">
-        <v>0.6</v>
+        <v>0.8</v>
       </c>
       <c r="E100" s="1">
-        <v>0.8</v>
+        <v>1</v>
       </c>
       <c r="F100" s="1" t="s">
-        <v>7</v>
+        <v>11</v>
       </c>
       <c r="G100" s="1" t="s">
-        <v>8</v>
+        <v>12</v>
       </c>
       <c r="H100" s="4" t="s">
-        <v>11</v>
+        <v>15</v>
       </c>
       <c r="I100" s="3">
-        <v>1.0100000000000001E-2</v>
+        <v>6.2400000000000004E-2</v>
       </c>
       <c r="J100" s="3">
-        <v>2.2000000000000001E-3</v>
+        <v>1.5999999999999999E-3</v>
       </c>
       <c r="K100" s="3">
         <f t="shared" si="1"/>
-        <v>2.5250000000000003E-3</v>
+        <v>1.5600000000000001E-2</v>
       </c>
       <c r="L100" s="1" t="s">
-        <v>5</v>
+        <v>9</v>
       </c>
       <c r="M100" s="1" t="s">
-        <v>13</v>
+        <v>17</v>
       </c>
       <c r="N100" s="1">
         <v>0.21</v>
@@ -4991,35 +4989,35 @@
         <v>11</v>
       </c>
       <c r="D101" s="1">
-        <v>0.8</v>
+        <v>1</v>
       </c>
       <c r="E101" s="1">
-        <v>1</v>
+        <v>1.2</v>
       </c>
       <c r="F101" s="1" t="s">
-        <v>7</v>
+        <v>11</v>
       </c>
       <c r="G101" s="1" t="s">
-        <v>8</v>
+        <v>12</v>
       </c>
       <c r="H101" s="4" t="s">
-        <v>11</v>
+        <v>15</v>
       </c>
       <c r="I101" s="3">
-        <v>6.2400000000000004E-2</v>
+        <v>6.6E-3</v>
       </c>
       <c r="J101" s="3">
-        <v>1.5999999999999999E-3</v>
+        <v>1.7000000000000001E-3</v>
       </c>
       <c r="K101" s="3">
         <f t="shared" si="1"/>
-        <v>1.5600000000000001E-2</v>
+        <v>1.65E-3</v>
       </c>
       <c r="L101" s="1" t="s">
-        <v>5</v>
+        <v>9</v>
       </c>
       <c r="M101" s="1" t="s">
-        <v>13</v>
+        <v>17</v>
       </c>
       <c r="N101" s="1">
         <v>0.21</v>
@@ -5036,35 +5034,35 @@
         <v>11</v>
       </c>
       <c r="D102" s="1">
-        <v>1</v>
+        <v>1.2</v>
       </c>
       <c r="E102" s="1">
-        <v>1.2</v>
+        <v>1.4</v>
       </c>
       <c r="F102" s="1" t="s">
-        <v>7</v>
+        <v>11</v>
       </c>
       <c r="G102" s="1" t="s">
-        <v>8</v>
+        <v>12</v>
       </c>
       <c r="H102" s="4" t="s">
-        <v>11</v>
+        <v>15</v>
       </c>
       <c r="I102" s="3">
-        <v>6.6E-3</v>
+        <v>2.3000000000000004E-3</v>
       </c>
       <c r="J102" s="3">
-        <v>1.7000000000000001E-3</v>
+        <v>9.0000000000000008E-4</v>
       </c>
       <c r="K102" s="3">
         <f t="shared" si="1"/>
-        <v>1.65E-3</v>
+        <v>5.750000000000001E-4</v>
       </c>
       <c r="L102" s="1" t="s">
-        <v>5</v>
+        <v>9</v>
       </c>
       <c r="M102" s="1" t="s">
-        <v>13</v>
+        <v>17</v>
       </c>
       <c r="N102" s="1">
         <v>0.21</v>
@@ -5081,35 +5079,35 @@
         <v>11</v>
       </c>
       <c r="D103" s="1">
-        <v>1.2</v>
+        <v>1.4</v>
       </c>
       <c r="E103" s="1">
-        <v>1.4</v>
+        <v>1.6</v>
       </c>
       <c r="F103" s="1" t="s">
-        <v>7</v>
+        <v>11</v>
       </c>
       <c r="G103" s="1" t="s">
-        <v>8</v>
+        <v>12</v>
       </c>
       <c r="H103" s="4" t="s">
-        <v>11</v>
+        <v>15</v>
       </c>
       <c r="I103" s="3">
-        <v>2.3000000000000004E-3</v>
+        <v>3.7000000000000002E-3</v>
       </c>
       <c r="J103" s="3">
-        <v>9.0000000000000008E-4</v>
+        <v>1.2000000000000001E-3</v>
       </c>
       <c r="K103" s="3">
         <f t="shared" si="1"/>
-        <v>5.750000000000001E-4</v>
+        <v>9.2500000000000004E-4</v>
       </c>
       <c r="L103" s="1" t="s">
-        <v>5</v>
+        <v>9</v>
       </c>
       <c r="M103" s="1" t="s">
-        <v>13</v>
+        <v>17</v>
       </c>
       <c r="N103" s="1">
         <v>0.21</v>
@@ -5126,35 +5124,35 @@
         <v>11</v>
       </c>
       <c r="D104" s="1">
-        <v>1.4</v>
+        <v>1.6</v>
       </c>
       <c r="E104" s="1">
-        <v>1.6</v>
+        <v>1.8</v>
       </c>
       <c r="F104" s="1" t="s">
-        <v>7</v>
+        <v>11</v>
       </c>
       <c r="G104" s="1" t="s">
-        <v>8</v>
+        <v>12</v>
       </c>
       <c r="H104" s="4" t="s">
-        <v>11</v>
+        <v>15</v>
       </c>
       <c r="I104" s="3">
-        <v>3.7000000000000002E-3</v>
+        <v>4.6000000000000008E-3</v>
       </c>
       <c r="J104" s="3">
-        <v>1.2000000000000001E-3</v>
+        <v>1.4000000000000002E-3</v>
       </c>
       <c r="K104" s="3">
         <f t="shared" si="1"/>
-        <v>9.2500000000000004E-4</v>
+        <v>1.1500000000000002E-3</v>
       </c>
       <c r="L104" s="1" t="s">
-        <v>5</v>
+        <v>9</v>
       </c>
       <c r="M104" s="1" t="s">
-        <v>13</v>
+        <v>17</v>
       </c>
       <c r="N104" s="1">
         <v>0.21</v>
@@ -5171,35 +5169,35 @@
         <v>11</v>
       </c>
       <c r="D105" s="1">
-        <v>1.6</v>
+        <v>1.8</v>
       </c>
       <c r="E105" s="1">
-        <v>1.8</v>
+        <v>2</v>
       </c>
       <c r="F105" s="1" t="s">
-        <v>7</v>
+        <v>11</v>
       </c>
       <c r="G105" s="1" t="s">
-        <v>8</v>
+        <v>12</v>
       </c>
       <c r="H105" s="4" t="s">
-        <v>11</v>
+        <v>15</v>
       </c>
       <c r="I105" s="3">
-        <v>4.6000000000000008E-3</v>
+        <v>7.5000000000000012E-4</v>
       </c>
       <c r="J105" s="3">
-        <v>1.4000000000000002E-3</v>
+        <v>5.3000000000000009E-4</v>
       </c>
       <c r="K105" s="3">
         <f t="shared" si="1"/>
-        <v>1.1500000000000002E-3</v>
+        <v>1.8750000000000003E-4</v>
       </c>
       <c r="L105" s="1" t="s">
-        <v>5</v>
+        <v>9</v>
       </c>
       <c r="M105" s="1" t="s">
-        <v>13</v>
+        <v>17</v>
       </c>
       <c r="N105" s="1">
         <v>0.21</v>
@@ -5216,35 +5214,35 @@
         <v>11</v>
       </c>
       <c r="D106" s="1">
-        <v>1.8</v>
+        <v>2</v>
       </c>
       <c r="E106" s="1">
-        <v>2</v>
+        <v>2.2000000000000002</v>
       </c>
       <c r="F106" s="1" t="s">
-        <v>7</v>
+        <v>11</v>
       </c>
       <c r="G106" s="1" t="s">
-        <v>8</v>
+        <v>12</v>
       </c>
       <c r="H106" s="4" t="s">
-        <v>11</v>
+        <v>15</v>
       </c>
       <c r="I106" s="3">
-        <v>7.5000000000000012E-4</v>
+        <v>4.6999999999999999E-4</v>
       </c>
       <c r="J106" s="3">
-        <v>5.3000000000000009E-4</v>
+        <v>4.6999999999999999E-4</v>
       </c>
       <c r="K106" s="3">
         <f t="shared" si="1"/>
-        <v>1.8750000000000003E-4</v>
+        <v>1.175E-4</v>
       </c>
       <c r="L106" s="1" t="s">
-        <v>5</v>
+        <v>9</v>
       </c>
       <c r="M106" s="1" t="s">
-        <v>13</v>
+        <v>17</v>
       </c>
       <c r="N106" s="1">
         <v>0.21</v>
@@ -5261,35 +5259,35 @@
         <v>11</v>
       </c>
       <c r="D107" s="1">
-        <v>2</v>
+        <v>2.6</v>
       </c>
       <c r="E107" s="1">
-        <v>2.2000000000000002</v>
+        <v>2.8</v>
       </c>
       <c r="F107" s="1" t="s">
-        <v>7</v>
+        <v>11</v>
       </c>
       <c r="G107" s="1" t="s">
-        <v>8</v>
+        <v>12</v>
       </c>
       <c r="H107" s="4" t="s">
-        <v>11</v>
+        <v>15</v>
       </c>
       <c r="I107" s="3">
-        <v>4.6999999999999999E-4</v>
+        <v>3.6999999999999999E-4</v>
       </c>
       <c r="J107" s="3">
-        <v>4.6999999999999999E-4</v>
+        <v>3.6999999999999999E-4</v>
       </c>
       <c r="K107" s="3">
         <f t="shared" si="1"/>
-        <v>1.175E-4</v>
+        <v>9.2499999999999999E-5</v>
       </c>
       <c r="L107" s="1" t="s">
-        <v>5</v>
+        <v>9</v>
       </c>
       <c r="M107" s="1" t="s">
-        <v>13</v>
+        <v>17</v>
       </c>
       <c r="N107" s="1">
         <v>0.21</v>
@@ -5306,35 +5304,35 @@
         <v>11</v>
       </c>
       <c r="D108" s="1">
-        <v>2.6</v>
+        <v>2.8</v>
       </c>
       <c r="E108" s="1">
-        <v>2.8</v>
+        <v>3</v>
       </c>
       <c r="F108" s="1" t="s">
-        <v>7</v>
+        <v>11</v>
       </c>
       <c r="G108" s="1" t="s">
-        <v>8</v>
+        <v>12</v>
       </c>
       <c r="H108" s="4" t="s">
-        <v>11</v>
+        <v>15</v>
       </c>
       <c r="I108" s="3">
-        <v>3.6999999999999999E-4</v>
+        <v>4.4000000000000002E-4</v>
       </c>
       <c r="J108" s="3">
-        <v>3.6999999999999999E-4</v>
+        <v>4.4000000000000002E-4</v>
       </c>
       <c r="K108" s="3">
         <f t="shared" si="1"/>
-        <v>9.2499999999999999E-5</v>
+        <v>1.1E-4</v>
       </c>
       <c r="L108" s="1" t="s">
-        <v>5</v>
+        <v>9</v>
       </c>
       <c r="M108" s="1" t="s">
-        <v>13</v>
+        <v>17</v>
       </c>
       <c r="N108" s="1">
         <v>0.21</v>
@@ -5345,41 +5343,41 @@
         <v>300</v>
       </c>
       <c r="B109" s="2">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="C109" s="2">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="D109" s="1">
-        <v>2.8</v>
+        <v>0</v>
       </c>
       <c r="E109" s="1">
-        <v>3</v>
+        <v>0.2</v>
       </c>
       <c r="F109" s="1" t="s">
-        <v>7</v>
+        <v>11</v>
       </c>
       <c r="G109" s="1" t="s">
-        <v>8</v>
+        <v>12</v>
       </c>
       <c r="H109" s="4" t="s">
-        <v>11</v>
+        <v>15</v>
       </c>
       <c r="I109" s="3">
-        <v>4.4000000000000002E-4</v>
+        <v>2.7100000000000002E-3</v>
       </c>
       <c r="J109" s="3">
-        <v>4.4000000000000002E-4</v>
+        <v>2.7200000000000002E-3</v>
       </c>
       <c r="K109" s="3">
         <f t="shared" si="1"/>
-        <v>1.1E-4</v>
+        <v>6.7750000000000004E-4</v>
       </c>
       <c r="L109" s="1" t="s">
-        <v>5</v>
+        <v>9</v>
       </c>
       <c r="M109" s="1" t="s">
-        <v>13</v>
+        <v>17</v>
       </c>
       <c r="N109" s="1">
         <v>0.21</v>
@@ -5396,35 +5394,35 @@
         <v>12</v>
       </c>
       <c r="D110" s="1">
-        <v>0</v>
+        <v>0.2</v>
       </c>
       <c r="E110" s="1">
-        <v>0.2</v>
+        <v>0.4</v>
       </c>
       <c r="F110" s="1" t="s">
-        <v>7</v>
+        <v>11</v>
       </c>
       <c r="G110" s="1" t="s">
-        <v>8</v>
+        <v>12</v>
       </c>
       <c r="H110" s="4" t="s">
-        <v>11</v>
+        <v>15</v>
       </c>
       <c r="I110" s="3">
-        <v>2.7100000000000002E-3</v>
+        <v>7.9000000000000012E-4</v>
       </c>
       <c r="J110" s="3">
-        <v>2.7200000000000002E-3</v>
+        <v>7.9000000000000012E-4</v>
       </c>
       <c r="K110" s="3">
         <f t="shared" si="1"/>
-        <v>6.7750000000000004E-4</v>
+        <v>1.9750000000000003E-4</v>
       </c>
       <c r="L110" s="1" t="s">
-        <v>5</v>
+        <v>9</v>
       </c>
       <c r="M110" s="1" t="s">
-        <v>13</v>
+        <v>17</v>
       </c>
       <c r="N110" s="1">
         <v>0.21</v>
@@ -5441,35 +5439,35 @@
         <v>12</v>
       </c>
       <c r="D111" s="1">
-        <v>0.2</v>
+        <v>0.4</v>
       </c>
       <c r="E111" s="1">
-        <v>0.4</v>
+        <v>0.6</v>
       </c>
       <c r="F111" s="1" t="s">
-        <v>7</v>
+        <v>11</v>
       </c>
       <c r="G111" s="1" t="s">
-        <v>8</v>
+        <v>12</v>
       </c>
       <c r="H111" s="4" t="s">
-        <v>11</v>
+        <v>15</v>
       </c>
       <c r="I111" s="3">
-        <v>7.9000000000000012E-4</v>
+        <v>1.01E-3</v>
       </c>
       <c r="J111" s="3">
-        <v>7.9000000000000012E-4</v>
+        <v>7.2000000000000005E-4</v>
       </c>
       <c r="K111" s="3">
         <f t="shared" si="1"/>
-        <v>1.9750000000000003E-4</v>
+        <v>2.5250000000000001E-4</v>
       </c>
       <c r="L111" s="1" t="s">
-        <v>5</v>
+        <v>9</v>
       </c>
       <c r="M111" s="1" t="s">
-        <v>13</v>
+        <v>17</v>
       </c>
       <c r="N111" s="1">
         <v>0.21</v>
@@ -5486,35 +5484,35 @@
         <v>12</v>
       </c>
       <c r="D112" s="1">
-        <v>0.4</v>
+        <v>0.6</v>
       </c>
       <c r="E112" s="1">
-        <v>0.6</v>
+        <v>0.8</v>
       </c>
       <c r="F112" s="1" t="s">
-        <v>7</v>
+        <v>11</v>
       </c>
       <c r="G112" s="1" t="s">
-        <v>8</v>
+        <v>12</v>
       </c>
       <c r="H112" s="4" t="s">
-        <v>11</v>
+        <v>15</v>
       </c>
       <c r="I112" s="3">
-        <v>1.01E-3</v>
+        <v>1E-3</v>
       </c>
       <c r="J112" s="3">
-        <v>7.2000000000000005E-4</v>
+        <v>5.8E-4</v>
       </c>
       <c r="K112" s="3">
         <f t="shared" si="1"/>
-        <v>2.5250000000000001E-4</v>
+        <v>2.5000000000000001E-4</v>
       </c>
       <c r="L112" s="1" t="s">
-        <v>5</v>
+        <v>9</v>
       </c>
       <c r="M112" s="1" t="s">
-        <v>13</v>
+        <v>17</v>
       </c>
       <c r="N112" s="1">
         <v>0.21</v>
@@ -5531,35 +5529,35 @@
         <v>12</v>
       </c>
       <c r="D113" s="1">
-        <v>0.6</v>
+        <v>0.8</v>
       </c>
       <c r="E113" s="1">
-        <v>0.8</v>
+        <v>1</v>
       </c>
       <c r="F113" s="1" t="s">
-        <v>7</v>
+        <v>11</v>
       </c>
       <c r="G113" s="1" t="s">
-        <v>8</v>
+        <v>12</v>
       </c>
       <c r="H113" s="4" t="s">
-        <v>11</v>
+        <v>15</v>
       </c>
       <c r="I113" s="3">
-        <v>1E-3</v>
+        <v>6.8000000000000005E-4</v>
       </c>
       <c r="J113" s="3">
-        <v>5.8E-4</v>
+        <v>4.8000000000000001E-4</v>
       </c>
       <c r="K113" s="3">
         <f t="shared" si="1"/>
-        <v>2.5000000000000001E-4</v>
+        <v>1.7000000000000001E-4</v>
       </c>
       <c r="L113" s="1" t="s">
-        <v>5</v>
+        <v>9</v>
       </c>
       <c r="M113" s="1" t="s">
-        <v>13</v>
+        <v>17</v>
       </c>
       <c r="N113" s="1">
         <v>0.21</v>
@@ -5576,35 +5574,35 @@
         <v>12</v>
       </c>
       <c r="D114" s="1">
-        <v>0.8</v>
+        <v>1</v>
       </c>
       <c r="E114" s="1">
-        <v>1</v>
+        <v>1.2</v>
       </c>
       <c r="F114" s="1" t="s">
-        <v>7</v>
+        <v>11</v>
       </c>
       <c r="G114" s="1" t="s">
-        <v>8</v>
+        <v>12</v>
       </c>
       <c r="H114" s="4" t="s">
-        <v>11</v>
+        <v>15</v>
       </c>
       <c r="I114" s="3">
-        <v>6.8000000000000005E-4</v>
+        <v>1.1800000000000001E-3</v>
       </c>
       <c r="J114" s="3">
-        <v>4.8000000000000001E-4</v>
+        <v>6.0000000000000006E-4</v>
       </c>
       <c r="K114" s="3">
         <f t="shared" si="1"/>
-        <v>1.7000000000000001E-4</v>
+        <v>2.9500000000000001E-4</v>
       </c>
       <c r="L114" s="1" t="s">
-        <v>5</v>
+        <v>9</v>
       </c>
       <c r="M114" s="1" t="s">
-        <v>13</v>
+        <v>17</v>
       </c>
       <c r="N114" s="1">
         <v>0.21</v>
@@ -5621,35 +5619,35 @@
         <v>12</v>
       </c>
       <c r="D115" s="1">
-        <v>1</v>
+        <v>1.2</v>
       </c>
       <c r="E115" s="1">
-        <v>1.2</v>
+        <v>1.4</v>
       </c>
       <c r="F115" s="1" t="s">
-        <v>7</v>
+        <v>11</v>
       </c>
       <c r="G115" s="1" t="s">
-        <v>8</v>
+        <v>12</v>
       </c>
       <c r="H115" s="4" t="s">
-        <v>11</v>
+        <v>15</v>
       </c>
       <c r="I115" s="3">
-        <v>1.1800000000000001E-3</v>
+        <v>2.6000000000000003E-4</v>
       </c>
       <c r="J115" s="3">
-        <v>6.0000000000000006E-4</v>
+        <v>2.6000000000000003E-4</v>
       </c>
       <c r="K115" s="3">
         <f t="shared" si="1"/>
-        <v>2.9500000000000001E-4</v>
+        <v>6.5000000000000008E-5</v>
       </c>
       <c r="L115" s="1" t="s">
-        <v>5</v>
+        <v>9</v>
       </c>
       <c r="M115" s="1" t="s">
-        <v>13</v>
+        <v>17</v>
       </c>
       <c r="N115" s="1">
         <v>0.21</v>
@@ -5666,35 +5664,35 @@
         <v>12</v>
       </c>
       <c r="D116" s="1">
-        <v>1.2</v>
+        <v>1.4</v>
       </c>
       <c r="E116" s="1">
-        <v>1.4</v>
+        <v>1.6</v>
       </c>
       <c r="F116" s="1" t="s">
-        <v>7</v>
+        <v>11</v>
       </c>
       <c r="G116" s="1" t="s">
-        <v>8</v>
+        <v>12</v>
       </c>
       <c r="H116" s="4" t="s">
-        <v>11</v>
+        <v>15</v>
       </c>
       <c r="I116" s="3">
-        <v>2.6000000000000003E-4</v>
+        <v>5.4000000000000001E-4</v>
       </c>
       <c r="J116" s="3">
-        <v>2.6000000000000003E-4</v>
+        <v>3.8000000000000002E-4</v>
       </c>
       <c r="K116" s="3">
         <f t="shared" si="1"/>
-        <v>6.5000000000000008E-5</v>
+        <v>1.35E-4</v>
       </c>
       <c r="L116" s="1" t="s">
-        <v>5</v>
+        <v>9</v>
       </c>
       <c r="M116" s="1" t="s">
-        <v>13</v>
+        <v>17</v>
       </c>
       <c r="N116" s="1">
         <v>0.21</v>
@@ -5711,35 +5709,35 @@
         <v>12</v>
       </c>
       <c r="D117" s="1">
-        <v>1.4</v>
+        <v>1.6</v>
       </c>
       <c r="E117" s="1">
-        <v>1.6</v>
+        <v>1.8</v>
       </c>
       <c r="F117" s="1" t="s">
-        <v>7</v>
+        <v>11</v>
       </c>
       <c r="G117" s="1" t="s">
-        <v>8</v>
+        <v>12</v>
       </c>
       <c r="H117" s="4" t="s">
-        <v>11</v>
+        <v>15</v>
       </c>
       <c r="I117" s="3">
-        <v>5.4000000000000001E-4</v>
+        <v>3.5000000000000005E-4</v>
       </c>
       <c r="J117" s="3">
-        <v>3.8000000000000002E-4</v>
+        <v>3.5000000000000005E-4</v>
       </c>
       <c r="K117" s="3">
         <f t="shared" si="1"/>
-        <v>1.35E-4</v>
+        <v>8.7500000000000013E-5</v>
       </c>
       <c r="L117" s="1" t="s">
-        <v>5</v>
+        <v>9</v>
       </c>
       <c r="M117" s="1" t="s">
-        <v>13</v>
+        <v>17</v>
       </c>
       <c r="N117" s="1">
         <v>0.21</v>
@@ -5756,82 +5754,37 @@
         <v>12</v>
       </c>
       <c r="D118" s="1">
-        <v>1.6</v>
+        <v>2.2000000000000002</v>
       </c>
       <c r="E118" s="1">
-        <v>1.8</v>
+        <v>2.4</v>
       </c>
       <c r="F118" s="1" t="s">
-        <v>7</v>
+        <v>11</v>
       </c>
       <c r="G118" s="1" t="s">
-        <v>8</v>
+        <v>12</v>
       </c>
       <c r="H118" s="4" t="s">
-        <v>11</v>
+        <v>15</v>
       </c>
       <c r="I118" s="3">
-        <v>3.5000000000000005E-4</v>
+        <v>2.9E-4</v>
       </c>
       <c r="J118" s="3">
-        <v>3.5000000000000005E-4</v>
+        <v>3.0000000000000003E-4</v>
       </c>
       <c r="K118" s="3">
         <f t="shared" si="1"/>
-        <v>8.7500000000000013E-5</v>
+        <v>7.25E-5</v>
       </c>
       <c r="L118" s="1" t="s">
-        <v>5</v>
+        <v>9</v>
       </c>
       <c r="M118" s="1" t="s">
-        <v>13</v>
+        <v>17</v>
       </c>
       <c r="N118" s="1">
-        <v>0.21</v>
-      </c>
-    </row>
-    <row r="119" spans="1:14" ht="17" x14ac:dyDescent="0.25">
-      <c r="A119" s="4">
-        <v>300</v>
-      </c>
-      <c r="B119" s="2">
-        <v>11</v>
-      </c>
-      <c r="C119" s="2">
-        <v>12</v>
-      </c>
-      <c r="D119" s="1">
-        <v>2.2000000000000002</v>
-      </c>
-      <c r="E119" s="1">
-        <v>2.4</v>
-      </c>
-      <c r="F119" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="G119" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="H119" s="4" t="s">
-        <v>11</v>
-      </c>
-      <c r="I119" s="3">
-        <v>2.9E-4</v>
-      </c>
-      <c r="J119" s="3">
-        <v>3.0000000000000003E-4</v>
-      </c>
-      <c r="K119" s="3">
-        <f t="shared" si="1"/>
-        <v>7.25E-5</v>
-      </c>
-      <c r="L119" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="M119" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="N119" s="1">
         <v>0.21</v>
       </c>
     </row>

--- a/proton_qT/expdata/12882.xlsx
+++ b/proton_qT/expdata/12882.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/barryp/work/JAM/fitpack2/database/proton_qT/expdata/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BB56AAC8-3BCE-7644-BEE0-CFD61FAEE1FA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{795CB1C9-FFEB-C54E-8AA6-89AA9C87DEE9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1960" yWindow="460" windowWidth="26840" windowHeight="17760" xr2:uid="{20CAA433-5407-F041-ACD1-8E0E90D3CEE4}"/>
+    <workbookView xWindow="4520" yWindow="520" windowWidth="26840" windowHeight="18260" xr2:uid="{20CAA433-5407-F041-ACD1-8E0E90D3CEE4}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -28,18 +28,6 @@
 <sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="599" uniqueCount="19">
   <si>
     <t>E</t>
-  </si>
-  <si>
-    <t>m_min</t>
-  </si>
-  <si>
-    <t>m_max</t>
-  </si>
-  <si>
-    <t>pT_min</t>
-  </si>
-  <si>
-    <t>pT_max</t>
   </si>
   <si>
     <t>value</t>
@@ -81,7 +69,19 @@
     <t>pp</t>
   </si>
   <si>
-    <t>Y</t>
+    <t>y</t>
+  </si>
+  <si>
+    <t>Qmin</t>
+  </si>
+  <si>
+    <t>Qmax</t>
+  </si>
+  <si>
+    <t>pTmin</t>
+  </si>
+  <si>
+    <t>pTmax</t>
   </si>
 </sst>
 </file>
@@ -484,43 +484,43 @@
         <v>0</v>
       </c>
       <c r="B1" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="C1" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="F1" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="G1" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="H1" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="I1" s="3" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="2" t="s">
+      <c r="J1" s="3" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="1" t="s">
+      <c r="K1" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="E1" s="1" t="s">
+      <c r="L1" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="F1" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="G1" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="H1" s="1" t="s">
+      <c r="M1" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="N1" s="1" t="s">
         <v>14</v>
-      </c>
-      <c r="I1" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="J1" s="3" t="s">
-        <v>6</v>
-      </c>
-      <c r="K1" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="L1" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="M1" s="1" t="s">
-        <v>16</v>
-      </c>
-      <c r="N1" s="1" t="s">
-        <v>18</v>
       </c>
     </row>
     <row r="2" spans="1:14" ht="17" x14ac:dyDescent="0.25">
@@ -540,13 +540,13 @@
         <v>0.2</v>
       </c>
       <c r="F2" s="1" t="s">
-        <v>11</v>
+        <v>7</v>
       </c>
       <c r="G2" s="1" t="s">
-        <v>12</v>
+        <v>8</v>
       </c>
       <c r="H2" s="4" t="s">
-        <v>15</v>
+        <v>11</v>
       </c>
       <c r="I2" s="3">
         <v>9.16</v>
@@ -559,10 +559,10 @@
         <v>2.29</v>
       </c>
       <c r="L2" s="1" t="s">
-        <v>9</v>
+        <v>5</v>
       </c>
       <c r="M2" s="1" t="s">
-        <v>17</v>
+        <v>13</v>
       </c>
       <c r="N2" s="1">
         <v>0.21</v>
@@ -585,13 +585,13 @@
         <v>0.4</v>
       </c>
       <c r="F3" s="1" t="s">
-        <v>11</v>
+        <v>7</v>
       </c>
       <c r="G3" s="1" t="s">
-        <v>12</v>
+        <v>8</v>
       </c>
       <c r="H3" s="4" t="s">
-        <v>15</v>
+        <v>11</v>
       </c>
       <c r="I3" s="3">
         <v>7.6500000000000012</v>
@@ -604,10 +604,10 @@
         <v>1.9125000000000003</v>
       </c>
       <c r="L3" s="1" t="s">
-        <v>9</v>
+        <v>5</v>
       </c>
       <c r="M3" s="1" t="s">
-        <v>17</v>
+        <v>13</v>
       </c>
       <c r="N3" s="1">
         <v>0.21</v>
@@ -630,13 +630,13 @@
         <v>0.6</v>
       </c>
       <c r="F4" s="1" t="s">
-        <v>11</v>
+        <v>7</v>
       </c>
       <c r="G4" s="1" t="s">
-        <v>12</v>
+        <v>8</v>
       </c>
       <c r="H4" s="4" t="s">
-        <v>15</v>
+        <v>11</v>
       </c>
       <c r="I4" s="3">
         <v>6.6099999999999994</v>
@@ -649,10 +649,10 @@
         <v>1.6524999999999999</v>
       </c>
       <c r="L4" s="1" t="s">
-        <v>9</v>
+        <v>5</v>
       </c>
       <c r="M4" s="1" t="s">
-        <v>17</v>
+        <v>13</v>
       </c>
       <c r="N4" s="1">
         <v>0.21</v>
@@ -675,13 +675,13 @@
         <v>0.8</v>
       </c>
       <c r="F5" s="1" t="s">
-        <v>11</v>
+        <v>7</v>
       </c>
       <c r="G5" s="1" t="s">
-        <v>12</v>
+        <v>8</v>
       </c>
       <c r="H5" s="4" t="s">
-        <v>15</v>
+        <v>11</v>
       </c>
       <c r="I5" s="3">
         <v>5.58</v>
@@ -694,10 +694,10 @@
         <v>1.395</v>
       </c>
       <c r="L5" s="1" t="s">
-        <v>9</v>
+        <v>5</v>
       </c>
       <c r="M5" s="1" t="s">
-        <v>17</v>
+        <v>13</v>
       </c>
       <c r="N5" s="1">
         <v>0.21</v>
@@ -720,13 +720,13 @@
         <v>1</v>
       </c>
       <c r="F6" s="1" t="s">
-        <v>11</v>
+        <v>7</v>
       </c>
       <c r="G6" s="1" t="s">
-        <v>12</v>
+        <v>8</v>
       </c>
       <c r="H6" s="4" t="s">
-        <v>15</v>
+        <v>11</v>
       </c>
       <c r="I6" s="3">
         <v>3.91</v>
@@ -739,10 +739,10 @@
         <v>0.97750000000000004</v>
       </c>
       <c r="L6" s="1" t="s">
-        <v>9</v>
+        <v>5</v>
       </c>
       <c r="M6" s="1" t="s">
-        <v>17</v>
+        <v>13</v>
       </c>
       <c r="N6" s="1">
         <v>0.21</v>
@@ -765,13 +765,13 @@
         <v>1.2</v>
       </c>
       <c r="F7" s="1" t="s">
-        <v>11</v>
+        <v>7</v>
       </c>
       <c r="G7" s="1" t="s">
-        <v>12</v>
+        <v>8</v>
       </c>
       <c r="H7" s="4" t="s">
-        <v>15</v>
+        <v>11</v>
       </c>
       <c r="I7" s="3">
         <v>2.73</v>
@@ -784,10 +784,10 @@
         <v>0.6825</v>
       </c>
       <c r="L7" s="1" t="s">
-        <v>9</v>
+        <v>5</v>
       </c>
       <c r="M7" s="1" t="s">
-        <v>17</v>
+        <v>13</v>
       </c>
       <c r="N7" s="1">
         <v>0.21</v>
@@ -810,13 +810,13 @@
         <v>1.4</v>
       </c>
       <c r="F8" s="1" t="s">
-        <v>11</v>
+        <v>7</v>
       </c>
       <c r="G8" s="1" t="s">
-        <v>12</v>
+        <v>8</v>
       </c>
       <c r="H8" s="4" t="s">
-        <v>15</v>
+        <v>11</v>
       </c>
       <c r="I8" s="3">
         <v>1.85</v>
@@ -829,10 +829,10 @@
         <v>0.46250000000000002</v>
       </c>
       <c r="L8" s="1" t="s">
-        <v>9</v>
+        <v>5</v>
       </c>
       <c r="M8" s="1" t="s">
-        <v>17</v>
+        <v>13</v>
       </c>
       <c r="N8" s="1">
         <v>0.21</v>
@@ -855,13 +855,13 @@
         <v>1.6</v>
       </c>
       <c r="F9" s="1" t="s">
-        <v>11</v>
+        <v>7</v>
       </c>
       <c r="G9" s="1" t="s">
-        <v>12</v>
+        <v>8</v>
       </c>
       <c r="H9" s="4" t="s">
-        <v>15</v>
+        <v>11</v>
       </c>
       <c r="I9" s="3">
         <v>1.58</v>
@@ -874,10 +874,10 @@
         <v>0.39500000000000002</v>
       </c>
       <c r="L9" s="1" t="s">
-        <v>9</v>
+        <v>5</v>
       </c>
       <c r="M9" s="1" t="s">
-        <v>17</v>
+        <v>13</v>
       </c>
       <c r="N9" s="1">
         <v>0.21</v>
@@ -900,13 +900,13 @@
         <v>1.8</v>
       </c>
       <c r="F10" s="1" t="s">
-        <v>11</v>
+        <v>7</v>
       </c>
       <c r="G10" s="1" t="s">
-        <v>12</v>
+        <v>8</v>
       </c>
       <c r="H10" s="4" t="s">
-        <v>15</v>
+        <v>11</v>
       </c>
       <c r="I10" s="3">
         <v>0.83800000000000008</v>
@@ -919,10 +919,10 @@
         <v>0.20950000000000002</v>
       </c>
       <c r="L10" s="1" t="s">
-        <v>9</v>
+        <v>5</v>
       </c>
       <c r="M10" s="1" t="s">
-        <v>17</v>
+        <v>13</v>
       </c>
       <c r="N10" s="1">
         <v>0.21</v>
@@ -945,13 +945,13 @@
         <v>2</v>
       </c>
       <c r="F11" s="1" t="s">
-        <v>11</v>
+        <v>7</v>
       </c>
       <c r="G11" s="1" t="s">
-        <v>12</v>
+        <v>8</v>
       </c>
       <c r="H11" s="4" t="s">
-        <v>15</v>
+        <v>11</v>
       </c>
       <c r="I11" s="3">
         <v>0.503</v>
@@ -964,10 +964,10 @@
         <v>0.12575</v>
       </c>
       <c r="L11" s="1" t="s">
-        <v>9</v>
+        <v>5</v>
       </c>
       <c r="M11" s="1" t="s">
-        <v>17</v>
+        <v>13</v>
       </c>
       <c r="N11" s="1">
         <v>0.21</v>
@@ -990,13 +990,13 @@
         <v>2.2000000000000002</v>
       </c>
       <c r="F12" s="1" t="s">
-        <v>11</v>
+        <v>7</v>
       </c>
       <c r="G12" s="1" t="s">
-        <v>12</v>
+        <v>8</v>
       </c>
       <c r="H12" s="4" t="s">
-        <v>15</v>
+        <v>11</v>
       </c>
       <c r="I12" s="3">
         <v>0.39699999999999996</v>
@@ -1009,10 +1009,10 @@
         <v>9.9249999999999991E-2</v>
       </c>
       <c r="L12" s="1" t="s">
-        <v>9</v>
+        <v>5</v>
       </c>
       <c r="M12" s="1" t="s">
-        <v>17</v>
+        <v>13</v>
       </c>
       <c r="N12" s="1">
         <v>0.21</v>
@@ -1035,13 +1035,13 @@
         <v>2.4</v>
       </c>
       <c r="F13" s="1" t="s">
-        <v>11</v>
+        <v>7</v>
       </c>
       <c r="G13" s="1" t="s">
-        <v>12</v>
+        <v>8</v>
       </c>
       <c r="H13" s="4" t="s">
-        <v>15</v>
+        <v>11</v>
       </c>
       <c r="I13" s="3">
         <v>0.189</v>
@@ -1054,10 +1054,10 @@
         <v>4.725E-2</v>
       </c>
       <c r="L13" s="1" t="s">
-        <v>9</v>
+        <v>5</v>
       </c>
       <c r="M13" s="1" t="s">
-        <v>17</v>
+        <v>13</v>
       </c>
       <c r="N13" s="1">
         <v>0.21</v>
@@ -1080,13 +1080,13 @@
         <v>2.6</v>
       </c>
       <c r="F14" s="1" t="s">
-        <v>11</v>
+        <v>7</v>
       </c>
       <c r="G14" s="1" t="s">
-        <v>12</v>
+        <v>8</v>
       </c>
       <c r="H14" s="4" t="s">
-        <v>15</v>
+        <v>11</v>
       </c>
       <c r="I14" s="3">
         <v>5.8000000000000003E-2</v>
@@ -1099,10 +1099,10 @@
         <v>1.4500000000000001E-2</v>
       </c>
       <c r="L14" s="1" t="s">
-        <v>9</v>
+        <v>5</v>
       </c>
       <c r="M14" s="1" t="s">
-        <v>17</v>
+        <v>13</v>
       </c>
       <c r="N14" s="1">
         <v>0.21</v>
@@ -1125,13 +1125,13 @@
         <v>2.8</v>
       </c>
       <c r="F15" s="1" t="s">
-        <v>11</v>
+        <v>7</v>
       </c>
       <c r="G15" s="1" t="s">
-        <v>12</v>
+        <v>8</v>
       </c>
       <c r="H15" s="4" t="s">
-        <v>15</v>
+        <v>11</v>
       </c>
       <c r="I15" s="3">
         <v>0.21200000000000002</v>
@@ -1144,10 +1144,10 @@
         <v>5.3000000000000005E-2</v>
       </c>
       <c r="L15" s="1" t="s">
-        <v>9</v>
+        <v>5</v>
       </c>
       <c r="M15" s="1" t="s">
-        <v>17</v>
+        <v>13</v>
       </c>
       <c r="N15" s="1">
         <v>0.21</v>
@@ -1170,13 +1170,13 @@
         <v>0.2</v>
       </c>
       <c r="F16" s="1" t="s">
-        <v>11</v>
+        <v>7</v>
       </c>
       <c r="G16" s="1" t="s">
-        <v>12</v>
+        <v>8</v>
       </c>
       <c r="H16" s="4" t="s">
-        <v>15</v>
+        <v>11</v>
       </c>
       <c r="I16" s="3">
         <v>2.57</v>
@@ -1189,10 +1189,10 @@
         <v>0.64249999999999996</v>
       </c>
       <c r="L16" s="1" t="s">
-        <v>9</v>
+        <v>5</v>
       </c>
       <c r="M16" s="1" t="s">
-        <v>17</v>
+        <v>13</v>
       </c>
       <c r="N16" s="1">
         <v>0.21</v>
@@ -1215,13 +1215,13 @@
         <v>0.4</v>
       </c>
       <c r="F17" s="1" t="s">
-        <v>11</v>
+        <v>7</v>
       </c>
       <c r="G17" s="1" t="s">
-        <v>12</v>
+        <v>8</v>
       </c>
       <c r="H17" s="4" t="s">
-        <v>15</v>
+        <v>11</v>
       </c>
       <c r="I17" s="3">
         <v>2.3000000000000003</v>
@@ -1234,10 +1234,10 @@
         <v>0.57500000000000007</v>
       </c>
       <c r="L17" s="1" t="s">
-        <v>9</v>
+        <v>5</v>
       </c>
       <c r="M17" s="1" t="s">
-        <v>17</v>
+        <v>13</v>
       </c>
       <c r="N17" s="1">
         <v>0.21</v>
@@ -1260,13 +1260,13 @@
         <v>0.6</v>
       </c>
       <c r="F18" s="1" t="s">
-        <v>11</v>
+        <v>7</v>
       </c>
       <c r="G18" s="1" t="s">
-        <v>12</v>
+        <v>8</v>
       </c>
       <c r="H18" s="4" t="s">
-        <v>15</v>
+        <v>11</v>
       </c>
       <c r="I18" s="3">
         <v>2.0700000000000003</v>
@@ -1279,10 +1279,10 @@
         <v>0.51750000000000007</v>
       </c>
       <c r="L18" s="1" t="s">
-        <v>9</v>
+        <v>5</v>
       </c>
       <c r="M18" s="1" t="s">
-        <v>17</v>
+        <v>13</v>
       </c>
       <c r="N18" s="1">
         <v>0.21</v>
@@ -1305,13 +1305,13 @@
         <v>0.8</v>
       </c>
       <c r="F19" s="1" t="s">
-        <v>11</v>
+        <v>7</v>
       </c>
       <c r="G19" s="1" t="s">
-        <v>12</v>
+        <v>8</v>
       </c>
       <c r="H19" s="4" t="s">
-        <v>15</v>
+        <v>11</v>
       </c>
       <c r="I19" s="3">
         <v>1.82</v>
@@ -1324,10 +1324,10 @@
         <v>0.45500000000000002</v>
       </c>
       <c r="L19" s="1" t="s">
-        <v>9</v>
+        <v>5</v>
       </c>
       <c r="M19" s="1" t="s">
-        <v>17</v>
+        <v>13</v>
       </c>
       <c r="N19" s="1">
         <v>0.21</v>
@@ -1350,13 +1350,13 @@
         <v>1</v>
       </c>
       <c r="F20" s="1" t="s">
-        <v>11</v>
+        <v>7</v>
       </c>
       <c r="G20" s="1" t="s">
-        <v>12</v>
+        <v>8</v>
       </c>
       <c r="H20" s="4" t="s">
-        <v>15</v>
+        <v>11</v>
       </c>
       <c r="I20" s="3">
         <v>1.1300000000000001</v>
@@ -1369,10 +1369,10 @@
         <v>0.28250000000000003</v>
       </c>
       <c r="L20" s="1" t="s">
-        <v>9</v>
+        <v>5</v>
       </c>
       <c r="M20" s="1" t="s">
-        <v>17</v>
+        <v>13</v>
       </c>
       <c r="N20" s="1">
         <v>0.21</v>
@@ -1395,13 +1395,13 @@
         <v>1.2</v>
       </c>
       <c r="F21" s="1" t="s">
-        <v>11</v>
+        <v>7</v>
       </c>
       <c r="G21" s="1" t="s">
-        <v>12</v>
+        <v>8</v>
       </c>
       <c r="H21" s="4" t="s">
-        <v>15</v>
+        <v>11</v>
       </c>
       <c r="I21" s="3">
         <v>0.872</v>
@@ -1414,10 +1414,10 @@
         <v>0.218</v>
       </c>
       <c r="L21" s="1" t="s">
-        <v>9</v>
+        <v>5</v>
       </c>
       <c r="M21" s="1" t="s">
-        <v>17</v>
+        <v>13</v>
       </c>
       <c r="N21" s="1">
         <v>0.21</v>
@@ -1440,13 +1440,13 @@
         <v>1.4</v>
       </c>
       <c r="F22" s="1" t="s">
-        <v>11</v>
+        <v>7</v>
       </c>
       <c r="G22" s="1" t="s">
-        <v>12</v>
+        <v>8</v>
       </c>
       <c r="H22" s="4" t="s">
-        <v>15</v>
+        <v>11</v>
       </c>
       <c r="I22" s="3">
         <v>0.63500000000000012</v>
@@ -1459,10 +1459,10 @@
         <v>0.15875000000000003</v>
       </c>
       <c r="L22" s="1" t="s">
-        <v>9</v>
+        <v>5</v>
       </c>
       <c r="M22" s="1" t="s">
-        <v>17</v>
+        <v>13</v>
       </c>
       <c r="N22" s="1">
         <v>0.21</v>
@@ -1485,13 +1485,13 @@
         <v>1.6</v>
       </c>
       <c r="F23" s="1" t="s">
-        <v>11</v>
+        <v>7</v>
       </c>
       <c r="G23" s="1" t="s">
-        <v>12</v>
+        <v>8</v>
       </c>
       <c r="H23" s="4" t="s">
-        <v>15</v>
+        <v>11</v>
       </c>
       <c r="I23" s="3">
         <v>0.38400000000000006</v>
@@ -1504,10 +1504,10 @@
         <v>9.6000000000000016E-2</v>
       </c>
       <c r="L23" s="1" t="s">
-        <v>9</v>
+        <v>5</v>
       </c>
       <c r="M23" s="1" t="s">
-        <v>17</v>
+        <v>13</v>
       </c>
       <c r="N23" s="1">
         <v>0.21</v>
@@ -1530,13 +1530,13 @@
         <v>1.8</v>
       </c>
       <c r="F24" s="1" t="s">
-        <v>11</v>
+        <v>7</v>
       </c>
       <c r="G24" s="1" t="s">
-        <v>12</v>
+        <v>8</v>
       </c>
       <c r="H24" s="4" t="s">
-        <v>15</v>
+        <v>11</v>
       </c>
       <c r="I24" s="3">
         <v>0.26</v>
@@ -1549,10 +1549,10 @@
         <v>6.5000000000000002E-2</v>
       </c>
       <c r="L24" s="1" t="s">
-        <v>9</v>
+        <v>5</v>
       </c>
       <c r="M24" s="1" t="s">
-        <v>17</v>
+        <v>13</v>
       </c>
       <c r="N24" s="1">
         <v>0.21</v>
@@ -1575,13 +1575,13 @@
         <v>2</v>
       </c>
       <c r="F25" s="1" t="s">
-        <v>11</v>
+        <v>7</v>
       </c>
       <c r="G25" s="1" t="s">
-        <v>12</v>
+        <v>8</v>
       </c>
       <c r="H25" s="4" t="s">
-        <v>15</v>
+        <v>11</v>
       </c>
       <c r="I25" s="3">
         <v>0.124</v>
@@ -1594,10 +1594,10 @@
         <v>3.1E-2</v>
       </c>
       <c r="L25" s="1" t="s">
-        <v>9</v>
+        <v>5</v>
       </c>
       <c r="M25" s="1" t="s">
-        <v>17</v>
+        <v>13</v>
       </c>
       <c r="N25" s="1">
         <v>0.21</v>
@@ -1620,13 +1620,13 @@
         <v>2.2000000000000002</v>
       </c>
       <c r="F26" s="1" t="s">
-        <v>11</v>
+        <v>7</v>
       </c>
       <c r="G26" s="1" t="s">
-        <v>12</v>
+        <v>8</v>
       </c>
       <c r="H26" s="4" t="s">
-        <v>15</v>
+        <v>11</v>
       </c>
       <c r="I26" s="3">
         <v>0.10300000000000001</v>
@@ -1639,10 +1639,10 @@
         <v>2.5750000000000002E-2</v>
       </c>
       <c r="L26" s="1" t="s">
-        <v>9</v>
+        <v>5</v>
       </c>
       <c r="M26" s="1" t="s">
-        <v>17</v>
+        <v>13</v>
       </c>
       <c r="N26" s="1">
         <v>0.21</v>
@@ -1665,13 +1665,13 @@
         <v>2.4</v>
       </c>
       <c r="F27" s="1" t="s">
-        <v>11</v>
+        <v>7</v>
       </c>
       <c r="G27" s="1" t="s">
-        <v>12</v>
+        <v>8</v>
       </c>
       <c r="H27" s="4" t="s">
-        <v>15</v>
+        <v>11</v>
       </c>
       <c r="I27" s="3">
         <v>7.9000000000000001E-2</v>
@@ -1684,10 +1684,10 @@
         <v>1.975E-2</v>
       </c>
       <c r="L27" s="1" t="s">
-        <v>9</v>
+        <v>5</v>
       </c>
       <c r="M27" s="1" t="s">
-        <v>17</v>
+        <v>13</v>
       </c>
       <c r="N27" s="1">
         <v>0.21</v>
@@ -1710,13 +1710,13 @@
         <v>2.6</v>
       </c>
       <c r="F28" s="1" t="s">
-        <v>11</v>
+        <v>7</v>
       </c>
       <c r="G28" s="1" t="s">
-        <v>12</v>
+        <v>8</v>
       </c>
       <c r="H28" s="4" t="s">
-        <v>15</v>
+        <v>11</v>
       </c>
       <c r="I28" s="3">
         <v>3.2000000000000001E-2</v>
@@ -1729,10 +1729,10 @@
         <v>8.0000000000000002E-3</v>
       </c>
       <c r="L28" s="1" t="s">
-        <v>9</v>
+        <v>5</v>
       </c>
       <c r="M28" s="1" t="s">
-        <v>17</v>
+        <v>13</v>
       </c>
       <c r="N28" s="1">
         <v>0.21</v>
@@ -1755,13 +1755,13 @@
         <v>2.8</v>
       </c>
       <c r="F29" s="1" t="s">
-        <v>11</v>
+        <v>7</v>
       </c>
       <c r="G29" s="1" t="s">
-        <v>12</v>
+        <v>8</v>
       </c>
       <c r="H29" s="4" t="s">
-        <v>15</v>
+        <v>11</v>
       </c>
       <c r="I29" s="3">
         <v>1.4E-2</v>
@@ -1774,10 +1774,10 @@
         <v>3.5000000000000001E-3</v>
       </c>
       <c r="L29" s="1" t="s">
-        <v>9</v>
+        <v>5</v>
       </c>
       <c r="M29" s="1" t="s">
-        <v>17</v>
+        <v>13</v>
       </c>
       <c r="N29" s="1">
         <v>0.21</v>
@@ -1800,13 +1800,13 @@
         <v>3</v>
       </c>
       <c r="F30" s="1" t="s">
-        <v>11</v>
+        <v>7</v>
       </c>
       <c r="G30" s="1" t="s">
-        <v>12</v>
+        <v>8</v>
       </c>
       <c r="H30" s="4" t="s">
-        <v>15</v>
+        <v>11</v>
       </c>
       <c r="I30" s="3">
         <v>6.6E-3</v>
@@ -1819,10 +1819,10 @@
         <v>1.65E-3</v>
       </c>
       <c r="L30" s="1" t="s">
-        <v>9</v>
+        <v>5</v>
       </c>
       <c r="M30" s="1" t="s">
-        <v>17</v>
+        <v>13</v>
       </c>
       <c r="N30" s="1">
         <v>0.21</v>
@@ -1845,13 +1845,13 @@
         <v>3.2</v>
       </c>
       <c r="F31" s="1" t="s">
-        <v>11</v>
+        <v>7</v>
       </c>
       <c r="G31" s="1" t="s">
-        <v>12</v>
+        <v>8</v>
       </c>
       <c r="H31" s="4" t="s">
-        <v>15</v>
+        <v>11</v>
       </c>
       <c r="I31" s="3">
         <v>5.5000000000000005E-3</v>
@@ -1864,10 +1864,10 @@
         <v>1.3750000000000001E-3</v>
       </c>
       <c r="L31" s="1" t="s">
-        <v>9</v>
+        <v>5</v>
       </c>
       <c r="M31" s="1" t="s">
-        <v>17</v>
+        <v>13</v>
       </c>
       <c r="N31" s="1">
         <v>0.21</v>
@@ -1890,13 +1890,13 @@
         <v>4</v>
       </c>
       <c r="F32" s="1" t="s">
-        <v>11</v>
+        <v>7</v>
       </c>
       <c r="G32" s="1" t="s">
-        <v>12</v>
+        <v>8</v>
       </c>
       <c r="H32" s="4" t="s">
-        <v>15</v>
+        <v>11</v>
       </c>
       <c r="I32" s="3">
         <v>1.3299999999999999E-2</v>
@@ -1909,10 +1909,10 @@
         <v>3.3249999999999998E-3</v>
       </c>
       <c r="L32" s="1" t="s">
-        <v>9</v>
+        <v>5</v>
       </c>
       <c r="M32" s="1" t="s">
-        <v>17</v>
+        <v>13</v>
       </c>
       <c r="N32" s="1">
         <v>0.21</v>
@@ -1935,13 +1935,13 @@
         <v>0.2</v>
       </c>
       <c r="F33" s="1" t="s">
-        <v>11</v>
+        <v>7</v>
       </c>
       <c r="G33" s="1" t="s">
-        <v>12</v>
+        <v>8</v>
       </c>
       <c r="H33" s="4" t="s">
-        <v>15</v>
+        <v>11</v>
       </c>
       <c r="I33" s="3">
         <v>0.84899999999999998</v>
@@ -1954,10 +1954,10 @@
         <v>0.21224999999999999</v>
       </c>
       <c r="L33" s="1" t="s">
-        <v>9</v>
+        <v>5</v>
       </c>
       <c r="M33" s="1" t="s">
-        <v>17</v>
+        <v>13</v>
       </c>
       <c r="N33" s="1">
         <v>0.21</v>
@@ -1980,13 +1980,13 @@
         <v>0.4</v>
       </c>
       <c r="F34" s="1" t="s">
-        <v>11</v>
+        <v>7</v>
       </c>
       <c r="G34" s="1" t="s">
-        <v>12</v>
+        <v>8</v>
       </c>
       <c r="H34" s="4" t="s">
-        <v>15</v>
+        <v>11</v>
       </c>
       <c r="I34" s="3">
         <v>0.78300000000000003</v>
@@ -1999,10 +1999,10 @@
         <v>0.19575000000000001</v>
       </c>
       <c r="L34" s="1" t="s">
-        <v>9</v>
+        <v>5</v>
       </c>
       <c r="M34" s="1" t="s">
-        <v>17</v>
+        <v>13</v>
       </c>
       <c r="N34" s="1">
         <v>0.21</v>
@@ -2025,13 +2025,13 @@
         <v>0.6</v>
       </c>
       <c r="F35" s="1" t="s">
-        <v>11</v>
+        <v>7</v>
       </c>
       <c r="G35" s="1" t="s">
-        <v>12</v>
+        <v>8</v>
       </c>
       <c r="H35" s="4" t="s">
-        <v>15</v>
+        <v>11</v>
       </c>
       <c r="I35" s="3">
         <v>0.65500000000000003</v>
@@ -2044,10 +2044,10 @@
         <v>0.16375000000000001</v>
       </c>
       <c r="L35" s="1" t="s">
-        <v>9</v>
+        <v>5</v>
       </c>
       <c r="M35" s="1" t="s">
-        <v>17</v>
+        <v>13</v>
       </c>
       <c r="N35" s="1">
         <v>0.21</v>
@@ -2070,13 +2070,13 @@
         <v>0.8</v>
       </c>
       <c r="F36" s="1" t="s">
-        <v>11</v>
+        <v>7</v>
       </c>
       <c r="G36" s="1" t="s">
-        <v>12</v>
+        <v>8</v>
       </c>
       <c r="H36" s="4" t="s">
-        <v>15</v>
+        <v>11</v>
       </c>
       <c r="I36" s="3">
         <v>0.54</v>
@@ -2089,10 +2089,10 @@
         <v>0.13500000000000001</v>
       </c>
       <c r="L36" s="1" t="s">
-        <v>9</v>
+        <v>5</v>
       </c>
       <c r="M36" s="1" t="s">
-        <v>17</v>
+        <v>13</v>
       </c>
       <c r="N36" s="1">
         <v>0.21</v>
@@ -2115,13 +2115,13 @@
         <v>1</v>
       </c>
       <c r="F37" s="1" t="s">
-        <v>11</v>
+        <v>7</v>
       </c>
       <c r="G37" s="1" t="s">
-        <v>12</v>
+        <v>8</v>
       </c>
       <c r="H37" s="4" t="s">
-        <v>15</v>
+        <v>11</v>
       </c>
       <c r="I37" s="3">
         <v>0.41399999999999998</v>
@@ -2134,10 +2134,10 @@
         <v>0.10349999999999999</v>
       </c>
       <c r="L37" s="1" t="s">
-        <v>9</v>
+        <v>5</v>
       </c>
       <c r="M37" s="1" t="s">
-        <v>17</v>
+        <v>13</v>
       </c>
       <c r="N37" s="1">
         <v>0.21</v>
@@ -2160,13 +2160,13 @@
         <v>1.2</v>
       </c>
       <c r="F38" s="1" t="s">
-        <v>11</v>
+        <v>7</v>
       </c>
       <c r="G38" s="1" t="s">
-        <v>12</v>
+        <v>8</v>
       </c>
       <c r="H38" s="4" t="s">
-        <v>15</v>
+        <v>11</v>
       </c>
       <c r="I38" s="3">
         <v>0.28600000000000003</v>
@@ -2179,10 +2179,10 @@
         <v>7.1500000000000008E-2</v>
       </c>
       <c r="L38" s="1" t="s">
-        <v>9</v>
+        <v>5</v>
       </c>
       <c r="M38" s="1" t="s">
-        <v>17</v>
+        <v>13</v>
       </c>
       <c r="N38" s="1">
         <v>0.21</v>
@@ -2205,13 +2205,13 @@
         <v>1.4</v>
       </c>
       <c r="F39" s="1" t="s">
-        <v>11</v>
+        <v>7</v>
       </c>
       <c r="G39" s="1" t="s">
-        <v>12</v>
+        <v>8</v>
       </c>
       <c r="H39" s="4" t="s">
-        <v>15</v>
+        <v>11</v>
       </c>
       <c r="I39" s="3">
         <v>0.187</v>
@@ -2224,10 +2224,10 @@
         <v>4.675E-2</v>
       </c>
       <c r="L39" s="1" t="s">
-        <v>9</v>
+        <v>5</v>
       </c>
       <c r="M39" s="1" t="s">
-        <v>17</v>
+        <v>13</v>
       </c>
       <c r="N39" s="1">
         <v>0.21</v>
@@ -2250,13 +2250,13 @@
         <v>1.6</v>
       </c>
       <c r="F40" s="1" t="s">
-        <v>11</v>
+        <v>7</v>
       </c>
       <c r="G40" s="1" t="s">
-        <v>12</v>
+        <v>8</v>
       </c>
       <c r="H40" s="4" t="s">
-        <v>15</v>
+        <v>11</v>
       </c>
       <c r="I40" s="3">
         <v>0.18200000000000002</v>
@@ -2269,10 +2269,10 @@
         <v>4.5500000000000006E-2</v>
       </c>
       <c r="L40" s="1" t="s">
-        <v>9</v>
+        <v>5</v>
       </c>
       <c r="M40" s="1" t="s">
-        <v>17</v>
+        <v>13</v>
       </c>
       <c r="N40" s="1">
         <v>0.21</v>
@@ -2295,13 +2295,13 @@
         <v>1.8</v>
       </c>
       <c r="F41" s="1" t="s">
-        <v>11</v>
+        <v>7</v>
       </c>
       <c r="G41" s="1" t="s">
-        <v>12</v>
+        <v>8</v>
       </c>
       <c r="H41" s="4" t="s">
-        <v>15</v>
+        <v>11</v>
       </c>
       <c r="I41" s="3">
         <v>0.11</v>
@@ -2314,10 +2314,10 @@
         <v>2.75E-2</v>
       </c>
       <c r="L41" s="1" t="s">
-        <v>9</v>
+        <v>5</v>
       </c>
       <c r="M41" s="1" t="s">
-        <v>17</v>
+        <v>13</v>
       </c>
       <c r="N41" s="1">
         <v>0.21</v>
@@ -2340,13 +2340,13 @@
         <v>2</v>
       </c>
       <c r="F42" s="1" t="s">
-        <v>11</v>
+        <v>7</v>
       </c>
       <c r="G42" s="1" t="s">
-        <v>12</v>
+        <v>8</v>
       </c>
       <c r="H42" s="4" t="s">
-        <v>15</v>
+        <v>11</v>
       </c>
       <c r="I42" s="3">
         <v>7.2000000000000008E-2</v>
@@ -2359,10 +2359,10 @@
         <v>1.8000000000000002E-2</v>
       </c>
       <c r="L42" s="1" t="s">
-        <v>9</v>
+        <v>5</v>
       </c>
       <c r="M42" s="1" t="s">
-        <v>17</v>
+        <v>13</v>
       </c>
       <c r="N42" s="1">
         <v>0.21</v>
@@ -2385,13 +2385,13 @@
         <v>2.2000000000000002</v>
       </c>
       <c r="F43" s="1" t="s">
-        <v>11</v>
+        <v>7</v>
       </c>
       <c r="G43" s="1" t="s">
-        <v>12</v>
+        <v>8</v>
       </c>
       <c r="H43" s="4" t="s">
-        <v>15</v>
+        <v>11</v>
       </c>
       <c r="I43" s="3">
         <v>4.0800000000000003E-2</v>
@@ -2404,10 +2404,10 @@
         <v>1.0200000000000001E-2</v>
       </c>
       <c r="L43" s="1" t="s">
-        <v>9</v>
+        <v>5</v>
       </c>
       <c r="M43" s="1" t="s">
-        <v>17</v>
+        <v>13</v>
       </c>
       <c r="N43" s="1">
         <v>0.21</v>
@@ -2430,13 +2430,13 @@
         <v>2.4</v>
       </c>
       <c r="F44" s="1" t="s">
-        <v>11</v>
+        <v>7</v>
       </c>
       <c r="G44" s="1" t="s">
-        <v>12</v>
+        <v>8</v>
       </c>
       <c r="H44" s="4" t="s">
-        <v>15</v>
+        <v>11</v>
       </c>
       <c r="I44" s="3">
         <v>2.1899999999999999E-2</v>
@@ -2449,10 +2449,10 @@
         <v>5.4749999999999998E-3</v>
       </c>
       <c r="L44" s="1" t="s">
-        <v>9</v>
+        <v>5</v>
       </c>
       <c r="M44" s="1" t="s">
-        <v>17</v>
+        <v>13</v>
       </c>
       <c r="N44" s="1">
         <v>0.21</v>
@@ -2475,13 +2475,13 @@
         <v>2.6</v>
       </c>
       <c r="F45" s="1" t="s">
-        <v>11</v>
+        <v>7</v>
       </c>
       <c r="G45" s="1" t="s">
-        <v>12</v>
+        <v>8</v>
       </c>
       <c r="H45" s="4" t="s">
-        <v>15</v>
+        <v>11</v>
       </c>
       <c r="I45" s="3">
         <v>1.9E-2</v>
@@ -2494,10 +2494,10 @@
         <v>4.7499999999999999E-3</v>
       </c>
       <c r="L45" s="1" t="s">
-        <v>9</v>
+        <v>5</v>
       </c>
       <c r="M45" s="1" t="s">
-        <v>17</v>
+        <v>13</v>
       </c>
       <c r="N45" s="1">
         <v>0.21</v>
@@ -2520,13 +2520,13 @@
         <v>2.8</v>
       </c>
       <c r="F46" s="1" t="s">
-        <v>11</v>
+        <v>7</v>
       </c>
       <c r="G46" s="1" t="s">
-        <v>12</v>
+        <v>8</v>
       </c>
       <c r="H46" s="4" t="s">
-        <v>15</v>
+        <v>11</v>
       </c>
       <c r="I46" s="3">
         <v>7.9000000000000008E-3</v>
@@ -2539,10 +2539,10 @@
         <v>1.9750000000000002E-3</v>
       </c>
       <c r="L46" s="1" t="s">
-        <v>9</v>
+        <v>5</v>
       </c>
       <c r="M46" s="1" t="s">
-        <v>17</v>
+        <v>13</v>
       </c>
       <c r="N46" s="1">
         <v>0.21</v>
@@ -2565,13 +2565,13 @@
         <v>3</v>
       </c>
       <c r="F47" s="1" t="s">
-        <v>11</v>
+        <v>7</v>
       </c>
       <c r="G47" s="1" t="s">
-        <v>12</v>
+        <v>8</v>
       </c>
       <c r="H47" s="4" t="s">
-        <v>15</v>
+        <v>11</v>
       </c>
       <c r="I47" s="3">
         <v>1.1000000000000001E-2</v>
@@ -2584,10 +2584,10 @@
         <v>2.7500000000000003E-3</v>
       </c>
       <c r="L47" s="1" t="s">
-        <v>9</v>
+        <v>5</v>
       </c>
       <c r="M47" s="1" t="s">
-        <v>17</v>
+        <v>13</v>
       </c>
       <c r="N47" s="1">
         <v>0.21</v>
@@ -2610,13 +2610,13 @@
         <v>3.2</v>
       </c>
       <c r="F48" s="1" t="s">
-        <v>11</v>
+        <v>7</v>
       </c>
       <c r="G48" s="1" t="s">
-        <v>12</v>
+        <v>8</v>
       </c>
       <c r="H48" s="4" t="s">
-        <v>15</v>
+        <v>11</v>
       </c>
       <c r="I48" s="3">
         <v>1.9000000000000002E-3</v>
@@ -2629,10 +2629,10 @@
         <v>4.7500000000000005E-4</v>
       </c>
       <c r="L48" s="1" t="s">
-        <v>9</v>
+        <v>5</v>
       </c>
       <c r="M48" s="1" t="s">
-        <v>17</v>
+        <v>13</v>
       </c>
       <c r="N48" s="1">
         <v>0.21</v>
@@ -2655,13 +2655,13 @@
         <v>3.4</v>
       </c>
       <c r="F49" s="1" t="s">
-        <v>11</v>
+        <v>7</v>
       </c>
       <c r="G49" s="1" t="s">
-        <v>12</v>
+        <v>8</v>
       </c>
       <c r="H49" s="4" t="s">
-        <v>15</v>
+        <v>11</v>
       </c>
       <c r="I49" s="3">
         <v>2.3000000000000004E-3</v>
@@ -2674,10 +2674,10 @@
         <v>5.750000000000001E-4</v>
       </c>
       <c r="L49" s="1" t="s">
-        <v>9</v>
+        <v>5</v>
       </c>
       <c r="M49" s="1" t="s">
-        <v>17</v>
+        <v>13</v>
       </c>
       <c r="N49" s="1">
         <v>0.21</v>
@@ -2700,13 +2700,13 @@
         <v>3.8</v>
       </c>
       <c r="F50" s="1" t="s">
-        <v>11</v>
+        <v>7</v>
       </c>
       <c r="G50" s="1" t="s">
-        <v>12</v>
+        <v>8</v>
       </c>
       <c r="H50" s="4" t="s">
-        <v>15</v>
+        <v>11</v>
       </c>
       <c r="I50" s="3">
         <v>2.8000000000000004E-3</v>
@@ -2719,10 +2719,10 @@
         <v>7.000000000000001E-4</v>
       </c>
       <c r="L50" s="1" t="s">
-        <v>9</v>
+        <v>5</v>
       </c>
       <c r="M50" s="1" t="s">
-        <v>17</v>
+        <v>13</v>
       </c>
       <c r="N50" s="1">
         <v>0.21</v>
@@ -2745,13 +2745,13 @@
         <v>0.2</v>
       </c>
       <c r="F51" s="1" t="s">
-        <v>11</v>
+        <v>7</v>
       </c>
       <c r="G51" s="1" t="s">
-        <v>12</v>
+        <v>8</v>
       </c>
       <c r="H51" s="4" t="s">
-        <v>15</v>
+        <v>11</v>
       </c>
       <c r="I51" s="3">
         <v>0.28600000000000003</v>
@@ -2764,10 +2764,10 @@
         <v>7.1500000000000008E-2</v>
       </c>
       <c r="L51" s="1" t="s">
-        <v>9</v>
+        <v>5</v>
       </c>
       <c r="M51" s="1" t="s">
-        <v>17</v>
+        <v>13</v>
       </c>
       <c r="N51" s="1">
         <v>0.21</v>
@@ -2790,13 +2790,13 @@
         <v>0.4</v>
       </c>
       <c r="F52" s="1" t="s">
-        <v>11</v>
+        <v>7</v>
       </c>
       <c r="G52" s="1" t="s">
-        <v>12</v>
+        <v>8</v>
       </c>
       <c r="H52" s="4" t="s">
-        <v>15</v>
+        <v>11</v>
       </c>
       <c r="I52" s="3">
         <v>0.253</v>
@@ -2809,10 +2809,10 @@
         <v>6.3250000000000001E-2</v>
       </c>
       <c r="L52" s="1" t="s">
-        <v>9</v>
+        <v>5</v>
       </c>
       <c r="M52" s="1" t="s">
-        <v>17</v>
+        <v>13</v>
       </c>
       <c r="N52" s="1">
         <v>0.21</v>
@@ -2835,13 +2835,13 @@
         <v>0.6</v>
       </c>
       <c r="F53" s="1" t="s">
-        <v>11</v>
+        <v>7</v>
       </c>
       <c r="G53" s="1" t="s">
-        <v>12</v>
+        <v>8</v>
       </c>
       <c r="H53" s="4" t="s">
-        <v>15</v>
+        <v>11</v>
       </c>
       <c r="I53" s="3">
         <v>0.23700000000000002</v>
@@ -2854,10 +2854,10 @@
         <v>5.9250000000000004E-2</v>
       </c>
       <c r="L53" s="1" t="s">
-        <v>9</v>
+        <v>5</v>
       </c>
       <c r="M53" s="1" t="s">
-        <v>17</v>
+        <v>13</v>
       </c>
       <c r="N53" s="1">
         <v>0.21</v>
@@ -2880,13 +2880,13 @@
         <v>0.8</v>
       </c>
       <c r="F54" s="1" t="s">
-        <v>11</v>
+        <v>7</v>
       </c>
       <c r="G54" s="1" t="s">
-        <v>12</v>
+        <v>8</v>
       </c>
       <c r="H54" s="4" t="s">
-        <v>15</v>
+        <v>11</v>
       </c>
       <c r="I54" s="3">
         <v>0.19700000000000001</v>
@@ -2899,10 +2899,10 @@
         <v>4.9250000000000002E-2</v>
       </c>
       <c r="L54" s="1" t="s">
-        <v>9</v>
+        <v>5</v>
       </c>
       <c r="M54" s="1" t="s">
-        <v>17</v>
+        <v>13</v>
       </c>
       <c r="N54" s="1">
         <v>0.21</v>
@@ -2925,13 +2925,13 @@
         <v>1</v>
       </c>
       <c r="F55" s="1" t="s">
-        <v>11</v>
+        <v>7</v>
       </c>
       <c r="G55" s="1" t="s">
-        <v>12</v>
+        <v>8</v>
       </c>
       <c r="H55" s="4" t="s">
-        <v>15</v>
+        <v>11</v>
       </c>
       <c r="I55" s="3">
         <v>0.14500000000000002</v>
@@ -2944,10 +2944,10 @@
         <v>3.6250000000000004E-2</v>
       </c>
       <c r="L55" s="1" t="s">
-        <v>9</v>
+        <v>5</v>
       </c>
       <c r="M55" s="1" t="s">
-        <v>17</v>
+        <v>13</v>
       </c>
       <c r="N55" s="1">
         <v>0.21</v>
@@ -2970,13 +2970,13 @@
         <v>1.2</v>
       </c>
       <c r="F56" s="1" t="s">
-        <v>11</v>
+        <v>7</v>
       </c>
       <c r="G56" s="1" t="s">
-        <v>12</v>
+        <v>8</v>
       </c>
       <c r="H56" s="4" t="s">
-        <v>15</v>
+        <v>11</v>
       </c>
       <c r="I56" s="3">
         <v>0.11</v>
@@ -2989,10 +2989,10 @@
         <v>2.75E-2</v>
       </c>
       <c r="L56" s="1" t="s">
-        <v>9</v>
+        <v>5</v>
       </c>
       <c r="M56" s="1" t="s">
-        <v>17</v>
+        <v>13</v>
       </c>
       <c r="N56" s="1">
         <v>0.21</v>
@@ -3015,13 +3015,13 @@
         <v>1.4</v>
       </c>
       <c r="F57" s="1" t="s">
-        <v>11</v>
+        <v>7</v>
       </c>
       <c r="G57" s="1" t="s">
-        <v>12</v>
+        <v>8</v>
       </c>
       <c r="H57" s="4" t="s">
-        <v>15</v>
+        <v>11</v>
       </c>
       <c r="I57" s="3">
         <v>7.8100000000000003E-2</v>
@@ -3034,10 +3034,10 @@
         <v>1.9525000000000001E-2</v>
       </c>
       <c r="L57" s="1" t="s">
-        <v>9</v>
+        <v>5</v>
       </c>
       <c r="M57" s="1" t="s">
-        <v>17</v>
+        <v>13</v>
       </c>
       <c r="N57" s="1">
         <v>0.21</v>
@@ -3060,13 +3060,13 @@
         <v>1.6</v>
       </c>
       <c r="F58" s="1" t="s">
-        <v>11</v>
+        <v>7</v>
       </c>
       <c r="G58" s="1" t="s">
-        <v>12</v>
+        <v>8</v>
       </c>
       <c r="H58" s="4" t="s">
-        <v>15</v>
+        <v>11</v>
       </c>
       <c r="I58" s="3">
         <v>3.7999999999999999E-2</v>
@@ -3079,10 +3079,10 @@
         <v>9.4999999999999998E-3</v>
       </c>
       <c r="L58" s="1" t="s">
-        <v>9</v>
+        <v>5</v>
       </c>
       <c r="M58" s="1" t="s">
-        <v>17</v>
+        <v>13</v>
       </c>
       <c r="N58" s="1">
         <v>0.21</v>
@@ -3105,13 +3105,13 @@
         <v>1.8</v>
       </c>
       <c r="F59" s="1" t="s">
-        <v>11</v>
+        <v>7</v>
       </c>
       <c r="G59" s="1" t="s">
-        <v>12</v>
+        <v>8</v>
       </c>
       <c r="H59" s="4" t="s">
-        <v>15</v>
+        <v>11</v>
       </c>
       <c r="I59" s="3">
         <v>4.6399999999999997E-2</v>
@@ -3124,10 +3124,10 @@
         <v>1.1599999999999999E-2</v>
       </c>
       <c r="L59" s="1" t="s">
-        <v>9</v>
+        <v>5</v>
       </c>
       <c r="M59" s="1" t="s">
-        <v>17</v>
+        <v>13</v>
       </c>
       <c r="N59" s="1">
         <v>0.21</v>
@@ -3150,13 +3150,13 @@
         <v>2</v>
       </c>
       <c r="F60" s="1" t="s">
-        <v>11</v>
+        <v>7</v>
       </c>
       <c r="G60" s="1" t="s">
-        <v>12</v>
+        <v>8</v>
       </c>
       <c r="H60" s="4" t="s">
-        <v>15</v>
+        <v>11</v>
       </c>
       <c r="I60" s="3">
         <v>1.9200000000000002E-2</v>
@@ -3169,10 +3169,10 @@
         <v>4.8000000000000004E-3</v>
       </c>
       <c r="L60" s="1" t="s">
-        <v>9</v>
+        <v>5</v>
       </c>
       <c r="M60" s="1" t="s">
-        <v>17</v>
+        <v>13</v>
       </c>
       <c r="N60" s="1">
         <v>0.21</v>
@@ -3195,13 +3195,13 @@
         <v>2.2000000000000002</v>
       </c>
       <c r="F61" s="1" t="s">
-        <v>11</v>
+        <v>7</v>
       </c>
       <c r="G61" s="1" t="s">
-        <v>12</v>
+        <v>8</v>
       </c>
       <c r="H61" s="4" t="s">
-        <v>15</v>
+        <v>11</v>
       </c>
       <c r="I61" s="3">
         <v>2.5000000000000001E-2</v>
@@ -3214,10 +3214,10 @@
         <v>6.2500000000000003E-3</v>
       </c>
       <c r="L61" s="1" t="s">
-        <v>9</v>
+        <v>5</v>
       </c>
       <c r="M61" s="1" t="s">
-        <v>17</v>
+        <v>13</v>
       </c>
       <c r="N61" s="1">
         <v>0.21</v>
@@ -3240,13 +3240,13 @@
         <v>2.4</v>
       </c>
       <c r="F62" s="1" t="s">
-        <v>11</v>
+        <v>7</v>
       </c>
       <c r="G62" s="1" t="s">
-        <v>12</v>
+        <v>8</v>
       </c>
       <c r="H62" s="4" t="s">
-        <v>15</v>
+        <v>11</v>
       </c>
       <c r="I62" s="3">
         <v>1.18E-2</v>
@@ -3259,10 +3259,10 @@
         <v>2.9499999999999999E-3</v>
       </c>
       <c r="L62" s="1" t="s">
-        <v>9</v>
+        <v>5</v>
       </c>
       <c r="M62" s="1" t="s">
-        <v>17</v>
+        <v>13</v>
       </c>
       <c r="N62" s="1">
         <v>0.21</v>
@@ -3285,13 +3285,13 @@
         <v>2.6</v>
       </c>
       <c r="F63" s="1" t="s">
-        <v>11</v>
+        <v>7</v>
       </c>
       <c r="G63" s="1" t="s">
-        <v>12</v>
+        <v>8</v>
       </c>
       <c r="H63" s="4" t="s">
-        <v>15</v>
+        <v>11</v>
       </c>
       <c r="I63" s="3">
         <v>5.1999999999999998E-3</v>
@@ -3304,10 +3304,10 @@
         <v>1.2999999999999999E-3</v>
       </c>
       <c r="L63" s="1" t="s">
-        <v>9</v>
+        <v>5</v>
       </c>
       <c r="M63" s="1" t="s">
-        <v>17</v>
+        <v>13</v>
       </c>
       <c r="N63" s="1">
         <v>0.21</v>
@@ -3330,13 +3330,13 @@
         <v>3</v>
       </c>
       <c r="F64" s="1" t="s">
-        <v>11</v>
+        <v>7</v>
       </c>
       <c r="G64" s="1" t="s">
-        <v>12</v>
+        <v>8</v>
       </c>
       <c r="H64" s="4" t="s">
-        <v>15</v>
+        <v>11</v>
       </c>
       <c r="I64" s="3">
         <v>1.1000000000000001E-3</v>
@@ -3349,10 +3349,10 @@
         <v>2.7500000000000002E-4</v>
       </c>
       <c r="L64" s="1" t="s">
-        <v>9</v>
+        <v>5</v>
       </c>
       <c r="M64" s="1" t="s">
-        <v>17</v>
+        <v>13</v>
       </c>
       <c r="N64" s="1">
         <v>0.21</v>
@@ -3375,13 +3375,13 @@
         <v>3.2</v>
       </c>
       <c r="F65" s="1" t="s">
-        <v>11</v>
+        <v>7</v>
       </c>
       <c r="G65" s="1" t="s">
-        <v>12</v>
+        <v>8</v>
       </c>
       <c r="H65" s="4" t="s">
-        <v>15</v>
+        <v>11</v>
       </c>
       <c r="I65" s="3">
         <v>1.2000000000000001E-3</v>
@@ -3394,10 +3394,10 @@
         <v>3.0000000000000003E-4</v>
       </c>
       <c r="L65" s="1" t="s">
-        <v>9</v>
+        <v>5</v>
       </c>
       <c r="M65" s="1" t="s">
-        <v>17</v>
+        <v>13</v>
       </c>
       <c r="N65" s="1">
         <v>0.21</v>
@@ -3420,13 +3420,13 @@
         <v>4.2</v>
       </c>
       <c r="F66" s="1" t="s">
-        <v>11</v>
+        <v>7</v>
       </c>
       <c r="G66" s="1" t="s">
-        <v>12</v>
+        <v>8</v>
       </c>
       <c r="H66" s="4" t="s">
-        <v>15</v>
+        <v>11</v>
       </c>
       <c r="I66" s="3">
         <v>1.7000000000000001E-3</v>
@@ -3439,10 +3439,10 @@
         <v>4.2500000000000003E-4</v>
       </c>
       <c r="L66" s="1" t="s">
-        <v>9</v>
+        <v>5</v>
       </c>
       <c r="M66" s="1" t="s">
-        <v>17</v>
+        <v>13</v>
       </c>
       <c r="N66" s="1">
         <v>0.21</v>
@@ -3465,13 +3465,13 @@
         <v>4.5999999999999996</v>
       </c>
       <c r="F67" s="1" t="s">
-        <v>11</v>
+        <v>7</v>
       </c>
       <c r="G67" s="1" t="s">
-        <v>12</v>
+        <v>8</v>
       </c>
       <c r="H67" s="4" t="s">
-        <v>15</v>
+        <v>11</v>
       </c>
       <c r="I67" s="3">
         <v>1.7000000000000001E-3</v>
@@ -3484,10 +3484,10 @@
         <v>4.2500000000000003E-4</v>
       </c>
       <c r="L67" s="1" t="s">
-        <v>9</v>
+        <v>5</v>
       </c>
       <c r="M67" s="1" t="s">
-        <v>17</v>
+        <v>13</v>
       </c>
       <c r="N67" s="1">
         <v>0.21</v>
@@ -3510,13 +3510,13 @@
         <v>0.2</v>
       </c>
       <c r="F68" s="1" t="s">
-        <v>11</v>
+        <v>7</v>
       </c>
       <c r="G68" s="1" t="s">
-        <v>12</v>
+        <v>8</v>
       </c>
       <c r="H68" s="4" t="s">
-        <v>15</v>
+        <v>11</v>
       </c>
       <c r="I68" s="3">
         <v>9.6000000000000016E-2</v>
@@ -3529,10 +3529,10 @@
         <v>2.4000000000000004E-2</v>
       </c>
       <c r="L68" s="1" t="s">
-        <v>9</v>
+        <v>5</v>
       </c>
       <c r="M68" s="1" t="s">
-        <v>17</v>
+        <v>13</v>
       </c>
       <c r="N68" s="1">
         <v>0.21</v>
@@ -3555,13 +3555,13 @@
         <v>0.4</v>
       </c>
       <c r="F69" s="1" t="s">
-        <v>11</v>
+        <v>7</v>
       </c>
       <c r="G69" s="1" t="s">
-        <v>12</v>
+        <v>8</v>
       </c>
       <c r="H69" s="4" t="s">
-        <v>15</v>
+        <v>11</v>
       </c>
       <c r="I69" s="3">
         <v>7.0000000000000007E-2</v>
@@ -3574,10 +3574,10 @@
         <v>1.7500000000000002E-2</v>
       </c>
       <c r="L69" s="1" t="s">
-        <v>9</v>
+        <v>5</v>
       </c>
       <c r="M69" s="1" t="s">
-        <v>17</v>
+        <v>13</v>
       </c>
       <c r="N69" s="1">
         <v>0.21</v>
@@ -3600,13 +3600,13 @@
         <v>0.6</v>
       </c>
       <c r="F70" s="1" t="s">
-        <v>11</v>
+        <v>7</v>
       </c>
       <c r="G70" s="1" t="s">
-        <v>12</v>
+        <v>8</v>
       </c>
       <c r="H70" s="4" t="s">
-        <v>15</v>
+        <v>11</v>
       </c>
       <c r="I70" s="3">
         <v>7.0000000000000007E-2</v>
@@ -3619,10 +3619,10 @@
         <v>1.7500000000000002E-2</v>
       </c>
       <c r="L70" s="1" t="s">
-        <v>9</v>
+        <v>5</v>
       </c>
       <c r="M70" s="1" t="s">
-        <v>17</v>
+        <v>13</v>
       </c>
       <c r="N70" s="1">
         <v>0.21</v>
@@ -3645,13 +3645,13 @@
         <v>0.8</v>
       </c>
       <c r="F71" s="1" t="s">
-        <v>11</v>
+        <v>7</v>
       </c>
       <c r="G71" s="1" t="s">
-        <v>12</v>
+        <v>8</v>
       </c>
       <c r="H71" s="4" t="s">
-        <v>15</v>
+        <v>11</v>
       </c>
       <c r="I71" s="3">
         <v>7.3000000000000009E-2</v>
@@ -3664,10 +3664,10 @@
         <v>1.8250000000000002E-2</v>
       </c>
       <c r="L71" s="1" t="s">
-        <v>9</v>
+        <v>5</v>
       </c>
       <c r="M71" s="1" t="s">
-        <v>17</v>
+        <v>13</v>
       </c>
       <c r="N71" s="1">
         <v>0.21</v>
@@ -3690,13 +3690,13 @@
         <v>1</v>
       </c>
       <c r="F72" s="1" t="s">
-        <v>11</v>
+        <v>7</v>
       </c>
       <c r="G72" s="1" t="s">
-        <v>12</v>
+        <v>8</v>
       </c>
       <c r="H72" s="4" t="s">
-        <v>15</v>
+        <v>11</v>
       </c>
       <c r="I72" s="3">
         <v>5.3000000000000005E-2</v>
@@ -3709,10 +3709,10 @@
         <v>1.3250000000000001E-2</v>
       </c>
       <c r="L72" s="1" t="s">
-        <v>9</v>
+        <v>5</v>
       </c>
       <c r="M72" s="1" t="s">
-        <v>17</v>
+        <v>13</v>
       </c>
       <c r="N72" s="1">
         <v>0.21</v>
@@ -3735,13 +3735,13 @@
         <v>1.2</v>
       </c>
       <c r="F73" s="1" t="s">
-        <v>11</v>
+        <v>7</v>
       </c>
       <c r="G73" s="1" t="s">
-        <v>12</v>
+        <v>8</v>
       </c>
       <c r="H73" s="4" t="s">
-        <v>15</v>
+        <v>11</v>
       </c>
       <c r="I73" s="3">
         <v>5.2000000000000005E-2</v>
@@ -3754,10 +3754,10 @@
         <v>1.3000000000000001E-2</v>
       </c>
       <c r="L73" s="1" t="s">
-        <v>9</v>
+        <v>5</v>
       </c>
       <c r="M73" s="1" t="s">
-        <v>17</v>
+        <v>13</v>
       </c>
       <c r="N73" s="1">
         <v>0.21</v>
@@ -3780,13 +3780,13 @@
         <v>1.4</v>
       </c>
       <c r="F74" s="1" t="s">
-        <v>11</v>
+        <v>7</v>
       </c>
       <c r="G74" s="1" t="s">
-        <v>12</v>
+        <v>8</v>
       </c>
       <c r="H74" s="4" t="s">
-        <v>15</v>
+        <v>11</v>
       </c>
       <c r="I74" s="3">
         <v>3.2000000000000001E-2</v>
@@ -3799,10 +3799,10 @@
         <v>8.0000000000000002E-3</v>
       </c>
       <c r="L74" s="1" t="s">
-        <v>9</v>
+        <v>5</v>
       </c>
       <c r="M74" s="1" t="s">
-        <v>17</v>
+        <v>13</v>
       </c>
       <c r="N74" s="1">
         <v>0.21</v>
@@ -3825,13 +3825,13 @@
         <v>1.6</v>
       </c>
       <c r="F75" s="1" t="s">
-        <v>11</v>
+        <v>7</v>
       </c>
       <c r="G75" s="1" t="s">
-        <v>12</v>
+        <v>8</v>
       </c>
       <c r="H75" s="4" t="s">
-        <v>15</v>
+        <v>11</v>
       </c>
       <c r="I75" s="3">
         <v>1.8000000000000002E-2</v>
@@ -3844,10 +3844,10 @@
         <v>4.5000000000000005E-3</v>
       </c>
       <c r="L75" s="1" t="s">
-        <v>9</v>
+        <v>5</v>
       </c>
       <c r="M75" s="1" t="s">
-        <v>17</v>
+        <v>13</v>
       </c>
       <c r="N75" s="1">
         <v>0.21</v>
@@ -3870,13 +3870,13 @@
         <v>1.8</v>
       </c>
       <c r="F76" s="1" t="s">
-        <v>11</v>
+        <v>7</v>
       </c>
       <c r="G76" s="1" t="s">
-        <v>12</v>
+        <v>8</v>
       </c>
       <c r="H76" s="4" t="s">
-        <v>15</v>
+        <v>11</v>
       </c>
       <c r="I76" s="3">
         <v>1.0200000000000001E-2</v>
@@ -3889,10 +3889,10 @@
         <v>2.5500000000000002E-3</v>
       </c>
       <c r="L76" s="1" t="s">
-        <v>9</v>
+        <v>5</v>
       </c>
       <c r="M76" s="1" t="s">
-        <v>17</v>
+        <v>13</v>
       </c>
       <c r="N76" s="1">
         <v>0.21</v>
@@ -3915,13 +3915,13 @@
         <v>2</v>
       </c>
       <c r="F77" s="1" t="s">
-        <v>11</v>
+        <v>7</v>
       </c>
       <c r="G77" s="1" t="s">
-        <v>12</v>
+        <v>8</v>
       </c>
       <c r="H77" s="4" t="s">
-        <v>15</v>
+        <v>11</v>
       </c>
       <c r="I77" s="3">
         <v>2.3000000000000004E-3</v>
@@ -3934,10 +3934,10 @@
         <v>5.750000000000001E-4</v>
       </c>
       <c r="L77" s="1" t="s">
-        <v>9</v>
+        <v>5</v>
       </c>
       <c r="M77" s="1" t="s">
-        <v>17</v>
+        <v>13</v>
       </c>
       <c r="N77" s="1">
         <v>0.21</v>
@@ -3960,13 +3960,13 @@
         <v>2.2000000000000002</v>
       </c>
       <c r="F78" s="1" t="s">
-        <v>11</v>
+        <v>7</v>
       </c>
       <c r="G78" s="1" t="s">
-        <v>12</v>
+        <v>8</v>
       </c>
       <c r="H78" s="4" t="s">
-        <v>15</v>
+        <v>11</v>
       </c>
       <c r="I78" s="3">
         <v>7.0000000000000001E-3</v>
@@ -3979,10 +3979,10 @@
         <v>1.75E-3</v>
       </c>
       <c r="L78" s="1" t="s">
-        <v>9</v>
+        <v>5</v>
       </c>
       <c r="M78" s="1" t="s">
-        <v>17</v>
+        <v>13</v>
       </c>
       <c r="N78" s="1">
         <v>0.21</v>
@@ -4005,13 +4005,13 @@
         <v>2.4</v>
       </c>
       <c r="F79" s="1" t="s">
-        <v>11</v>
+        <v>7</v>
       </c>
       <c r="G79" s="1" t="s">
-        <v>12</v>
+        <v>8</v>
       </c>
       <c r="H79" s="4" t="s">
-        <v>15</v>
+        <v>11</v>
       </c>
       <c r="I79" s="3">
         <v>1.5999999999999999E-3</v>
@@ -4024,10 +4024,10 @@
         <v>3.9999999999999996E-4</v>
       </c>
       <c r="L79" s="1" t="s">
-        <v>9</v>
+        <v>5</v>
       </c>
       <c r="M79" s="1" t="s">
-        <v>17</v>
+        <v>13</v>
       </c>
       <c r="N79" s="1">
         <v>0.21</v>
@@ -4050,13 +4050,13 @@
         <v>2.6</v>
       </c>
       <c r="F80" s="1" t="s">
-        <v>11</v>
+        <v>7</v>
       </c>
       <c r="G80" s="1" t="s">
-        <v>12</v>
+        <v>8</v>
       </c>
       <c r="H80" s="4" t="s">
-        <v>15</v>
+        <v>11</v>
       </c>
       <c r="I80" s="3">
         <v>8.8000000000000003E-4</v>
@@ -4069,10 +4069,10 @@
         <v>2.2000000000000001E-4</v>
       </c>
       <c r="L80" s="1" t="s">
-        <v>9</v>
+        <v>5</v>
       </c>
       <c r="M80" s="1" t="s">
-        <v>17</v>
+        <v>13</v>
       </c>
       <c r="N80" s="1">
         <v>0.21</v>
@@ -4095,13 +4095,13 @@
         <v>3.2</v>
       </c>
       <c r="F81" s="1" t="s">
-        <v>11</v>
+        <v>7</v>
       </c>
       <c r="G81" s="1" t="s">
-        <v>12</v>
+        <v>8</v>
       </c>
       <c r="H81" s="4" t="s">
-        <v>15</v>
+        <v>11</v>
       </c>
       <c r="I81" s="3">
         <v>1E-3</v>
@@ -4114,10 +4114,10 @@
         <v>2.5000000000000001E-4</v>
       </c>
       <c r="L81" s="1" t="s">
-        <v>9</v>
+        <v>5</v>
       </c>
       <c r="M81" s="1" t="s">
-        <v>17</v>
+        <v>13</v>
       </c>
       <c r="N81" s="1">
         <v>0.21</v>
@@ -4140,13 +4140,13 @@
         <v>0.2</v>
       </c>
       <c r="F82" s="1" t="s">
-        <v>11</v>
+        <v>7</v>
       </c>
       <c r="G82" s="1" t="s">
-        <v>12</v>
+        <v>8</v>
       </c>
       <c r="H82" s="4" t="s">
-        <v>15</v>
+        <v>11</v>
       </c>
       <c r="I82" s="3">
         <v>9.1000000000000011E-2</v>
@@ -4159,10 +4159,10 @@
         <v>2.2750000000000003E-2</v>
       </c>
       <c r="L82" s="1" t="s">
-        <v>9</v>
+        <v>5</v>
       </c>
       <c r="M82" s="1" t="s">
-        <v>17</v>
+        <v>13</v>
       </c>
       <c r="N82" s="1">
         <v>0.21</v>
@@ -4185,13 +4185,13 @@
         <v>0.4</v>
       </c>
       <c r="F83" s="1" t="s">
-        <v>11</v>
+        <v>7</v>
       </c>
       <c r="G83" s="1" t="s">
-        <v>12</v>
+        <v>8</v>
       </c>
       <c r="H83" s="4" t="s">
-        <v>15</v>
+        <v>11</v>
       </c>
       <c r="I83" s="3">
         <v>6.6000000000000003E-2</v>
@@ -4204,10 +4204,10 @@
         <v>1.6500000000000001E-2</v>
       </c>
       <c r="L83" s="1" t="s">
-        <v>9</v>
+        <v>5</v>
       </c>
       <c r="M83" s="1" t="s">
-        <v>17</v>
+        <v>13</v>
       </c>
       <c r="N83" s="1">
         <v>0.21</v>
@@ -4230,13 +4230,13 @@
         <v>0.6</v>
       </c>
       <c r="F84" s="1" t="s">
-        <v>11</v>
+        <v>7</v>
       </c>
       <c r="G84" s="1" t="s">
-        <v>12</v>
+        <v>8</v>
       </c>
       <c r="H84" s="4" t="s">
-        <v>15</v>
+        <v>11</v>
       </c>
       <c r="I84" s="3">
         <v>6.6000000000000003E-2</v>
@@ -4249,10 +4249,10 @@
         <v>1.6500000000000001E-2</v>
       </c>
       <c r="L84" s="1" t="s">
-        <v>9</v>
+        <v>5</v>
       </c>
       <c r="M84" s="1" t="s">
-        <v>17</v>
+        <v>13</v>
       </c>
       <c r="N84" s="1">
         <v>0.21</v>
@@ -4275,13 +4275,13 @@
         <v>0.8</v>
       </c>
       <c r="F85" s="1" t="s">
-        <v>11</v>
+        <v>7</v>
       </c>
       <c r="G85" s="1" t="s">
-        <v>12</v>
+        <v>8</v>
       </c>
       <c r="H85" s="4" t="s">
-        <v>15</v>
+        <v>11</v>
       </c>
       <c r="I85" s="3">
         <v>6.9000000000000006E-2</v>
@@ -4294,10 +4294,10 @@
         <v>1.7250000000000001E-2</v>
       </c>
       <c r="L85" s="1" t="s">
-        <v>9</v>
+        <v>5</v>
       </c>
       <c r="M85" s="1" t="s">
-        <v>17</v>
+        <v>13</v>
       </c>
       <c r="N85" s="1">
         <v>0.21</v>
@@ -4320,13 +4320,13 @@
         <v>1</v>
       </c>
       <c r="F86" s="1" t="s">
-        <v>11</v>
+        <v>7</v>
       </c>
       <c r="G86" s="1" t="s">
-        <v>12</v>
+        <v>8</v>
       </c>
       <c r="H86" s="4" t="s">
-        <v>15</v>
+        <v>11</v>
       </c>
       <c r="I86" s="3">
         <v>0.05</v>
@@ -4339,10 +4339,10 @@
         <v>1.2500000000000001E-2</v>
       </c>
       <c r="L86" s="1" t="s">
-        <v>9</v>
+        <v>5</v>
       </c>
       <c r="M86" s="1" t="s">
-        <v>17</v>
+        <v>13</v>
       </c>
       <c r="N86" s="1">
         <v>0.21</v>
@@ -4365,13 +4365,13 @@
         <v>1.2</v>
       </c>
       <c r="F87" s="1" t="s">
-        <v>11</v>
+        <v>7</v>
       </c>
       <c r="G87" s="1" t="s">
-        <v>12</v>
+        <v>8</v>
       </c>
       <c r="H87" s="4" t="s">
-        <v>15</v>
+        <v>11</v>
       </c>
       <c r="I87" s="3">
         <v>0.05</v>
@@ -4384,10 +4384,10 @@
         <v>1.2500000000000001E-2</v>
       </c>
       <c r="L87" s="1" t="s">
-        <v>9</v>
+        <v>5</v>
       </c>
       <c r="M87" s="1" t="s">
-        <v>17</v>
+        <v>13</v>
       </c>
       <c r="N87" s="1">
         <v>0.21</v>
@@ -4410,13 +4410,13 @@
         <v>1.4</v>
       </c>
       <c r="F88" s="1" t="s">
-        <v>11</v>
+        <v>7</v>
       </c>
       <c r="G88" s="1" t="s">
-        <v>12</v>
+        <v>8</v>
       </c>
       <c r="H88" s="4" t="s">
-        <v>15</v>
+        <v>11</v>
       </c>
       <c r="I88" s="3">
         <v>0.03</v>
@@ -4429,10 +4429,10 @@
         <v>7.4999999999999997E-3</v>
       </c>
       <c r="L88" s="1" t="s">
-        <v>9</v>
+        <v>5</v>
       </c>
       <c r="M88" s="1" t="s">
-        <v>17</v>
+        <v>13</v>
       </c>
       <c r="N88" s="1">
         <v>0.21</v>
@@ -4455,13 +4455,13 @@
         <v>1.6</v>
       </c>
       <c r="F89" s="1" t="s">
-        <v>11</v>
+        <v>7</v>
       </c>
       <c r="G89" s="1" t="s">
-        <v>12</v>
+        <v>8</v>
       </c>
       <c r="H89" s="4" t="s">
-        <v>15</v>
+        <v>11</v>
       </c>
       <c r="I89" s="3">
         <v>1.66E-2</v>
@@ -4474,10 +4474,10 @@
         <v>4.15E-3</v>
       </c>
       <c r="L89" s="1" t="s">
-        <v>9</v>
+        <v>5</v>
       </c>
       <c r="M89" s="1" t="s">
-        <v>17</v>
+        <v>13</v>
       </c>
       <c r="N89" s="1">
         <v>0.21</v>
@@ -4500,13 +4500,13 @@
         <v>1.8</v>
       </c>
       <c r="F90" s="1" t="s">
-        <v>11</v>
+        <v>7</v>
       </c>
       <c r="G90" s="1" t="s">
-        <v>12</v>
+        <v>8</v>
       </c>
       <c r="H90" s="4" t="s">
-        <v>15</v>
+        <v>11</v>
       </c>
       <c r="I90" s="3">
         <v>9.7000000000000003E-3</v>
@@ -4519,10 +4519,10 @@
         <v>2.4250000000000001E-3</v>
       </c>
       <c r="L90" s="1" t="s">
-        <v>9</v>
+        <v>5</v>
       </c>
       <c r="M90" s="1" t="s">
-        <v>17</v>
+        <v>13</v>
       </c>
       <c r="N90" s="1">
         <v>0.21</v>
@@ -4545,13 +4545,13 @@
         <v>2</v>
       </c>
       <c r="F91" s="1" t="s">
-        <v>11</v>
+        <v>7</v>
       </c>
       <c r="G91" s="1" t="s">
-        <v>12</v>
+        <v>8</v>
       </c>
       <c r="H91" s="4" t="s">
-        <v>15</v>
+        <v>11</v>
       </c>
       <c r="I91" s="3">
         <v>2.2000000000000001E-3</v>
@@ -4564,10 +4564,10 @@
         <v>5.5000000000000003E-4</v>
       </c>
       <c r="L91" s="1" t="s">
-        <v>9</v>
+        <v>5</v>
       </c>
       <c r="M91" s="1" t="s">
-        <v>17</v>
+        <v>13</v>
       </c>
       <c r="N91" s="1">
         <v>0.21</v>
@@ -4590,13 +4590,13 @@
         <v>2.2000000000000002</v>
       </c>
       <c r="F92" s="1" t="s">
-        <v>11</v>
+        <v>7</v>
       </c>
       <c r="G92" s="1" t="s">
-        <v>12</v>
+        <v>8</v>
       </c>
       <c r="H92" s="4" t="s">
-        <v>15</v>
+        <v>11</v>
       </c>
       <c r="I92" s="3">
         <v>6.7000000000000011E-3</v>
@@ -4609,10 +4609,10 @@
         <v>1.6750000000000003E-3</v>
       </c>
       <c r="L92" s="1" t="s">
-        <v>9</v>
+        <v>5</v>
       </c>
       <c r="M92" s="1" t="s">
-        <v>17</v>
+        <v>13</v>
       </c>
       <c r="N92" s="1">
         <v>0.21</v>
@@ -4635,13 +4635,13 @@
         <v>2.4</v>
       </c>
       <c r="F93" s="1" t="s">
-        <v>11</v>
+        <v>7</v>
       </c>
       <c r="G93" s="1" t="s">
-        <v>12</v>
+        <v>8</v>
       </c>
       <c r="H93" s="4" t="s">
-        <v>15</v>
+        <v>11</v>
       </c>
       <c r="I93" s="3">
         <v>1.5499999999999999E-3</v>
@@ -4654,10 +4654,10 @@
         <v>3.8749999999999999E-4</v>
       </c>
       <c r="L93" s="1" t="s">
-        <v>9</v>
+        <v>5</v>
       </c>
       <c r="M93" s="1" t="s">
-        <v>17</v>
+        <v>13</v>
       </c>
       <c r="N93" s="1">
         <v>0.21</v>
@@ -4680,13 +4680,13 @@
         <v>2.6</v>
       </c>
       <c r="F94" s="1" t="s">
-        <v>11</v>
+        <v>7</v>
       </c>
       <c r="G94" s="1" t="s">
-        <v>12</v>
+        <v>8</v>
       </c>
       <c r="H94" s="4" t="s">
-        <v>15</v>
+        <v>11</v>
       </c>
       <c r="I94" s="3">
         <v>8.4000000000000014E-4</v>
@@ -4699,10 +4699,10 @@
         <v>2.1000000000000004E-4</v>
       </c>
       <c r="L94" s="1" t="s">
-        <v>9</v>
+        <v>5</v>
       </c>
       <c r="M94" s="1" t="s">
-        <v>17</v>
+        <v>13</v>
       </c>
       <c r="N94" s="1">
         <v>0.21</v>
@@ -4725,13 +4725,13 @@
         <v>3.2</v>
       </c>
       <c r="F95" s="1" t="s">
-        <v>11</v>
+        <v>7</v>
       </c>
       <c r="G95" s="1" t="s">
-        <v>12</v>
+        <v>8</v>
       </c>
       <c r="H95" s="4" t="s">
-        <v>15</v>
+        <v>11</v>
       </c>
       <c r="I95" s="3">
         <v>9.6000000000000002E-4</v>
@@ -4744,10 +4744,10 @@
         <v>2.4000000000000001E-4</v>
       </c>
       <c r="L95" s="1" t="s">
-        <v>9</v>
+        <v>5</v>
       </c>
       <c r="M95" s="1" t="s">
-        <v>17</v>
+        <v>13</v>
       </c>
       <c r="N95" s="1">
         <v>0.21</v>
@@ -4770,13 +4770,13 @@
         <v>0.2</v>
       </c>
       <c r="F96" s="1" t="s">
-        <v>11</v>
+        <v>7</v>
       </c>
       <c r="G96" s="1" t="s">
-        <v>12</v>
+        <v>8</v>
       </c>
       <c r="H96" s="4" t="s">
-        <v>15</v>
+        <v>11</v>
       </c>
       <c r="I96" s="3">
         <v>1.8700000000000001E-2</v>
@@ -4789,10 +4789,10 @@
         <v>4.6750000000000003E-3</v>
       </c>
       <c r="L96" s="1" t="s">
-        <v>9</v>
+        <v>5</v>
       </c>
       <c r="M96" s="1" t="s">
-        <v>17</v>
+        <v>13</v>
       </c>
       <c r="N96" s="1">
         <v>0.21</v>
@@ -4815,13 +4815,13 @@
         <v>0.4</v>
       </c>
       <c r="F97" s="1" t="s">
-        <v>11</v>
+        <v>7</v>
       </c>
       <c r="G97" s="1" t="s">
-        <v>12</v>
+        <v>8</v>
       </c>
       <c r="H97" s="4" t="s">
-        <v>15</v>
+        <v>11</v>
       </c>
       <c r="I97" s="3">
         <v>1.66E-2</v>
@@ -4834,10 +4834,10 @@
         <v>4.15E-3</v>
       </c>
       <c r="L97" s="1" t="s">
-        <v>9</v>
+        <v>5</v>
       </c>
       <c r="M97" s="1" t="s">
-        <v>17</v>
+        <v>13</v>
       </c>
       <c r="N97" s="1">
         <v>0.21</v>
@@ -4860,13 +4860,13 @@
         <v>0.6</v>
       </c>
       <c r="F98" s="1" t="s">
-        <v>11</v>
+        <v>7</v>
       </c>
       <c r="G98" s="1" t="s">
-        <v>12</v>
+        <v>8</v>
       </c>
       <c r="H98" s="4" t="s">
-        <v>15</v>
+        <v>11</v>
       </c>
       <c r="I98" s="3">
         <v>1.2100000000000001E-2</v>
@@ -4879,10 +4879,10 @@
         <v>3.0250000000000003E-3</v>
       </c>
       <c r="L98" s="1" t="s">
-        <v>9</v>
+        <v>5</v>
       </c>
       <c r="M98" s="1" t="s">
-        <v>17</v>
+        <v>13</v>
       </c>
       <c r="N98" s="1">
         <v>0.21</v>
@@ -4905,13 +4905,13 @@
         <v>0.8</v>
       </c>
       <c r="F99" s="1" t="s">
-        <v>11</v>
+        <v>7</v>
       </c>
       <c r="G99" s="1" t="s">
-        <v>12</v>
+        <v>8</v>
       </c>
       <c r="H99" s="4" t="s">
-        <v>15</v>
+        <v>11</v>
       </c>
       <c r="I99" s="3">
         <v>1.0100000000000001E-2</v>
@@ -4924,10 +4924,10 @@
         <v>2.5250000000000003E-3</v>
       </c>
       <c r="L99" s="1" t="s">
-        <v>9</v>
+        <v>5</v>
       </c>
       <c r="M99" s="1" t="s">
-        <v>17</v>
+        <v>13</v>
       </c>
       <c r="N99" s="1">
         <v>0.21</v>
@@ -4950,13 +4950,13 @@
         <v>1</v>
       </c>
       <c r="F100" s="1" t="s">
-        <v>11</v>
+        <v>7</v>
       </c>
       <c r="G100" s="1" t="s">
-        <v>12</v>
+        <v>8</v>
       </c>
       <c r="H100" s="4" t="s">
-        <v>15</v>
+        <v>11</v>
       </c>
       <c r="I100" s="3">
         <v>6.2400000000000004E-2</v>
@@ -4969,10 +4969,10 @@
         <v>1.5600000000000001E-2</v>
       </c>
       <c r="L100" s="1" t="s">
-        <v>9</v>
+        <v>5</v>
       </c>
       <c r="M100" s="1" t="s">
-        <v>17</v>
+        <v>13</v>
       </c>
       <c r="N100" s="1">
         <v>0.21</v>
@@ -4995,13 +4995,13 @@
         <v>1.2</v>
       </c>
       <c r="F101" s="1" t="s">
-        <v>11</v>
+        <v>7</v>
       </c>
       <c r="G101" s="1" t="s">
-        <v>12</v>
+        <v>8</v>
       </c>
       <c r="H101" s="4" t="s">
-        <v>15</v>
+        <v>11</v>
       </c>
       <c r="I101" s="3">
         <v>6.6E-3</v>
@@ -5014,10 +5014,10 @@
         <v>1.65E-3</v>
       </c>
       <c r="L101" s="1" t="s">
-        <v>9</v>
+        <v>5</v>
       </c>
       <c r="M101" s="1" t="s">
-        <v>17</v>
+        <v>13</v>
       </c>
       <c r="N101" s="1">
         <v>0.21</v>
@@ -5040,13 +5040,13 @@
         <v>1.4</v>
       </c>
       <c r="F102" s="1" t="s">
-        <v>11</v>
+        <v>7</v>
       </c>
       <c r="G102" s="1" t="s">
-        <v>12</v>
+        <v>8</v>
       </c>
       <c r="H102" s="4" t="s">
-        <v>15</v>
+        <v>11</v>
       </c>
       <c r="I102" s="3">
         <v>2.3000000000000004E-3</v>
@@ -5059,10 +5059,10 @@
         <v>5.750000000000001E-4</v>
       </c>
       <c r="L102" s="1" t="s">
-        <v>9</v>
+        <v>5</v>
       </c>
       <c r="M102" s="1" t="s">
-        <v>17</v>
+        <v>13</v>
       </c>
       <c r="N102" s="1">
         <v>0.21</v>
@@ -5085,13 +5085,13 @@
         <v>1.6</v>
       </c>
       <c r="F103" s="1" t="s">
-        <v>11</v>
+        <v>7</v>
       </c>
       <c r="G103" s="1" t="s">
-        <v>12</v>
+        <v>8</v>
       </c>
       <c r="H103" s="4" t="s">
-        <v>15</v>
+        <v>11</v>
       </c>
       <c r="I103" s="3">
         <v>3.7000000000000002E-3</v>
@@ -5104,10 +5104,10 @@
         <v>9.2500000000000004E-4</v>
       </c>
       <c r="L103" s="1" t="s">
-        <v>9</v>
+        <v>5</v>
       </c>
       <c r="M103" s="1" t="s">
-        <v>17</v>
+        <v>13</v>
       </c>
       <c r="N103" s="1">
         <v>0.21</v>
@@ -5130,13 +5130,13 @@
         <v>1.8</v>
       </c>
       <c r="F104" s="1" t="s">
-        <v>11</v>
+        <v>7</v>
       </c>
       <c r="G104" s="1" t="s">
-        <v>12</v>
+        <v>8</v>
       </c>
       <c r="H104" s="4" t="s">
-        <v>15</v>
+        <v>11</v>
       </c>
       <c r="I104" s="3">
         <v>4.6000000000000008E-3</v>
@@ -5149,10 +5149,10 @@
         <v>1.1500000000000002E-3</v>
       </c>
       <c r="L104" s="1" t="s">
-        <v>9</v>
+        <v>5</v>
       </c>
       <c r="M104" s="1" t="s">
-        <v>17</v>
+        <v>13</v>
       </c>
       <c r="N104" s="1">
         <v>0.21</v>
@@ -5175,13 +5175,13 @@
         <v>2</v>
       </c>
       <c r="F105" s="1" t="s">
-        <v>11</v>
+        <v>7</v>
       </c>
       <c r="G105" s="1" t="s">
-        <v>12</v>
+        <v>8</v>
       </c>
       <c r="H105" s="4" t="s">
-        <v>15</v>
+        <v>11</v>
       </c>
       <c r="I105" s="3">
         <v>7.5000000000000012E-4</v>
@@ -5194,10 +5194,10 @@
         <v>1.8750000000000003E-4</v>
       </c>
       <c r="L105" s="1" t="s">
-        <v>9</v>
+        <v>5</v>
       </c>
       <c r="M105" s="1" t="s">
-        <v>17</v>
+        <v>13</v>
       </c>
       <c r="N105" s="1">
         <v>0.21</v>
@@ -5220,13 +5220,13 @@
         <v>2.2000000000000002</v>
       </c>
       <c r="F106" s="1" t="s">
-        <v>11</v>
+        <v>7</v>
       </c>
       <c r="G106" s="1" t="s">
-        <v>12</v>
+        <v>8</v>
       </c>
       <c r="H106" s="4" t="s">
-        <v>15</v>
+        <v>11</v>
       </c>
       <c r="I106" s="3">
         <v>4.6999999999999999E-4</v>
@@ -5239,10 +5239,10 @@
         <v>1.175E-4</v>
       </c>
       <c r="L106" s="1" t="s">
-        <v>9</v>
+        <v>5</v>
       </c>
       <c r="M106" s="1" t="s">
-        <v>17</v>
+        <v>13</v>
       </c>
       <c r="N106" s="1">
         <v>0.21</v>
@@ -5265,13 +5265,13 @@
         <v>2.8</v>
       </c>
       <c r="F107" s="1" t="s">
-        <v>11</v>
+        <v>7</v>
       </c>
       <c r="G107" s="1" t="s">
-        <v>12</v>
+        <v>8</v>
       </c>
       <c r="H107" s="4" t="s">
-        <v>15</v>
+        <v>11</v>
       </c>
       <c r="I107" s="3">
         <v>3.6999999999999999E-4</v>
@@ -5284,10 +5284,10 @@
         <v>9.2499999999999999E-5</v>
       </c>
       <c r="L107" s="1" t="s">
-        <v>9</v>
+        <v>5</v>
       </c>
       <c r="M107" s="1" t="s">
-        <v>17</v>
+        <v>13</v>
       </c>
       <c r="N107" s="1">
         <v>0.21</v>
@@ -5310,13 +5310,13 @@
         <v>3</v>
       </c>
       <c r="F108" s="1" t="s">
-        <v>11</v>
+        <v>7</v>
       </c>
       <c r="G108" s="1" t="s">
-        <v>12</v>
+        <v>8</v>
       </c>
       <c r="H108" s="4" t="s">
-        <v>15</v>
+        <v>11</v>
       </c>
       <c r="I108" s="3">
         <v>4.4000000000000002E-4</v>
@@ -5329,10 +5329,10 @@
         <v>1.1E-4</v>
       </c>
       <c r="L108" s="1" t="s">
-        <v>9</v>
+        <v>5</v>
       </c>
       <c r="M108" s="1" t="s">
-        <v>17</v>
+        <v>13</v>
       </c>
       <c r="N108" s="1">
         <v>0.21</v>
@@ -5355,13 +5355,13 @@
         <v>0.2</v>
       </c>
       <c r="F109" s="1" t="s">
-        <v>11</v>
+        <v>7</v>
       </c>
       <c r="G109" s="1" t="s">
-        <v>12</v>
+        <v>8</v>
       </c>
       <c r="H109" s="4" t="s">
-        <v>15</v>
+        <v>11</v>
       </c>
       <c r="I109" s="3">
         <v>2.7100000000000002E-3</v>
@@ -5374,10 +5374,10 @@
         <v>6.7750000000000004E-4</v>
       </c>
       <c r="L109" s="1" t="s">
-        <v>9</v>
+        <v>5</v>
       </c>
       <c r="M109" s="1" t="s">
-        <v>17</v>
+        <v>13</v>
       </c>
       <c r="N109" s="1">
         <v>0.21</v>
@@ -5400,13 +5400,13 @@
         <v>0.4</v>
       </c>
       <c r="F110" s="1" t="s">
-        <v>11</v>
+        <v>7</v>
       </c>
       <c r="G110" s="1" t="s">
-        <v>12</v>
+        <v>8</v>
       </c>
       <c r="H110" s="4" t="s">
-        <v>15</v>
+        <v>11</v>
       </c>
       <c r="I110" s="3">
         <v>7.9000000000000012E-4</v>
@@ -5419,10 +5419,10 @@
         <v>1.9750000000000003E-4</v>
       </c>
       <c r="L110" s="1" t="s">
-        <v>9</v>
+        <v>5</v>
       </c>
       <c r="M110" s="1" t="s">
-        <v>17</v>
+        <v>13</v>
       </c>
       <c r="N110" s="1">
         <v>0.21</v>
@@ -5445,13 +5445,13 @@
         <v>0.6</v>
       </c>
       <c r="F111" s="1" t="s">
-        <v>11</v>
+        <v>7</v>
       </c>
       <c r="G111" s="1" t="s">
-        <v>12</v>
+        <v>8</v>
       </c>
       <c r="H111" s="4" t="s">
-        <v>15</v>
+        <v>11</v>
       </c>
       <c r="I111" s="3">
         <v>1.01E-3</v>
@@ -5464,10 +5464,10 @@
         <v>2.5250000000000001E-4</v>
       </c>
       <c r="L111" s="1" t="s">
-        <v>9</v>
+        <v>5</v>
       </c>
       <c r="M111" s="1" t="s">
-        <v>17</v>
+        <v>13</v>
       </c>
       <c r="N111" s="1">
         <v>0.21</v>
@@ -5490,13 +5490,13 @@
         <v>0.8</v>
       </c>
       <c r="F112" s="1" t="s">
-        <v>11</v>
+        <v>7</v>
       </c>
       <c r="G112" s="1" t="s">
-        <v>12</v>
+        <v>8</v>
       </c>
       <c r="H112" s="4" t="s">
-        <v>15</v>
+        <v>11</v>
       </c>
       <c r="I112" s="3">
         <v>1E-3</v>
@@ -5509,10 +5509,10 @@
         <v>2.5000000000000001E-4</v>
       </c>
       <c r="L112" s="1" t="s">
-        <v>9</v>
+        <v>5</v>
       </c>
       <c r="M112" s="1" t="s">
-        <v>17</v>
+        <v>13</v>
       </c>
       <c r="N112" s="1">
         <v>0.21</v>
@@ -5535,13 +5535,13 @@
         <v>1</v>
       </c>
       <c r="F113" s="1" t="s">
-        <v>11</v>
+        <v>7</v>
       </c>
       <c r="G113" s="1" t="s">
-        <v>12</v>
+        <v>8</v>
       </c>
       <c r="H113" s="4" t="s">
-        <v>15</v>
+        <v>11</v>
       </c>
       <c r="I113" s="3">
         <v>6.8000000000000005E-4</v>
@@ -5554,10 +5554,10 @@
         <v>1.7000000000000001E-4</v>
       </c>
       <c r="L113" s="1" t="s">
-        <v>9</v>
+        <v>5</v>
       </c>
       <c r="M113" s="1" t="s">
-        <v>17</v>
+        <v>13</v>
       </c>
       <c r="N113" s="1">
         <v>0.21</v>
@@ -5580,13 +5580,13 @@
         <v>1.2</v>
       </c>
       <c r="F114" s="1" t="s">
-        <v>11</v>
+        <v>7</v>
       </c>
       <c r="G114" s="1" t="s">
-        <v>12</v>
+        <v>8</v>
       </c>
       <c r="H114" s="4" t="s">
-        <v>15</v>
+        <v>11</v>
       </c>
       <c r="I114" s="3">
         <v>1.1800000000000001E-3</v>
@@ -5599,10 +5599,10 @@
         <v>2.9500000000000001E-4</v>
       </c>
       <c r="L114" s="1" t="s">
-        <v>9</v>
+        <v>5</v>
       </c>
       <c r="M114" s="1" t="s">
-        <v>17</v>
+        <v>13</v>
       </c>
       <c r="N114" s="1">
         <v>0.21</v>
@@ -5625,13 +5625,13 @@
         <v>1.4</v>
       </c>
       <c r="F115" s="1" t="s">
-        <v>11</v>
+        <v>7</v>
       </c>
       <c r="G115" s="1" t="s">
-        <v>12</v>
+        <v>8</v>
       </c>
       <c r="H115" s="4" t="s">
-        <v>15</v>
+        <v>11</v>
       </c>
       <c r="I115" s="3">
         <v>2.6000000000000003E-4</v>
@@ -5644,10 +5644,10 @@
         <v>6.5000000000000008E-5</v>
       </c>
       <c r="L115" s="1" t="s">
-        <v>9</v>
+        <v>5</v>
       </c>
       <c r="M115" s="1" t="s">
-        <v>17</v>
+        <v>13</v>
       </c>
       <c r="N115" s="1">
         <v>0.21</v>
@@ -5670,13 +5670,13 @@
         <v>1.6</v>
       </c>
       <c r="F116" s="1" t="s">
-        <v>11</v>
+        <v>7</v>
       </c>
       <c r="G116" s="1" t="s">
-        <v>12</v>
+        <v>8</v>
       </c>
       <c r="H116" s="4" t="s">
-        <v>15</v>
+        <v>11</v>
       </c>
       <c r="I116" s="3">
         <v>5.4000000000000001E-4</v>
@@ -5689,10 +5689,10 @@
         <v>1.35E-4</v>
       </c>
       <c r="L116" s="1" t="s">
-        <v>9</v>
+        <v>5</v>
       </c>
       <c r="M116" s="1" t="s">
-        <v>17</v>
+        <v>13</v>
       </c>
       <c r="N116" s="1">
         <v>0.21</v>
@@ -5715,13 +5715,13 @@
         <v>1.8</v>
       </c>
       <c r="F117" s="1" t="s">
-        <v>11</v>
+        <v>7</v>
       </c>
       <c r="G117" s="1" t="s">
-        <v>12</v>
+        <v>8</v>
       </c>
       <c r="H117" s="4" t="s">
-        <v>15</v>
+        <v>11</v>
       </c>
       <c r="I117" s="3">
         <v>3.5000000000000005E-4</v>
@@ -5734,10 +5734,10 @@
         <v>8.7500000000000013E-5</v>
       </c>
       <c r="L117" s="1" t="s">
-        <v>9</v>
+        <v>5</v>
       </c>
       <c r="M117" s="1" t="s">
-        <v>17</v>
+        <v>13</v>
       </c>
       <c r="N117" s="1">
         <v>0.21</v>
@@ -5760,13 +5760,13 @@
         <v>2.4</v>
       </c>
       <c r="F118" s="1" t="s">
-        <v>11</v>
+        <v>7</v>
       </c>
       <c r="G118" s="1" t="s">
-        <v>12</v>
+        <v>8</v>
       </c>
       <c r="H118" s="4" t="s">
-        <v>15</v>
+        <v>11</v>
       </c>
       <c r="I118" s="3">
         <v>2.9E-4</v>
@@ -5779,10 +5779,10 @@
         <v>7.25E-5</v>
       </c>
       <c r="L118" s="1" t="s">
-        <v>9</v>
+        <v>5</v>
       </c>
       <c r="M118" s="1" t="s">
-        <v>17</v>
+        <v>13</v>
       </c>
       <c r="N118" s="1">
         <v>0.21</v>
